--- a/questions_with_reasoning.xlsx
+++ b/questions_with_reasoning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(a) ignore.</t>
+          <t xml:space="preserve"> The context of the sentence suggests that the sanctions were detrimental to the school's attempts at reform. The word "ignore" implies that the sanctions disregarded or overlooked the positive changes the school was trying to implement. The other options (b, c, d, e) do not fit as well because they do not convey the idea of negating or dismissing the school's efforts in the context of punitive measures. Thus, "ignore" accurately reflects the relationship between the sanctions and the school's efforts.</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(b) populated areas.</t>
+          <t xml:space="preserve"> The phrase "where the people were" indicates that Sammy is looking for a location that is crowded or has a significant number of individuals. Among the options provided, "populated areas" (option b) is the most straightforward choice, as it directly refers to places where many people live or gather. While a race track may attract people during events, it is not consistently populated. The desert (option c) is sparsely inhabited, and an apartment (option d) may have few residents. A roadblock (option e) does not imply a gathering of people, but rather a stoppage. Therefore, option b is the best answer as it encompasses locations that are generally filled with people.</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(a) jewelry store.</t>
+          <t xml:space="preserve"> A choker is a type of necklace that is typically worn around the neck. If it is not found in a jewelry box or boutique, the most logical place to look for a choker would be a jewelry store, where a variety of jewelry items, including chokers, are available for purchase. The options 'b' (neck) and 'c' &amp; 'd' (jewelry box) do not represent places where one would typically seek to locate a choker for sale. 'e' (boutique) is also ruled out since the question specifies that we are looking for a choker not located in a boutique. Thus, option (a) is the only viable answer.</t>
         </is>
       </c>
     </row>
@@ -539,8 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(d) atlas.
-Google Maps and other GPS services have replaced the need for physical atlases, which were once commonly used to navigate and plan routes. With the convenience and accuracy of digital maps on smartphones and other devices, physical atlases have become obsolete for many people. This shift in technology has made it easier for individuals to access up-to-date mapping information and navigate efficiently.</t>
+          <t xml:space="preserve"> Google Maps and similar GPS services provide digital navigation and mapping solutions that have largely replaced traditional paper atlases. Atlases are collections of maps that were commonly used for navigation before the advent of digital mapping technologies. With the convenience and real-time capabilities of GPS services, people now rely on these digital platforms for directions, traffic updates, and geographic information, making physical atlases largely obsolete for most users. The other options do not relate to navigation tools and do not fit the context of what has been replaced by digital maps.</t>
         </is>
       </c>
     </row>
@@ -562,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(c) natural habitat. Foxes are wild animals that typically live in forests or other natural habitats. They are not known to look for pretty flowers, hen houses, storybooks, or dense forests specifically. The most logical choice is that the fox was looking for its natural habitat in the forest.</t>
+          <t xml:space="preserve"> The fox is a wild animal typically found in natural environments such as forests. When it walked from the city into the forest, it was likely seeking its natural habitat, which provides food, shelter, and space to roam. While options like "hen house" may seem plausible, they imply a domesticated setting which is not suitable for a fox. Additionally, "pretty flowers" and "storybook" are unrelated to a fox's needs, and "dense forest" describes the environment rather than something the fox is actively seeking. Therefore, the most logical answer is that the fox was looking for its natural habitat.</t>
         </is>
       </c>
     </row>
@@ -584,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(d) television. Televisions typically require a cable connection to access cable television channels, which provide a variety of entertainment options. Radio shack, substation, cabinet, and desk are not typically associated with requiring a cable connection for home entertainment purposes.</t>
+          <t xml:space="preserve"> A television is a home entertainment device that typically requires cable to receive broadcast signals, whether through traditional cable systems or satellite services. While other options listed may involve electronic equipment or furniture, they do not serve as primary home entertainment devices that specifically rely on cable connections for functionality.</t>
         </is>
       </c>
     </row>
@@ -606,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(e) airport.</t>
+          <t xml:space="preserve"> The mention of a "drawstring bag" suggests that the woman is likely traveling, as such bags are commonly used for carrying personal items during trips. The context of checking baggage implies she is at a location where luggage is processed, which is typical at an airport. The other options do not logically fit with the act of checking a drawstring bag; for example, a garbage can, military, jewelry store, or safe do not require checked baggage in the same manner that air travel does. Therefore, the most reasonable destination for someone checking a drawstring bag is the airport.</t>
         </is>
       </c>
     </row>
@@ -628,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(b) refrigerator. The question mentions that the leftovers were covered in mold, which is a common occurrence when food is left for too long in a refrigerator where the temperature is conducive to mold growth. The other options such as carpet, breadbox, and coach are unlikely places for leftovers to be stored and therefore not the correct answer.</t>
+          <t xml:space="preserve"> The context of the question suggests that the forgotten leftovers are likely perishable food items, which would typically be stored in a cold environment to prevent spoilage. Among the options provided, both (b) refrigerator and (d) fridge refer to the same appliance used for storing food, but "refrigerator" is the more formal term. The other options, like (a) carpet, (c) breadbox, and (e) coach, are not suitable for storing leftovers as they do not provide the necessary conditions to keep food fresh. Therefore, the correct answer is (b) refrigerator, as it is the most logical place for someone to find old, moldy leftovers.</t>
         </is>
       </c>
     </row>
@@ -650,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(e) blotter.</t>
+          <t xml:space="preserve"> A blotter is specifically designed to absorb ink and prevent smudging when writing with a fountain pen or any ink-based writing instrument. It is typically made from absorbent paper that can soak up excess ink from the nib or from a freshly written line of text. The other options do not serve this purpose; for example, a shirt pocket or a calligrapher's hand would not effectively absorb ink, and an inkwell is used to hold ink rather than absorb it. A desk drawer does not relate to the absorption of ink at all. Thus, the correct choice is the blotter.</t>
         </is>
       </c>
     </row>
@@ -672,8 +671,1991 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(d) business sector. 
-A business restaurant is likely to be located in a business sector because it caters to professionals and individuals working in that area. Business sectors are typically filled with offices, corporate buildings, and professionals who are looking for convenient dining options during their workday. Placing a business restaurant in a business sector increases the chances of attracting customers who are looking for a quick and efficient dining experience while on a break from work.</t>
+          <t xml:space="preserve"> A business restaurant is typically designed to cater to professionals and businesspeople who are looking for a convenient place to eat during work hours or business meetings. The business sector is characterized by offices, corporate buildings, and other workplaces where employees and clients are likely to gather for meals. This makes it an ideal location for a business restaurant, as it can attract a steady flow of customers who are looking for quick, professional dining options. In contrast, while locations like towns, hotels, and malls might have restaurants, they are not specifically tailored to serve the needs of business clientele in the same way that a restaurant situated in a business sector would be. Yellow pages, being a directory, do not represent a physical location.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Where do you put your grapes just before checking out?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(a) mouth (b) grocery cart (c) super market (d) fruit basket (e) fruit market</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When shopping for groceries, grapes are typically placed in a grocery cart while you continue to shop. Just before checking out, you would have already placed the grapes in the grocery cart along with other items. The other options do not accurately represent where you would put grapes in a grocery shopping context: (a) "mouth" is not a place for them while shopping, (c) "super market" refers to the location itself, not a storage option, (d) "fruit basket" implies a home storage solution rather than a shopping cart, and (e) "fruit market" indicates a type of store rather than a place to put grapes during the shopping process. Therefore, the correct answer is (b) grocery cart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Before getting a divorce, what did the wife feel who was doing all the work?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(a) harder (b) anguish (c) bitterness (d) tears (e) sadness</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The correct answer is "bitterness" because it reflects a deep-seated resentment and frustration that often arises when one partner feels overburdened and unappreciated in a relationship. In the context of a spouse doing all the work, bitterness can stem from feelings of inequality and a lack of acknowledgment for their contributions. While "anguish," "tears," and "sadness" also represent emotional pain, "bitterness" captures the specific sentiment of anger and resentment towards the situation and the other partner, making it the most fitting choice. "Harder" is not a suitable option as it does not convey an emotional state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnny sat on a bench and relaxed after doing a lot of work on his hobby.  Where is he?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(a) state park (b) bus depot (c) garden (d) gym (e) rest area</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Johnny is described as sitting on a bench and relaxing, which suggests a calm and pleasant environment typically associated with leisure activities. Among the options, a garden is a place known for its tranquility and beauty, making it a suitable location for relaxation after engaging in a hobby. While a state park may also fit this description, a garden specifically emphasizes a serene and aesthetically pleasing setting. The other options, such as a bus depot, gym, and rest area, are not primarily associated with relaxation in the same way a garden is. Therefore, the most fitting answer is that Johnny is in a garden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>James was cooling off two quickly.  He would die if he didn't find some way to stop what?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(a) loss of heat (b) revenge (c) expansion (d) relaxation (e) calm down</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "cooling off too quickly" indicates that James is losing heat at a potentially dangerous rate. If he continues to lose heat excessively, it can lead to hypothermia or other life-threatening conditions. Therefore, the most logical answer is (a) loss of heat, as stopping the loss of heat is essential for his survival. The other options do not relate to a critical physical condition that could result in death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Of all the rooms in a house it was his favorite, the aromas always drew him to the what?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(a) yard (b) basement (c) kitchen (d) living room (e) garden</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The kitchen is typically associated with cooking and food preparation, which naturally involves various aromas from ingredients and meals being prepared. This connection to delightful smells makes the kitchen a favorite room for many people. The other options, such as the yard, basement, living room, and garden, do not evoke the same strong association with food-related aromas, making the kitchen the most logical answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bill is stuck in marsh when a man comes up to him peaking Cajun, where is he?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(a) low lands (b) new york (c) forest (d) louisiana (e) everglades</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "Cajun" specifically refers to a cultural group primarily found in Louisiana, known for their distinct French dialect and cultural heritage. The presence of a man speaking Cajun suggests that they are in a region where this culture is prevalent. Louisiana is famous for its marshlands, particularly in areas like the bayous, which aligns with Bill being stuck in a marsh. While "low lands" might be a general description, it does not pinpoint a specific location associated with Cajun culture. New York, forest, and everglades do not fit the context as closely as Louisiana does, making option (d) the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>What is it called when you slowly cook using a grill?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(a) backyard (b) restaurant (c) crockpot (d) neighbor's house (e) barbeque</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  
+The term "barbeque" specifically refers to a method of cooking where food, typically meat, is cooked slowly over indirect heat on a grill, often accompanied by smoke from wood or charcoal. This method enhances the flavor and tenderness of the food. The other options do not accurately describe this cooking technique: "backyard" refers to a location, "restaurant" refers to a place where food is served, "crockpot" is a slow-cooking appliance, and "neighbor's house" is simply a location where grilling could potentially occur but does not define the cooking method itself. Therefore, "barbeque" is the correct term for the process described in the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>What type of person typically contracts illness?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(a) hospital (b) head (c) sick person (d) elderly person (e) doctor's office</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elderly individuals are generally more susceptible to various illnesses due to a combination of factors, including a weakened immune system, the presence of chronic health conditions, and age-related physiological changes. These factors increase their vulnerability to infections and diseases compared to other demographics. While sick persons have already contracted an illness, the question specifically asks about who typically contracts illness, making the elderly person the most appropriate choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Where would you expect to find a pizzeria while shopping?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(a) chicago (b) street (c) little italy (d) food court (e) capital cities</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A food court is a designated area in a shopping complex or mall that features multiple food vendors, including pizzerias. It is specifically designed for dining while shopping, making it the most logical location to find a pizzeria among the options listed. While pizzerias can be found in cities like Chicago or areas known for Italian cuisine like Little Italy, the context of "while shopping" specifically points to a food court as a common place to find a variety of food options, including pizza, in close proximity to retail stores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>When eating everything on the tasting menu, what does one tend to feel?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(a) full stomach (b) getting full (c) gaining weight (d) sick (e) satisfaction</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When experiencing a tasting menu, diners typically sample multiple small dishes rather than consuming a large quantity of food in one sitting. As a result, they may feel increasingly full as they progress through the menu, but not necessarily to the point of being overly stuffed or uncomfortable. The sensation of "getting full" captures the gradual feeling of fullness that accompanies enjoying a variety of flavors without overindulging, distinguishing it from the more definitive feeling of a "full stomach," which implies reaching the limit of one's capacity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>What does playing soccer for a long time lead to?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(a) excitement (b) fatigue (c) anger (d) hurting (e) getting tired</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Playing soccer for an extended period typically engages the body in vigorous physical activity, which can lead to physical exhaustion. "Getting tired" specifically captures the general experience of fatigue that accumulates over time during prolonged exercise. While option (b) "fatigue" is also related, "getting tired" is a more common and simpler expression that directly describes the sensation that comes from extended physical activity. The other options (a, c, d) are not direct outcomes of prolonged play and do not universally apply to the experience of playing soccer over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Which entrance would you use if you do not want to use the back entrance?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(a) side (b) main (c) anterior (d) current (e) front</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "main entrance" typically refers to the primary or most prominent entry point of a building, which is often used by visitors. If a person is avoiding the back entrance, they are likely looking for the most accessible and commonly used entry, making the main entrance the most appropriate choice. Options like "side" or "front" could also be considered, but "main" clearly indicates the primary point of access. The terms "anterior" and "current" do not conventionally refer to entrances, further solidifying "main" as the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>You can share files with someone if you have a connection to a what?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(a) freeway (b) radio (c) wires (d) computer network (e) electrical circuit</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A computer network is a system that connects computers and other devices together to share resources, such as files and data. While some of the other options involve connections (like radio or wires), they do not specifically pertain to the context of file sharing in a digital environment. A freeway, for instance, is unrelated to digital communications, and while electrical circuits can transmit signals, they do not inherently create a network for file sharing. Thus, a computer network is the most accurate answer for enabling file sharing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The accelerator was controller via a hand throttle, and the foot pedals controlled the steering in the small what?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(a) car (b) fuel system (c) accelerate (d) boat (e) airplane</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In aviation, particularly in small aircraft, the accelerator is often controlled by a hand throttle rather than a foot pedal, which is more common in cars. The foot pedals in an airplane are typically used to control the rudder, which helps steer the aircraft. This configuration is distinct from cars, boats, and other options listed, making "airplane" the most fitting choice in this context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sean was lying about the body, but he was very scared.  He constantly worried about what?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(a) the reward money (b) hurt feelings (c) being found out (d) problems (e) trouble</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sean's fear stems from the fact that he is lying about something significant and potentially incriminating (the body). In situations where someone is lying, especially about serious matters, the primary concern is often the fear of being discovered or exposed. This aligns with option (c) "being found out," as it directly relates to the consequences of his lie. While other options like (a) the reward money or (e) trouble might also be relevant, they do not capture the core anxiety of being exposed for dishonesty, which is the essence of Sean's fear in this scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>The drug kingpin told his man to run errands, this was code to go to all the dealers to do what they had?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(a) park (b) make time for (c) receive instructions (d) take money (e) leave work</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the context of drug trafficking, "running errands" typically involves collecting profits or payments from dealers. The phrase suggests that the man is being instructed to visit various dealers and ensure they are providing the expected financial returns to the kingpin. The option "take money" aligns with this interpretation, as it directly relates to the financial transactions that are central to the drug trade. The other options do not fit the context of the task at hand, making "take money" the most logical choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Though he could've kept going his body appreciated the rest, it had been constantly what during the day?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(a) walk (b) lay down (c) working (d) moving (e) exercise</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "constantly what during the day" implies an ongoing activity that requires physical effort. Among the options, "moving" best captures the idea of continuous physical activity without being too specific. "Working" (option c) could also imply effort but is less general than "moving". The other options (a, b, e) either suggest a more specific action (walking or exercising) or indicate rest (laying down), which does not fit with the context of the body needing rest from constant activity. Therefore, "moving" is the most appropriate choice as it encompasses a variety of physical activities that could lead to the need for rest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Too many people want exotic snakes.  The demand is driving what to carry them?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(a) ditch (b) shop (c) north america (d) pet shops (e) outdoors</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "too many people want exotic snakes" indicates a growing interest and demand for these animals. This demand typically leads to businesses that cater to pet ownership, specifically those that sell pets and pet supplies. Among the options provided, "pet shops" (option d) are the most relevant as they are specifically designed to sell pets, including exotic snakes. Other options either do not pertain to the sale of pets (like 'ditch' or 'outdoors') or are too vague (like 'shop' or 'north america'). Therefore, the correct answer is that pet shops are the establishments that would be driven to carry exotic snakes due to the increasing demand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Joe suffered many consequences from stabbing a stranger to death.   Among them, the family of the victim did something to him. What was that?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(a) knife wounds (b) buy a gun (c) bleeding (d) jail time (e) law suit</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> After the death of a loved one, it is common for families to seek legal recourse against the perpetrator. In this case, the family of the victim would likely file a lawsuit against Joe for wrongful death, seeking damages for their loss. The other options (a, b, c, d) do not directly involve actions taken by the victim's family in response to the crime. A law suit is a legal action initiated by the family, making it the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>To prevent any glare during the big football game he made sure to clean the dust of his what?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(a) television (b) attic (c) corner (d) they cannot clean corner and library during football match they cannot need that (e) ground</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question pertains to preventing glare during a football game, which suggests the need for a clear view of a screen where the game will be watched. The most logical option that aligns with this context is (a) television, as cleaning the dust off the TV would directly reduce glare and enhance visibility while watching the game. The other options, such as (b) attic and (c) corner, do not relate to viewing the game, and (d) does not provide a relevant action for the scenario. Option (e) ground could refer to the field where the game is played but is not related to the viewer's experience. Therefore, cleaning the television is the correct action to take.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>I have something in my head I want to share, what ways can I do that?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(a) write an essay (b) organize thoughts (c) speak information (d) summarize main points (e) have information</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To share something that is in your head, one effective method is to "speak information." This option directly addresses the act of communicating thoughts verbally to others. While writing an essay (option a) or summarizing main points (option d) are also valid methods of sharing information, they involve a written format rather than an immediate verbal exchange. Organizing thoughts (option b) is a precursor to sharing but not a method of sharing in itself. Having information (option e) does not imply sharing; it simply indicates possession. Therefore, the most direct and relevant choice for sharing thoughts verbally is to "speak information."</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>He wanted a house that was gated off from other places, where should he start looking?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(a) neighborhood (b) subdivision (c) city (d) suburbs (e) street</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A subdivision typically refers to a residential area that has been divided into smaller plots of land, often featuring homes that share similar architectural styles and community amenities. Many subdivisions are designed to be gated communities, providing security and isolation from outside traffic and noise. In contrast, neighborhoods may or may not have gated options, cities are too broad and urban for gated residences, suburbs can include both gated and non-gated homes, and streets are too specific and limited in scope. Therefore, starting the search in a subdivision is the most logical choice for finding a gated house.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Where in Southern Europe would you find many canals?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(a) michigan (b) new york (c) amsterdam (d) venice (e) bridge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venice, located in Italy, is renowned for its extensive network of canals that serve as the primary mode of transportation within the city. The city's unique layout is characterized by waterways instead of roads, making it famous for its picturesque canals, gondolas, and bridges. Although Amsterdam is also known for its canals, it is located in Northern Europe, not Southern Europe. Therefore, the correct answer is Venice, as it is the prominent city associated with canals in Southern Europe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>What would a camper need to do before he or she can start cooking food?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(a) make breakfast (b) go hiking (c) pack or bag (d) light fire (e) grab a match</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Before cooking food while camping, the camper must first establish a heat source, which is typically done by lighting a fire. This is essential for preparing most types of food, whether by direct cooking over the fire or using cookware placed on it. While options like grabbing a match (e) are related to starting a fire, they do not encompass the broader action of ensuring that the cooking process can begin by lighting the fire itself. Therefore, option (d) is the most comprehensive and necessary step for cooking food while camping.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>What could happen to a paper if you leave it outside even if it does not move?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(a) one material often recycled (b) ripped (c) saturated with water (d) one dimensional (e) crumpled</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When paper is left outside, it is exposed to environmental elements such as rain, humidity, and moisture in the air. Even if the paper does not move, it can absorb water from these elements, leading to it becoming saturated. Saturation occurs when the paper absorbs more water than it can hold, resulting in a loss of structural integrity and making the paper soggy. Other options, such as being ripped or crumpled, could potentially occur as well, but saturation from water exposure is a direct and inevitable consequence of leaving paper outside in wet conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mark's semen was very thick, but after his vasectomy it was also what?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(a) blank (b) sparse (c) thin (d) clear (e) free flowing</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> After a vasectomy, the production of sperm is effectively halted as the vas deferens is cut or blocked, which can lead to changes in the consistency of the semen. The correct answer, "clear," indicates that the semen may lose its thickness and become more liquid or translucent in appearance, as it may no longer contain sperm, which can contribute to a thicker consistency. While "thin" might also seem plausible, "clear" is more accurate in describing the typical changes in the appearance of semen post-vasectomy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>What is a great place to lay in the sun?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(a) in the basement (b) west (c) solar system (d) beach (e) beans</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The beach is a well-known and popular location for sunbathing due to its open exposure to sunlight, sandy areas, and the overall atmosphere conducive to relaxation and enjoyment of the sun. In contrast, the basement (a) is typically dark and does not receive sunlight, "west" (b) is a direction rather than a specific location, "solar system" (c) refers to a vast astronomical region rather than a place for sunbathing, and "beans" (e) is unrelated to sunbathing entirely. Therefore, the beach is the most appropriate and logical choice for laying in the sun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Where would you find a seafood restaurant in the east coast of North America?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(a) maine (b) boston (c) beach town (d) coastal cities (e) ocean</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maine is renowned for its seafood, particularly its lobsters and clams. The state has a rich maritime heritage and a strong fishing industry, making it a prime location for seafood restaurants. While Boston (option b) also has a variety of seafood options and coastal cities (option d) and beach towns (option c) may have seafood restaurants due to their proximity to the ocean, Maine is specifically famous for its seafood culture and is often considered a top destination for seafood enthusiasts. Therefore, option (a) is the most accurate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>The president is the leader of what institution?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(a) walmart (b) white house (c) country (d) corporation (e) government</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The president serves as the head of state and government in a country, overseeing the executive branch and representing the nation domestically and internationally. While options (b) "White House" and (c) "country" are related, the term "government" encompasses the entire political system and structure that the president leads. Therefore, option (e) is the most accurate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sitting to close while watching TV can cause what sort of pain?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(a) brain problems (b) laziness (c) get fat (d) headache (e) laughter</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sitting too close to the TV can lead to eye strain due to the excessive effort required to focus on the screen. This strain can result in headaches, particularly if the viewer is exposed to bright lights or flickering images for extended periods. While other options may relate to lifestyle choices or effects of screen time, the direct consequence of sitting too close is primarily associated with discomfort in the eyes and subsequent headaches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Where is a bald eagle safe?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(a) pine tree (b) open country (c) in washington (d) wildlife refuge (e) sky</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A wildlife refuge provides a protected environment where bald eagles can live without the threats posed by human activities, habitat destruction, and hunting. Wildlife refuges are specifically designed to preserve habitats for various species, including birds of prey like the bald eagle. While options like pine trees or the sky may offer temporary refuge, they do not provide the comprehensive protection and resources that a wildlife refuge does. Additionally, while Washington is home to many bald eagles, it does not guarantee safety compared to a designated wildlife refuge. Therefore, a wildlife refuge is the safest option for bald eagles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The game promised it was free, but the child's parents soon found themselves doing what for microtransactions?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(a) costly (b) captive (c) contained (d) paying (e) caught</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "found themselves doing what for microtransactions" implies that the parents were involved in a financial transaction related to the game. The term "paying" directly describes the action of exchanging money for in-game purchases, which aligns with the context of microtransactions. The other options, while they may convey a sense of being affected by the situation, do not specifically indicate a financial action. Therefore, "paying" is the most accurate and appropriate choice in this context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>What kind of driving leads to accidents?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(a) stressful (b) dangerous (c) fun (d) illegal (e) deadly</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dangerous driving refers to behaviors that significantly increase the risk of accidents, such as speeding, aggressive maneuvers, distracted driving, and driving under the influence of substances. While all the options can contribute to unsafe driving situations, "dangerous" specifically encapsulates the actions and conditions that directly lead to collisions and other traffic incidents. Stressful, fun, illegal, and deadly driving can all be associated with accidents, but "dangerous" most directly describes the nature of driving that results in increased accident rates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>What is eating too much dinner likely to result in?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(a) tiredness (b) living longer (c) stomach ache (d) illness (e) acid reflux</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eating too much dinner can lead to a feeling of fullness that exceeds the stomach's capacity, which often results in discomfort and pain in the abdominal area, commonly referred to as a stomach ache. This is due to the digestive system being overwhelmed by the excess food, which can cause bloating and cramping. While options like tiredness and acid reflux can also occur as a result of overeating, the most direct and immediate consequence of consuming too much food is typically a stomach ache. Therefore, option (c) is the most accurate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>What is a person chatting with friends likely hoping to accomplish?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(a) gathering of information (b) communication (c) feel relaxed (d) kill boredom (e) social bonding</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When a person chats with friends, they are primarily engaging in social bonding, which involves building and maintaining relationships. While other options such as communication (b) and feeling relaxed (c) may also be byproducts of the interaction, the core intent is often to strengthen connections and share experiences, which falls under social bonding (e). This interaction fosters a sense of belonging and community, making it the most fitting choice among the options provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jame's bare feet were burned as he walked, because the sunshine had made the surface hot.  Where might he have been?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(a) disneyland (b) snow (c) windowsill (d) street (e) summer</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question describes a scenario where James's bare feet were burned due to walking on a hot surface that had been heated by sunshine. Among the options provided, "street" (option d) is the most plausible location where the ground could become hot from direct sunlight, especially during warm weather. Streets are typically made of asphalt or concrete, materials that absorb and retain heat, making them uncomfortable to walk on with bare feet. The other options, such as (a) Disneyland, (b) snow, (c) windowsill, and (e) summer, do not directly imply a hot surface underfoot. While Disneyland could potentially have hot surfaces, it is too vague and does not specifically indicate the type of environment that could cause burns on bare feet. Snow would be cold, a windowsill doesn't typically represent a walking surface, and summer refers to a season rather than a specific location. Hence, option (d) "street" is the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A fox was thirsty searching for water during the drought, where was he?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(a) painting (b) hen house (c) california (d) virginia (e) movie hall</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question describes a fox that is searching for water during a drought, which implies a dry environment where water sources are scarce. California is known for its significant drought conditions and water scarcity issues, making it a plausible location for a thirsty fox. The other options, such as a painting, hen house, and movie hall, do not represent realistic environments where a wild fox would naturally be found searching for water. Virginia, while it may experience droughts, is not as commonly associated with severe drought conditions as California. Therefore, California is the most logical answer based on the context provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>What might be the result of a season of successful skiing?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(a) finish line (b) broken bones (c) broken legs (d) chapped lips (e) healthy body</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A season of successful skiing typically involves consistent practice and physical activity, which can lead to improved fitness levels, increased cardiovascular health, and enhanced muscle strength. Skiing is a full-body workout that engages various muscle groups and promotes overall health, making "healthy body" the most fitting result of successful skiing. The other options, while possible outcomes of skiing, do not reflect the positive results associated with a successful and enjoyable skiing season.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>The sensor would just the distance then set off an alarm, the installation expert explained it was called a what kind of sensor?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(a) near (b) closeness (c) here (d) proximity (e) this</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "proximity sensor" is commonly used in technology to describe a device that detects the presence or absence of an object within a certain range. These sensors are designed to measure the distance from the sensor to an object and can trigger an alarm or response when that object comes within a specified range. The other options, such as "near" and "closeness," do not accurately describe the type of sensor used in this context, as they are not standard terms used in the field of sensor technology. "Here" and "this" are also irrelevant in this context. Therefore, "proximity" is the correct and most appropriate choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The man was eating lunch, but rushed when he looked at his watch, why did he rush?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(a) gain weight (b) late for work (c) heartburn (d) bad breath (e) early for work</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question indicates that the man was eating lunch and then suddenly rushed after checking his watch. This suggests that he became aware of time and realized he might not have enough left to finish his lunch before needing to go back to work or another commitment. Among the options provided, "late for work" (option b) is the most logical reason for his urgency, as it directly relates to needing to be on time for a responsibility. The other options do not adequately explain why he would rush while eating lunch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The evacuation became mandatory, so what came on the TV?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(a) advisory (b) mandate (c) soap opera (d) elective (e) optional</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the context of a mandatory evacuation, the information communicated on the TV would likely be an advisory that provides instructions, updates, and safety information to the public. An advisory is an official recommendation or warning, which is appropriate during emergencies. The other options either refer to non-emergency contexts (like a soap opera), or suggest voluntary actions (like elective or optional), which do not fit the urgency of a mandatory evacuation situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>The person gave a good hands on what to show how to do the work?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(a) demonstration (b) garage (c) building (d) barn (e) synagogue</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "hands on" refers to a practical, direct approach to learning or showing how to do something. A "demonstration" is an example of this, as it involves showing someone how to perform a task or use a tool through practical application. The other options (garage, building, barn, synagogue) do not relate to the act of showing or teaching someone how to do work in a practical manner. Thus, option (a) is the best choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Where would you see some people doing jumping jacks?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(a) military base (b) opera (c) water fountain (d) bus stop (e) church</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jumping jacks are a form of physical exercise commonly associated with fitness routines, warm-ups, or military training. A military base is a place where physical fitness is emphasized, and soldiers often engage in exercises like jumping jacks as part of their training. In contrast, the other options—an opera, water fountain, bus stop, and church—are not typically environments where people would perform such exercises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>The body guard was good at his duties, he made the person who hired him what?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(a) better job (b) irritated (c) feel safe (d) save money (e) headache</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A bodyguard's primary responsibility is to provide protection and ensure the safety of the individual who has hired them. If the bodyguard is good at their duties, it implies that they are effectively safeguarding their client from potential threats or harm. This would naturally lead to the client feeling safe, as they can trust that their bodyguard is competently managing their security. The other options do not align with the role of a bodyguard; for example, 'irritated,' 'headache,' and 'better job' do not reflect the intended outcome of hiring a bodyguard, while 'save money' is not directly related to the function of providing safety. Therefore, the correct answer is (c) feel safe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Learning languages is difficult.  Even in a full immersion environment you're likely to make mistakes, mistakes will cause misinterpretation, which will be uncomfortable, which will cause what?,</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(a) better communication (b) overthinking (c) frustration (d) misunderstandings (e) headaches</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When learning a new language, making mistakes is a common experience, especially in an immersion setting where the pressure to communicate effectively is high. These mistakes can lead to misinterpretations of what is being said or intended, which can create uncomfortable social situations. This discomfort often results in frustration, as learners may feel inadequate or embarrassed about their language abilities. While options like "overthinking" and "misunderstandings" could also be seen as potential outcomes, the direct emotional response to the discomfort caused by misinterpretation is best captured by "frustration," making it the most fitting answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jim enjoyed killing people, but he did it too often and the cops found out.  What might the cops do to him?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(a) going to jail (b) going to prison (c) beat him up (d) get arrested (e) die</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The most immediate action that law enforcement would take upon discovering that Jim has been killing people is to arrest him. "Getting arrested" refers to the process of being taken into custody by the police, which is the first step in the legal system following the discovery of a crime. While options (a) and (b) could be outcomes of the legal process after arrest, they do not reflect the initial action taken by the police. Options (c) and (e) are not lawful actions that police would take in response to a crime. Therefore, "get arrested" is the most appropriate and direct response to the situation described.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Where is there usually a fiddle playing?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(a) music store (b) dance hall (c) orchestra (d) symphony (e) tennessee</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In an orchestra, various string instruments, including the fiddle (which is often synonymous with the violin), are played. The environment of an orchestra is specifically designed for performing classical music, where the fiddle plays a significant role. While fiddles may also be played in dance halls (b) and other contexts, the term "orchestra" (c) is most directly associated with a formal setting where a fiddle is typically present and played as part of an ensemble. The other options do not specifically denote a setting where fiddles are regularly featured in a structured performance context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>What is the only was to recover from exhaustion?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(a) mediate (b) have rest (c) stay in bed (d) run out of steam (e) go to sleep</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Recovering from exhaustion fundamentally requires giving the body and mind a break. While options like "go to sleep" (e) can be part of recovery, it specifically implies a prolonged state of rest rather than simply taking a break. "Stay in bed" (c) may also suggest rest but does not encompass all forms of restorative activities. "Meditate" (a) could help alleviate mental fatigue but does not directly address physical exhaustion. "Run out of steam" (d) describes a state of exhaustion rather than a method of recovery. Therefore, the most comprehensive and direct answer that encompasses a general restorative activity is "have rest" (b), as it allows for a variety of restorative actions, whether it's sleeping, relaxing, or taking a break.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>What would you do if you want to be able to earn money?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(a) apply for job (b) stand in line (c) take care of proposals (d) pass course (e) play the lottery</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Applying for a job is a direct and practical way to earn money, as it involves seeking employment where you can provide services or products in exchange for a salary or wages. The other options, while they may have indirect benefits or potential outcomes, do not directly lead to earning money. Standing in line does not generate income, taking care of proposals might be relevant in a specific context but does not guarantee earnings, passing a course could enhance job prospects but does not earn money by itself, and playing the lottery is a gamble with no guaranteed income. Therefore, applying for a job is the most effective action to take for earning money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>What is a grumpy person likely to have?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(a) headache (b) understand themselves (c) compliments (d) own house (e) happiness</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A grumpy person often exhibits irritability and discomfort, which can be linked to physical ailments such as headaches. Headaches can contribute to a person's grumpiness due to pain or discomfort, leading to a negative mood. In contrast, the other options—understanding themselves, receiving compliments, owning a house, or experiencing happiness—are less directly correlated with a grumpy disposition. A headache is a common reason for feeling irritable or grumpy, making it the most logical choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>What do drugs do?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(a) damage (b) cloud mind (c) lower i.q (d) cause illness (e) cause accidents</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Drugs can impair judgment, coordination, and reaction times, leading to risky behaviors and potentially fatal accidents. While drugs can also cause damage, cloud the mind, lower IQ, and lead to illness, the most direct and immediate consequence of drug use in many cases is the increased likelihood of accidents, whether they be vehicular, workplace-related, or otherwise. Thus, option (e) reflects a critical and often highlighted risk associated with drug use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A beaver can destroy a machines functionality if they build their dam in this?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(a) strip club (b) pocket (c) millpond (d) ontario (e) lake or river</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beavers are known for building dams that can obstruct water flow and create ponds. A "millpond" is specifically a body of water that is created by damming a stream or river, often in conjunction with a mill. If a beaver builds a dam in a millpond, it can disrupt the water flow necessary for the machinery that operates in the mill, effectively destroying its functionality. While beavers can also impact lakes and rivers, the term "millpond" directly relates to machinery and its operation, making it the most relevant option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>They decided to hash things out over drinks, after enough booze they were able to get close on a few things and what?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(a) reach tentative agreement (b) suicide (c) examine thing (d) commit murder (e) stay in bed</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "hash things out" implies discussing and resolving issues or disagreements in a collaborative manner. In a context where individuals are drinking and attempting to come to a consensus, it is logical that after their discussions (enhanced by the effects of the drinks), they would be able to "reach a tentative agreement" on certain matters. The other options are either negative (such as suicide and murder) or unrelated to the context of resolving disputes, making (a) the most appropriate choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Where could a fungus grow and not be disturbed by sunlight?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(a) under rocks (b) manhattan (c) toenails (d) grocery store (e) fallen tree</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fungi thrive in dark, humid environments where they are protected from sunlight, which can inhibit their growth and reproduction. Among the options given, "under rocks" provides a sheltered environment that would be consistently dark and damp, making it an ideal habitat for fungal growth. While "fallen tree" (option e) could also be a suitable environment for fungi due to the decaying wood providing nutrients, the question specifically asks for a location that is not disturbed by sunlight. Under rocks fits this criterion well, as it is typically covered and shielded from direct sunlight. The other options, such as "manhattan," "toenails," and "grocery store," either do not consistently provide the darkness needed for fungi or are not as ideal as the option of being under rocks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Can you name a good reason for attending school?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(a) get smart (b) boredom (c) colds and flu (d) taking tests (e) spend time</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  
+The primary purpose of attending school is to gain knowledge and develop critical thinking skills, which is encapsulated by the phrase "get smart." Education equips individuals with the intellectual tools necessary to understand the world, solve problems, and make informed decisions. While options (b) boredom), (c) colds and flu), (d) taking tests), and (e) spend time) may be associated with the school experience, they do not represent the fundamental purpose of education. Instead, they highlight negative or trivial aspects of schooling rather than the positive goal of intellectual growth and personal development that option (a) emphasizes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>What state south of Kentucky and north of Alabama will you find people playing the fiddle?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(a) alabama (b) tennessee (c) violin case (d) music store (e) bow and strings</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tennessee is the state that lies directly south of Kentucky and north of Alabama. It is also known for its rich musical heritage, particularly in genres like country music, bluegrass, and folk, where the fiddle is commonly played. The other options do not represent states or relevant locations for this context. Therefore, Tennessee is the correct answer as it fits both the geographical and cultural criteria of the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Though she made the cut years ago, its figurative scars would never what?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(a) joining (b) put together (c) stitch (d) heal (e) paste</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "figurative scars" suggests that the emotional or psychological impact of a past event is being referenced. In this context, "heal" is the most fitting choice because it implies the process of recovery from pain or trauma, which aligns with the idea of scars that represent lingering effects from the past. The other options (joining, put together, stitch, paste) do not convey the same sense of recovery or resolution, making "heal" the most appropriate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>What does sex often make happen in people?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(a) making love (b) feel good (c) happyness (d) wonderful thing (e) cloud judgment</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  
+Sex often leads to the release of various hormones and neurotransmitters, such as oxytocin and endorphins, which are associated with feelings of pleasure and well-being. While options like "making love" (a) and "happyness" (c) could also be considered outcomes of sexual activity, they are more subjective or descriptive rather than direct physiological responses. "Wonderful thing" (d) is vague and does not specifically address the feeling associated with sex, and "cloud judgment" (e) implies a negative outcome that does not universally apply. Therefore, option (b) "feel good" is the most accurate answer, as it directly relates to the positive sensations that sex can produce in many individuals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Where would you see people in uniform playing with a ball?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(a) hole (b) television (c) sporting goods store (d) pool table (e) sporting event</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People in uniform typically refers to athletes who represent a team, and they are most often seen playing in organized competitions known as sporting events. These events take place in various venues such as stadiums or arenas, where teams compete in games that usually involve a ball, such as football, basketball, or soccer. The other options do not represent a scenario where people in uniform play with a ball: a hole is ambiguous, television shows games but does not involve live play, a sporting goods store sells equipment but does not host games, and a pool table refers to a specific game rather than a team sport. Therefore, the most fitting answer is (e) sporting event.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>What kind of place could have a seafood restaurant?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(a) new york (b) coastal cities (c) city (d) coastal cities (e) boston</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> While coastal cities (options b and d) are traditionally known for seafood restaurants due to their proximity to the ocean and access to fresh seafood, the term "city" (option c) is broader and encompasses various types of urban areas, including both coastal and non-coastal cities. Therefore, any city, regardless of its geographical location, could potentially have a seafood restaurant, making option c the most inclusive and correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Who was the head of the branch yelling at?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(a) owner (b) foot (c) subordinate (d) base (e) point</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "head of the branch" typically refers to a leader or manager within an organizational structure. In a workplace context, it is common for supervisors or managers to address, correct, or express frustration towards their subordinates, who are the employees that report directly to them. Therefore, the correct answer is (c) subordinate, as they are the most logical group that a head of a branch would be yelling at in the context of managing a team or department.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>He made another call, he did this all day hoping people would what well to his offer?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>(a) hang up (b) respond (c) contact (d) answer (e) attracting ducks</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "hoping people would respond well to his offer" implies that he is looking for a positive reaction from the individuals he is calling. The word "respond" suggests that he is expecting engagement or feedback regarding his offer. While "answer" (option d) could also relate to picking up the call, it does not convey the hope for a positive outcome as clearly as "respond." Therefore, option (b) is the most fitting choice in this context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>She needs to visit a bookshop after buying the latest fashion, where should she look?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>(a) student union (b) mall (c) department store (d) library (e) town or city</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A mall typically houses a variety of retail shops, including bookshops and clothing stores. Given that she has already purchased the latest fashion, it is logical for her to look for a bookshop in the same location where she can find both clothing and books conveniently. While department stores may have limited book selections, they are not primarily focused on books like a dedicated bookshop in a mall would be. Other options, like a student union, library, or a general town or city, do not specifically suggest a place where both fashion and books are easily accessible together, making the mall the most suitable choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Where could you see an advertisement while reading news?</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>(a) television (b) bus (c) email (d) web page (e) la ville</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  
+When reading news online, advertisements are commonly placed on web pages to attract the attention of readers. This is a standard practice in digital media where ads can be displayed alongside articles or in various formats such as banners, pop-ups, or sidebar ads. While advertisements can also be seen on television (a) and in emails (c), the context of "reading news" specifically pertains to online news platforms, making "web page" (d) the most relevant answer. Options like "bus" (b) and "la ville" (e) do not directly relate to reading news in the same context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>What is required to be good at playing tennis?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>(a) tennis racket (b) skill (c) competition (d) tennis court (e) legs</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> To excel in playing tennis, the most essential requirement is skill. While having a tennis racket, access to a tennis court, and physical abilities such as strong legs are beneficial, they do not guarantee proficiency in the sport. Skill encompasses the ability to effectively hit the ball, understand game strategies, maintain consistency, and perform under pressure. Therefore, developing and honing skills is crucial for achieving success in tennis, making it the most fundamental requirement among the options provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>What state is the John Davis  Lodge toll road found in?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>(a) new jersey (b) eastern united states (c) good repair (d) connecticut (e) arizona</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The John Davis Lodge Toll Road, also known as Route 15, is located in Connecticut. This toll road connects several areas within the state and is named after John Davis Lodge, a former Governor of Connecticut. The other options do not accurately represent the location of the toll road, making (d) Connecticut the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>The man went to clown college, he had always want to run away with the what?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>(a) circus (b) carnival (c) surprise (d) spoons (e) party</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "run away with the circus" is a well-known expression that refers to leaving one's current life behind to join a traveling show, which typically includes clowns, acrobats, and other entertainers. Since the man attended clown college, it suggests that he aspires to be a clown, which is a common role within a circus. Therefore, the most fitting answer is (a) circus, as it directly relates to his aspirations and the context of clowning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jamie wanted to reduce her waist size, but all of her efforts failed miserably.  She continued to do what?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>(a) gain weight (b) augment (c) dispare (d) make larger (e) expand</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question indicates that Jamie was trying to reduce her waist size but was unsuccessful in her efforts. This implies that instead of achieving her goal of reduction, she experienced a change that is opposite to her intention. Among the options provided, "gain weight" (option a) is the only choice that aligns with the idea of her waist size not decreasing and suggests a negative outcome related to her weight loss attempts. The other options (augment, dispare, make larger, expand) either do not directly relate to gaining weight or are not appropriate in the context of waist size reduction. Thus, option (a) is the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>James felt himself losing consciousness.  He was frightened.  He didn't want this.  He was scared of what?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>(a) death (b) coma (c) peace (d) forgetfulness (e) loss of life</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> James's fear of losing consciousness indicates a concern about a serious and potentially fatal outcome. Among the options provided, "death" (a) encompasses the ultimate fear of no longer existing, which aligns with the context of feeling frightened in a situation where he might lose his awareness. While "coma" (b) and "loss of life" (e) are related to serious medical conditions and outcomes, they are not as direct as the fear of death itself. "Peace" (c) and "forgetfulness" (d) do not adequately capture the grave nature of his fear in this scenario. Therefore, the most logical and encompassing fear that James is experiencing is the fear of death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>If someone is aloof and self-important, what is their experience when meeting people?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(a) stress (b) nervousness (c) smile (d) being bored (e) making new friends</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An aloof and self-important person typically exhibits a lack of interest in others and may feel superior to those they meet. This attitude can lead to a sense of boredom during social interactions, as they may not see value in engaging with people who do not meet their standards or expectations. Rather than feeling stressed or nervous, they are more likely to approach social situations with indifference, resulting in feelings of boredom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>He was receiving workman's compensation, he had tripped over a metal rod while building where?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(a) factory (b) construction site (c) engine (d) insides of skyscraper's walls (e) shops</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "tripped over a metal rod while building" suggests an environment where construction activities are taking place. Among the options provided, a "construction site" (option b) is the most fitting context for such an incident. Construction sites are places where various materials and equipment, including metal rods, are commonly present, making it plausible for someone to trip over them. The other options, such as factory or shops, may involve work-related injuries, but they do not specifically align with the context of "building" in the same way a construction site does. Therefore, option b is the correct answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>John and James spent most of their time communicating with each other on their project.  The time required to communicate slowed their what?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(a) static (b) train of thought. (c) progress (d) transfer of information (e) collaboration</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question indicates that John and James spent a significant amount of time communicating, which implies that their communication was extensive and possibly inefficient. This prolonged communication likely detracted from the actual work they were doing on the project, leading to a slowdown in their overall progress. While options like "train of thought" and "collaboration" could also be affected, the most direct impact of spending too much time communicating is a decrease in the speed of completing their project, making "progress" the most appropriate choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>When you play around with your dog they will have?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(a) alive (b) health (c) fun (d) playing dead (e) black</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When you engage in play with your dog, the primary outcome is that both you and your dog experience enjoyment and pleasure from the interaction. The word "fun" directly captures the essence of what happens when you play together, as dogs are known for their playful nature and love for games. While options like "health" may be a secondary benefit of regular play, it does not directly address the immediate experience of playing. The other options, such as "alive," "playing dead," and "black," do not relate to the activities or feelings typically associated with playtime. Therefore, "fun" is the most appropriate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Where would a person keep a book while it's being read?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(a) closet (b) library of congress (c) classroom (d) in bed (e) desk</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A desk is a common place where a person would keep a book while reading, as it provides a flat surface for the book to rest on and is often used for study or work purposes. While options like "in bed" (d) could also be a suitable place for reading, a desk is more associated with the act of studying or working with a book, making it the most logical choice among the options provided. The other options such as "closet" (a) and "library of congress" (b) are not practical for keeping a book while actively reading it, and "classroom" (c) does not imply personal ownership or ongoing use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>The student needed to  get some new pencils, where did he go?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(a) store (b) classroom (c) backpack (d) cabinet (e) teacher</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student needed new pencils, which implies that he required a source for purchasing or acquiring them. Among the options provided, the "store" is the most logical place to obtain new pencils, as it is a location specifically designed for selling supplies. The other options, such as "classroom," "backpack," "cabinet," and "teacher," do not typically serve as primary sources for acquiring new pencils; they might contain existing supplies but wouldn't be associated with obtaining new ones. Therefore, the correct answer is (a) store.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>She loved buying products, she was driven by her what to shop more than any practical needs?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(a) desire (b) money (c) time (d) credit (e) spending money</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question asks for the underlying motivation that drives her to shop beyond practical needs. The term "desire" (option a) encapsulates the emotional and psychological urge to acquire products, regardless of necessity. While options like "money," "time," "credit," and "spending money" refer to resources or means that facilitate shopping, they do not represent the intrinsic motivation or passion for shopping itself. Desire signifies a strong feeling of wanting, which aligns perfectly with the context of shopping for pleasure rather than necessity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>How does getting paid feel?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>(a) income tax (b) satisfaction (c) sorrow (d) ocean (e) bill collectors to happy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Getting paid typically brings a sense of satisfaction because it represents the reward for effort and work completed. It signifies financial compensation for services rendered, which can lead to feelings of accomplishment and relief, especially if the payment meets financial needs. In contrast, options like "income tax" and "bill collectors" are associated with financial obligations or stress, while "sorrow" does not align with the positive experience of receiving payment. The term "ocean" is unrelated to the context of payment and feelings. Therefore, "satisfaction" is the most appropriate response to describe the feeling associated with getting paid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>The fat man refused to accept what was possible, he complained that he what the simplest activities?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>(a) no go (b) unlikely (c) unable (d) cant do (e) impossibility</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "he complained that he" suggests that the man is expressing a sense of frustration or inability regarding his capacity to engage in activities. The option "can't do" (d) fits this context perfectly as it conveys a clear statement of inability. It aligns with the tone of complaint about the simplest activities and indicates a personal limitation. Other options like "no go," "unlikely," "unable," and "impossibility" do not fit the sentence structure as naturally or convey the same immediacy of frustration as "can't do."</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Where can meat last a long time?</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>(a) backery (b) ham sandwich (c) fridge (d) butcher shop (e) freezer</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The freezer is the best option for preserving meat for an extended period. Freezing slows down the growth of bacteria and other pathogens that cause food spoilage, allowing meat to be stored safely for several months or even years, depending on the type. While the fridge (option c) can also keep meat fresh, it typically only extends its shelf life for a few days to weeks. Options (a), (b), and (d) do not provide suitable long-term storage solutions for meat. Thus, the freezer is the optimal choice for longevity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>What group of musicians will include someone playing the cello?</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(a) ocean (b) symphony (c) band (d) music store (e) music shop</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A symphony is an orchestral ensemble that typically includes a variety of string instruments, including the cello. The cello is a standard instrument in orchestras and symphonies, which focus on classical music performances. In contrast, a band generally features brass and woodwind instruments, while a music store or shop refers to a place to buy instruments rather than a group of musicians. The ocean is unrelated to music. Therefore, the most appropriate answer is "symphony."</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Where do bees congregate with red flowerS?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>(a) trash can (b) honey (c) bouquet of flowers (d) rose garden (e) field of flowers</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bees are attracted to flowers for their nectar and pollen, which are essential for their survival and the production of honey. Red flowers, such as those found in rose gardens, are particularly appealing to certain species of bees. While a bouquet of flowers (option c) may contain red flowers, it is a confined arrangement and not a natural habitat where bees typically congregate. A trash can (option a) is not related to flowers, and honey (option b) is a product made by bees, not a location. A field of flowers (option e) is a broader area where bees might also find red flowers, but the rose garden is specifically known for its abundant red blooms and is a more likely place for bees to gather. Therefore, the correct answer is (d) rose garden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>What is someone who gets angry after getting drunk likely to participate in?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(a) violence (b) falling down (c) vomiting (d) vomiting (e) lower standards</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When individuals consume alcohol, it can impair their judgment and lower their inhibitions. For some, this can lead to aggressive behavior and increased irritability. If a person tends to become angry when intoxicated, they may be more likely to engage in violent actions as a response to conflicts or frustrations that arise while under the influence. Therefore, option (a) violence is the most appropriate choice, as it directly correlates with the behavior of getting angry after drinking. The other options, while potential effects of drinking, do not specifically relate to the angered state described in the question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The teacher told all the students that listening was key, it was the main way they would gain what?</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>(a) empathy (b) anxiety (c) knowlege (d) falling down (e) hear things</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Listening is a fundamental skill that facilitates learning and understanding. When students actively listen, they absorb information, comprehend concepts, and enhance their overall knowledge base. The other options, such as empathy, anxiety, falling down, and hear things, do not directly relate to the primary educational goal of gaining knowledge through attentive listening. Therefore, option (c) knowledge is the most appropriate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Stanley had a dream that was very vivid and scary. He had trouble telling it from what?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>(a) reality (b) imagination (c) dreamworker (d) nightmare (e) awake</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question describes a scenario where Stanley experiences a vivid and frightening dream, indicating that the dream was so intense that it blurred the lines between the dream state and real life. The phrase "had trouble telling it from" suggests a confusion between the experience of the dream and reality. While options like (b) imagination and (e) awake could also imply some level of confusion, the context of the dream being vivid and scary specifically points to reality as the primary point of confusion. Therefore, the best answer that fits this context is (a) reality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>The city's community garden was demolished for yet another what?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>(a) wasteland (b) ocean (c) desert (d) parking lot (e) flowers</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "demolished for yet another" implies that the community garden was replaced by something that is often viewed as less beneficial or desirable. A parking lot is a common urban development that often leads to the destruction of green spaces, like community gardens, in favor of more concrete and utilitarian uses of land. In contrast, the other options do not logically fit; "wasteland," "ocean," and "desert" are not plausible replacements for a garden, and "flowers" would not be a reason for demolition. Therefore, "parking lot" is the most appropriate choice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WHat do cats get into when they are ripping things apart?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>(a) dog's mouth (b) floor (c) garage (d) trouble (e) nature</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When cats engage in destructive behavior, such as ripping things apart, it often leads them to get into "trouble." This could mean getting scolded by their owners, damaging property, or even facing consequences from other pets in the household. The other options do not accurately reflect the situation—cats do not literally get into a dog's mouth, the floor is not a destination they get into, a garage is not specifically related to their behavior, and while "nature" could be an abstract idea, it doesn’t directly relate to the consequences of their actions. Thus, "trouble" is the most fitting and logical answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>What is a good result of losing weight?</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>(a) increased energy (b) healthier (c) loose skin (d) beauty (e) death</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Losing weight generally leads to improved health outcomes, such as lower risk of chronic diseases (like heart disease, diabetes, and hypertension), improved mobility, and better overall physical condition. While options like increased energy (a) can also be a benefit of weight loss, the most comprehensive and universally acknowledged positive result is becoming healthier (b). Loose skin (c) is often a side effect of significant weight loss, beauty (d) is subjective and varies from person to person, and death (e) is obviously a negative outcome. Therefore, the best choice indicating a good result of losing weight is (b) healthier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>A person lived in my what?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>(a) demonstration (b) conference (c) building (d) garage (e) mouth</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "A person lived in my..." implies a physical space or shelter where someone resides. Out of the given options, "garage" (d) is the only one that typically refers to a space where a person might live or reside, even if it's unconventional. The other options do not represent living spaces: "demonstration" (a) and "conference" (b) are events, "building" (c) is a broader term that could include living spaces but is not specific enough, and "mouth" (e) is not a place where a person could live. Therefore, the most logical choice is (d) garage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>The skin was cut while chopping onions, where was this skin likely cut?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>(a) good health (b) finger (c) meat (d) body (e) own family</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When chopping onions, it is common for individuals to use a knife, which may lead to accidental cuts on their hands. The term "skin" in this context refers to the outer layer of the body, specifically on the fingers where such cuts are most likely to occur during food preparation. The other options do not relate directly to the act of chopping onions or the area where a person would typically get cut. Thus, "finger" is the most logical and accurate answer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>What might you feel after doing housework for hours?</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>(a) anger (b) not boredom (c) stress (d) boredom (e) anxiety</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> After spending several hours doing housework, it's common to experience stress due to the physical exertion and the mental burden of completing chores. Housework can be demanding and time-consuming, leading to feelings of overwhelm or pressure to finish tasks. While other options like boredom or anxiety might also be possible, stress is a more direct and likely response to the prolonged effort and responsibility of housework.</t>
         </is>
       </c>
     </row>

--- a/questions_with_reasoning.xlsx
+++ b/questions_with_reasoning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,127 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>options</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>correct_answer</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
+          <t>answer</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The sanctions against the school were a punishing blow, and they seemed to what the efforts the school had made to change?</t>
+          <t>The sanctions against the school were a punishing blow, and they seemed to what the efforts the school had made to change?(a) ignore (b) enforce (c) authoritarian (d) yell at (e) avoid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(a) ignore (b) enforce (c) authoritarian (d) yell at (e) avoid</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The use of the phrase "a punishing blow" suggests that the sanctions were detrimental to the school's efforts to improve. Therefore, the correct answer, "ignore," indicates that the sanctions disregarded or did not take into account the school's attempts to implement positive changes. The other options do not accurately convey this sense of neglect or disregard for the school's efforts. "Enforce" implies a reinforcement of rules, while "authoritarian," "yell at," and "avoid" do not fit the context of how the sanctions relate to the school's efforts.</t>
+          <t xml:space="preserve"> The phrase "punishing blow" suggests that the sanctions are a setback or an obstacle to the school's progress. If the sanctions "ignored" the efforts made by the school, it implies that despite the school’s attempts to improve, the consequences imposed did not recognize or take those efforts into account. The other options do not fit logically: "enforce" implies a strengthening of rules, "authoritarian" describes a style of governance rather than a response to efforts, "yell at" suggests a verbal reprimand, and "avoid" implies evasion, none of which align with the context of disregarding the school's efforts. Thus, "ignore" is the most appropriate choice.. The correct answer is A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sammy wanted to go to where the people were.  Where might he go?</t>
+          <t>Sammy wanted to go to where the people were.  Where might he go?(a) race track (b) populated areas (c) the desert (d) apartment (e) roadblock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(a) race track (b) populated areas (c) the desert (d) apartment (e) roadblock</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The question indicates that Sammy is looking for a place with people. Among the options, "populated areas" (b) is the most direct answer, as it specifically refers to locations where many people gather or live. While a race track (a) may also have people during events, it is not consistently populated. The desert (c) is devoid of people, and an apartment (d) may have some residents but is not a broad area where many people gather. A roadblock (e) is typically a temporary obstruction and not a destination for people. Therefore, "populated areas" is the best choice for where Sammy might go to find people.</t>
+          <t xml:space="preserve"> The phrase "where the people were" indicates that Sammy is seeking a location with a high density of people. Among the options provided, "populated areas" (b) directly refers to regions with a significant number of inhabitants. While a race track (a) may attract crowds during events, it is not necessarily a permanent gathering place. The desert (c) is sparsely populated, making it an unlikely choice for someone seeking people. An apartment (d) might house some individuals but does not imply a larger community. A roadblock (e) is typically a temporary obstruction and not a location where people gather. Therefore, the most logical choice for where Sammy might go to find people is option (b) populated areas.. The correct answer is B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>To locate a choker not located in a jewelry box or boutique where would you go?</t>
+          <t>To locate a choker not located in a jewelry box or boutique where would you go?(a) jewelry store (b) neck (c) jewlery box (d) jewelry box (e) boutique</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(a) jewelry store (b) neck (c) jewlery box (d) jewelry box (e) boutique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The question specifies that we are looking for a choker that is not found in a jewelry box or boutique. The most logical alternative location to find a choker would be a jewelry store, where a variety of chokers are typically available for purchase. Option (b), "neck," refers to the body part where a choker is worn but does not indicate a location for finding one, while options (c), (d), and (e) all mention places where a choker is explicitly stated to be absent. Therefore, option (a) is the best answer as it represents a place where one could find a choker.</t>
+          <t xml:space="preserve"> A choker is a type of necklace that is typically worn around the neck. Since the question specifies that the choker is "not located in a jewelry box or boutique," the only viable option left is to go to a jewelry store. A jewelry store is a place where various types of jewelry, including chokers, are sold and can be found. The other options, such as "neck" (b), do not make sense in the context of locating a choker, and "jewelry box" (c and d) and "boutique" (e) are explicitly ruled out by the question. Therefore, the correct answer is (a) jewelry store.. The correct answer is A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Google Maps and other highway and street GPS services have replaced what?</t>
+          <t>Google Maps and other highway and street GPS services have replaced what?(a) united states (b) mexico (c) countryside (d) atlas (e) oceans</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(a) united states (b) mexico (c) countryside (d) atlas (e) oceans</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Google Maps and similar GPS services provide detailed navigational information and routing capabilities that were traditionally found in physical atlases. An atlas is a collection of maps that people used to navigate roads, highways, and geographical locations before the advent of digital mapping technologies. With the rise of GPS services, the reliance on physical atlases has significantly decreased, as these services offer real-time updates, interactive features, and convenience that paper maps cannot provide. Thus, the correct answer is (d) atlas.</t>
+          <t xml:space="preserve"> Google Maps and similar GPS services are digital tools that provide navigation and mapping capabilities, which have largely replaced traditional printed atlases. Atlases are collections of maps that were commonly used for navigation before the advent of digital mapping technology. The convenience, real-time updates, and detailed routing features offered by GPS services make them a more efficient choice for travelers compared to physical atlases. Therefore, the correct answer is (d) atlas.. The correct answer is D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The fox walked from the city into the forest, what was it looking for?</t>
+          <t>The fox walked from the city into the forest, what was it looking for?(a) pretty flowers. (b) hen house (c) natural habitat (d) storybook (e) dense forest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(a) pretty flowers. (b) hen house (c) natural habitat (d) storybook (e) dense forest</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The fox, as a wild animal, typically seeks environments that provide food, shelter, and safety. The term "natural habitat" refers to the environment where a species naturally thrives, which for a fox includes forests where it can hunt, find shelter, and live without the pressures of urban life. While the other options might seem appealing, they do not align with the natural behaviors and needs of a fox as effectively as "natural habitat." Therefore, the correct answer is (c) natural habitat.</t>
+          <t xml:space="preserve"> The fox is a wild animal that typically lives in a forest or similar natural environment. By walking from the city, which is an urban area, into the forest, it is likely seeking its natural habitat where it can find food, shelter, and engage in natural behaviors. The other options, such as pretty flowers, hen house, storybook, and dense forest, do not align with the instinctual needs of a fox as a wild creature; they either suggest something unnatural or unrelated to its survival. Therefore, the most logical answer is that the fox was looking for its natural habitat.. The correct answer is C</t>
         </is>
       </c>
     </row>

--- a/questions_with_reasoning.xlsx
+++ b/questions_with_reasoning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,1201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The sanctions against the school were a punishing blow, and they seemed to what the efforts the school had made to change?(a) ignore (b) enforce (c) authoritarian (d) yell at (e) avoid</t>
+          <t>Where are you likely to find a reception area in a business at which you spend twenty-four hours?(a) bank (b) hotels (c) law firm (d) hospital (e) people</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "punishing blow" suggests that the sanctions are a setback or an obstacle to the school's progress. If the sanctions "ignored" the efforts made by the school, it implies that despite the school’s attempts to improve, the consequences imposed did not recognize or take those efforts into account. The other options do not fit logically: "enforce" implies a strengthening of rules, "authoritarian" describes a style of governance rather than a response to efforts, "yell at" suggests a verbal reprimand, and "avoid" implies evasion, none of which align with the context of disregarding the school's efforts. Thus, "ignore" is the most appropriate choice.. The correct answer is A</t>
+          <t xml:space="preserve"> Hotels typically have a reception area because they provide accommodation services for guests who may need to check in and out at any time of the day or night. Since hotels operate 24/7, the reception area is staffed around the clock to assist guests with their needs, such as room bookings, inquiries, and check-ins. While hospitals also have reception areas, they are primarily focused on patient intake and emergency services rather than providing a continuous stay for guests. Thus, hotels are the most fitting option for a business where a reception area is present, and people spend extended periods, often overnight.. The correct answer is B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sammy wanted to go to where the people were.  Where might he go?(a) race track (b) populated areas (c) the desert (d) apartment (e) roadblock</t>
+          <t>When helping soldiers in the middle of fighting, where do medics practice practice their craft?(a) funeral (b) battlefield (c) hospital (d) war (e) safety tent</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "where the people were" indicates that Sammy is seeking a location with a high density of people. Among the options provided, "populated areas" (b) directly refers to regions with a significant number of inhabitants. While a race track (a) may attract crowds during events, it is not necessarily a permanent gathering place. The desert (c) is sparsely populated, making it an unlikely choice for someone seeking people. An apartment (d) might house some individuals but does not imply a larger community. A roadblock (e) is typically a temporary obstruction and not a location where people gather. Therefore, the most logical choice for where Sammy might go to find people is option (b) populated areas.. The correct answer is B</t>
+          <t xml:space="preserve"> Medics are trained to provide immediate medical assistance in situations where injuries occur, particularly in combat scenarios. The battlefield is the environment where they are specifically needed to treat wounded soldiers during active fighting. While hospitals (option c) and safety tents (option e) are also places where medical care is provided, they are typically used after the initial treatment has taken place on the battlefield. Therefore, the battlefield is the most accurate answer as it is the primary location for medics to practice their craft during combat situations.. The correct answer is B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>To locate a choker not located in a jewelry box or boutique where would you go?(a) jewelry store (b) neck (c) jewlery box (d) jewelry box (e) boutique</t>
+          <t>James looked for an out of the way spot for his new floor lamp. Where might he have put it?(a) office (b) desktop (c) corner (d) next to the bed (e) at hotel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A choker is a type of necklace that is typically worn around the neck. Since the question specifies that the choker is "not located in a jewelry box or boutique," the only viable option left is to go to a jewelry store. A jewelry store is a place where various types of jewelry, including chokers, are sold and can be found. The other options, such as "neck" (b), do not make sense in the context of locating a choker, and "jewelry box" (c and d) and "boutique" (e) are explicitly ruled out by the question. Therefore, the correct answer is (a) jewelry store.. The correct answer is A</t>
+          <t xml:space="preserve"> A "corner" is typically considered an out-of-the-way location in a room, making it a suitable choice for placing a floor lamp, as it would not obstruct pathways and would provide light without being in the main living area. Other options, like "office," "desktop," or "next to the bed," imply more central or frequently used areas, while "at hotel" does not specify a location that suggests a dedicated space for a lamp. Therefore, the corner is the most logical answer for a discreet placement.. The correct answer is C</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Google Maps and other highway and street GPS services have replaced what?(a) united states (b) mexico (c) countryside (d) atlas (e) oceans</t>
+          <t>You are covered with what when you're having a bath?(a) cleanness (b) exfoliation (c) use water (d) wetness (e) rash</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Google Maps and similar GPS services are digital tools that provide navigation and mapping capabilities, which have largely replaced traditional printed atlases. Atlases are collections of maps that were commonly used for navigation before the advent of digital mapping technology. The convenience, real-time updates, and detailed routing features offered by GPS services make them a more efficient choice for travelers compared to physical atlases. Therefore, the correct answer is (d) atlas.. The correct answer is D</t>
+          <t xml:space="preserve"> When taking a bath, the primary physical state you experience is being covered in water, which leads to the sensation of wetness. While "cleanness" might be a result of bathing and "exfoliation" could occur if using certain products, the most direct and immediate answer to what you are covered with during a bath is "wetness" from the water itself. The other options do not accurately describe the physical state of being in a bath.. The correct answer is D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The fox walked from the city into the forest, what was it looking for?(a) pretty flowers. (b) hen house (c) natural habitat (d) storybook (e) dense forest</t>
+          <t>Where can you likely buy many poems?(a) book of poetry (b) literature book (c) book store (d) poetry book (e) bookshelf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The fox is a wild animal that typically lives in a forest or similar natural environment. By walking from the city, which is an urban area, into the forest, it is likely seeking its natural habitat where it can find food, shelter, and engage in natural behaviors. The other options, such as pretty flowers, hen house, storybook, and dense forest, do not align with the instinctual needs of a fox as a wild creature; they either suggest something unnatural or unrelated to its survival. Therefore, the most logical answer is that the fox was looking for its natural habitat.. The correct answer is C</t>
+          <t xml:space="preserve">  
+A "book store" is a place where various types of books, including collections of poetry, are sold. While options like "book of poetry" and "poetry book" refer to specific types of books that contain poems, they do not represent a location where one can purchase multiple poems. "Literature book" is too broad and may not specifically focus on poetry. A "bookshelf" is simply a piece of furniture and does not denote a place of purchase. Therefore, the most suitable answer that indicates where you can buy many poems is "book store.". The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The entrance hall was adorned with sports and academic trophy cases and a big banner where?(a) college (b) school (c) large home (d) convention center (e) hat rack</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The presence of both sports and academic trophy cases suggests an environment that celebrates achievements in both athletics and academics, which is typical in educational institutions. While colleges also have such displays, the term "school" is more inclusive of lower educational levels where such adornments are common. A "large home" is less likely to have trophy cases and banners of this nature, while a "convention center" does not typically emphasize individual achievements. A "hat rack" is irrelevant to the context. Therefore, the most fitting answer is (b) school, as it captures the essence of where such decorations would be prominently displayed.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>When one sees an apple tree, where does one tend to be?(a) canada (b) spring (c) active (d) outside (e) washington state</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An apple tree is a type of fruit tree that typically grows in gardens, orchards, or natural settings. Therefore, when one sees an apple tree, it is most likely that they are outside, as apple trees are not found indoors. While options like "spring" may relate to the season when apple trees bloom, the question focuses on the location where one would see the tree, making "outside" the most appropriate choice.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>If someone was a huge art buff and wanted to see many a gallery in one trip, where might one suggest they visit?(a) website (b) art museum (c) new york city (d) london (e) downtown area</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York City is renowned for its vibrant art scene and is home to numerous art galleries and museums, including the Metropolitan Museum of Art, the Museum of Modern Art (MoMA), and the Guggenheim. It hosts a wide variety of exhibitions and collections, making it an excellent destination for an art enthusiast looking to experience a diverse range of artistic styles and movements in one trip. While other options like "art museum" (b) and "london" (d) could also be valid in a broader context, New York City is particularly famous for its concentration of galleries and cultural institutions, hence making it the most suitable suggestion.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>What do we do if we rise something and want to put it back down?(a) fall (b) sun set (c) below (d) lower (e) place</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "lower" specifically refers to the action of bringing something down after it has been raised. When we rise an object, we elevate it, and to put it back down, we engage in the act of lowering it. While "place" could also imply putting something down, "lower" more accurately describes the action of decreasing its height or position after it has been lifted. Therefore, option (d) is the most appropriate choice.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Billy and Marge were a couple.  They weren't serious and they didn't get frisky, but they always enjoyed going and doing what?(a) dance (b) marry each other (c) french kissing (d) make sex (e) plan to marry</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "they weren't serious and they didn't get frisky" suggests that their relationship was light-hearted and lacked physical intimacy. Therefore, options that imply serious commitments or physical intimacy (like marrying, french kissing, making sex, or planning to marry) are unlikely to be correct. The option "dance" fits well as it represents a fun, social activity that a couple could enjoy together without the implications of a serious or intimate relationship. Thus, it is the most appropriate choice reflecting their dynamic.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Birds sometimes do what to each other to establish dominance?(a) sky (b) mate (c) hatch (d) forest (e) peck</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pecking is a common behavior among birds used to establish social hierarchies and dominance. Birds may peck at each other to assert their position within a group, often as a form of aggression or territorial behavior. The other options, such as "mate" and "hatch," are related to reproduction and nurturing rather than establishing dominance, while "sky" and "forest" do not pertain to behaviors or actions that birds engage in with one another. Thus, "peck" is the most appropriate choice that describes a behavior linked to asserting dominance among birds.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>What is the worst outcome of an injury?(a) cause death (b) cause bleeding (c) falling down (d) become infected (e) claim insurance</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The worst outcome of an injury is causing death (option a) because it signifies the loss of life, which is irreversible and has the most severe consequences for individuals and their loved ones. While other options, such as bleeding (option b), falling down (option c), becoming infected (option d), and claiming insurance (option e), can lead to serious health issues or financial implications, they do not represent the ultimate and irreversible consequence of an injury. In contrast, death eliminates all possibilities for recovery and future experiences, making it the gravest outcome one could face.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Where can a grain of sand cause a person a lot of pain and possible damage sight?(a) eye (b) clam (c) bathing suit (d) shoes (e) beach</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A grain of sand can easily become lodged in the eye, leading to irritation, discomfort, and potential damage to the cornea or other parts of the eye. This can result in pain and, in serious cases, vision problems or injury. The other options, while they may involve sand, do not directly relate to causing pain or damage to sight in the same way. For example, sand in shoes or bathing suits may be uncomfortable, but it does not pose a risk to eyesight. Therefore, the eye is the most appropriate answer.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Excavation was beginning, step one was a good foundation at the what?(a) under ground (b) groundbreak (c) city (d) cemetary (e) construction site</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "a good foundation" suggests that the context is related to construction, where a solid and reliable base is crucial for any building or structure. Among the options provided, "construction site" (option e) is the most relevant, as it directly pertains to a location where excavation and foundational work would typically occur. The other options do not specifically relate to the context of starting a construction project, making "construction site" the correct choice.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>In the children's book the cat was a great knight, it had finished its quest and was returning to the castle to what?(a) see king (b) meow (c) have fleas (d) sleep all day (e) live many years</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the context of a children's story about a cat that has completed a quest as a great knight, the narrative typically centers around themes of adventure, honor, and relationships with other characters. The option (a) "see king" suggests a return to a figure of authority and respect, which aligns with the traditional narrative of knights returning to present their accomplishments to a king or ruler. This reinforces the idea of the cat being a knight, as knights often serve a king and return to report their deeds. The other options (b) "meow," (c) "have fleas," (d) "sleep all day," and (e) "live many years" do not convey the same sense of resolution or purpose in relation to the quest, making (a) the most fitting choice.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Where would a cat like to relieve himself?(a) ground (b) sand box (c) michigan (d) warm bed (e) warm place</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cats have a natural instinct to bury their waste, which is why they prefer a designated area to relieve themselves. A sand box, commonly referred to as a litter box, provides the soft, granular surface that cats are naturally inclined to dig in and cover their waste. While the ground can be an option, it lacks the cleanliness and privacy that a sand box offers, making option (b) the most suitable choice for a cat's preference. Other options like "michigan," "warm bed," and "warm place" do not provide the appropriate environment for a cat to relieve itself.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Who might end up with a wound from lying in bed?(a) patient (b) hospital (c) emergency room (d) senior citizen (e) injured person</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A patient is an individual receiving medical care, often in a hospital or healthcare setting. Prolonged inactivity, especially in bed, can lead to bedsores or pressure ulcers, which are wounds that develop due to sustained pressure on the skin. This is particularly common among patients who are bedridden or have limited mobility. While senior citizens may also be at risk for bedsores, the term "patient" encompasses anyone in a medical context who might be lying in bed for an extended period, making it the most appropriate choice. The other options (hospital, emergency room, injured person) do not directly relate to the individual experiencing the wound.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The general saw that by taking the hill, he was reaching advantage, what was the likely result of such a move?(a) becoming target (b) being ahead (c) fall (d) victory (e) moving forward</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Taking the hill is a strategic military maneuver that typically provides a commanding view of the battlefield and a tactical advantage over opponents. By controlling higher ground, the general would likely gain better positioning for both offense and defense. This increased advantage often leads to a successful outcome in battles, making victory the most probable result of such a move. While options (b) and (e) also suggest positive outcomes, they do not capture the definitive nature of "victory" that is often associated with taking a critical position like a hill in a military context.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sam loved buying Christmas presents. Giving to others made him feel what?(a) lack of money (b) pleasure (c) happiness (d) love (e) relief</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The act of giving, especially during the festive season like Christmas, is often associated with positive emotions. While options (b) pleasure, (c) happiness, and (d) love could all relate to the joy of giving, "happiness" (option c) is the most direct and commonly recognized emotional response associated with the joy of giving gifts. It encapsulates the overall emotional uplift that comes from making others happy and experiencing joy oneself. The other options either do not directly relate to the act of giving (like lack of money or relief) or are more specific feelings that may not fully capture the broader sense of joy that comes from giving during the holidays. Thus, "happiness" is the most fitting answer.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Where is a small dog likely to be well groomed?(a) animal shelter (b) backyard (c) park (d) dog show (e) georgia</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A dog show is an event specifically designed to showcase dogs, where they are judged based on their appearance, breed standards, and grooming. Participants in dog shows typically invest a lot of time and effort into grooming their dogs to ensure they look their best for the competition. In contrast, while dogs at an animal shelter (a), in a backyard (b), or at a park (c) may be cared for, they are not necessarily groomed to the same high standards expected at a dog show. Additionally, "Georgia" (e) is a location and does not pertain to grooming practices. Therefore, the most likely place for a small dog to be well groomed is at a dog show.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Where might a person visit if they need a new trumpet?(a) marching band (b) orchestra (c) dance club (d) high school band (e) music shop</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A music shop is a specialized store that sells various musical instruments, including trumpets. If someone needs a new trumpet, the most logical place to visit would be a music shop, where they can find different brands and models, and potentially receive assistance from knowledgeable staff. The other options, while they involve music, do not sell instruments; a marching band, orchestra, dance club, and high school band are all groups or settings where music is played, but they do not offer the service of selling instruments.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Where can you find many a squirrel outside of the city?(a) forest (b) yard (c) street (d) park (e) desert</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Squirrels are typically found in wooded areas where they can find food, shelter, and nesting sites. Forests provide a natural habitat with plenty of trees and vegetation, which are essential for squirrels to thrive. While yards and parks can also host squirrels, a forest is the most abundant and suitable environment for them, especially when considering locations outside of urban areas. Streets and deserts are not conducive to squirrel populations, making the forest the best answer.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Where would you borrow coffee if you do not have any?(a) meeting (b) convenience store (c) supermarket (d) fast food restaurant (e) friend's house</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "borrow coffee" implies seeking a casual, informal way to obtain coffee without purchasing it. Among the options provided, a friend's house is the most likely place where one would feel comfortable asking for a favor, such as borrowing a cup of coffee. In contrast, places like a convenience store, supermarket, or fast food restaurant are commercial establishments where coffee is sold, making it less likely to borrow coffee in those settings. A meeting could potentially have coffee available, but it is not a personal or familiar setting like a friend's house would be. Therefore, the most appropriate answer is (e) friend's house.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The fight enemy choice had led him to a grave injury, he was now what?(a) dying (b) victory (c) casualties (d) protect yourself (e) death</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "grave injury" implies that the injury is serious and life-threatening. The term "dying" directly indicates a state of being in which a person is close to death, which aligns with the consequences of having sustained such a severe injury. The other options do not appropriately describe the condition resulting from a grave injury; "victory" and "protect yourself" suggest action or outcome rather than a state of being, "casualties" refers to the injured or dead in a broader sense, and "death" implies a completed state rather than the ongoing process of dying. Therefore, "dying" is the most accurate answer.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>He made another call, he did this all day hoping people would what well to his offer?(a) hang up (b) respond (c) contact (d) answer (e) attracting ducks</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question implies that the person is attempting to communicate an offer and is looking for a positive reaction from the recipients of his calls. The phrase "hoping people would respond well to his offer" indicates that he is looking for engagement or feedback from those he is calling. The word "respond" directly aligns with this intention of seeking a reaction, whereas the other options do not convey the same meaning. For example, "hang up" (a) suggests a negative reaction, "contact" (c) implies initiating communication rather than responding, "answer" (d) could be applicable but lacks the nuance of a positive reaction, and "attracting ducks" (e) is irrelevant to the situation. Therefore, "respond" is the most fitting choice.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Billy found himself agreeing with Dan. They knew each other since childhood.  They didn't need what to make an agreement?(a) contract (b) friendship (c) harmony (d) compliance (e) death threats</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context suggests that Billy and Dan have a long-standing relationship, indicating a strong bond of trust and understanding built over many years. Because of this familiarity and mutual respect, they can reach an agreement without the formal need for a contract, which typically serves as a legal document to enforce an agreement between parties who may not have a personal history. In personal relationships, such as theirs, the underlying friendship and mutual understanding often suffice to solidify their agreement, making the presence of a contract unnecessary.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>What place in the US has a lot of mines?(a) ground (b) cambodia (c) mine craft  game (d) pennsylvania (e) mountain</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pennsylvania is historically known for its extensive mining industry, particularly coal mining, which played a significant role in the state's economy and industrial development. The state has numerous coal mines, as well as mines for other minerals. In contrast, the other options do not refer to specific locations within the US known for mining. "Ground" and "mountain" are too vague, "Cambodia" is a country outside the US, and "Minecraft game" refers to a video game rather than a physical location. Therefore, Pennsylvania is the most accurate answer.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Where is likely to have a small kitchenette?(a) lunch room (b) house (c) apartment (d) hotel room (e) cheap motel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A hotel room often comes equipped with a small kitchenette to provide guests with the option to prepare simple meals, especially for longer stays. This can include a microwave, refrigerator, and sometimes a small stove or sink. While apartments and houses typically have full kitchens, and lunch rooms are not designed for cooking, a cheap motel may have limited amenities and is less likely to include a kitchenette compared to a hotel room. Thus, the best answer is (d) hotel room.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>What performance is expected of a student in school sessions?(a) michigan (b) pass course (c) better grade (d) ask questions (e) study history</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The primary expectation for students during their school sessions is to successfully complete their courses, which means passing them. While achieving better grades (option c) and asking questions (option d) can contribute to this goal, the most straightforward and fundamental expectation is that students pass their courses (option b). The other options do not directly address the minimum performance standard required for academic success.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>While he golfed she got a spa treatment, they were glad they became members where?(a) health centre (b) resort (c) country club (d) house (e) golf club</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question suggests a setting where both golf and spa treatments are offered, which is typically found in a country club. While a golf club primarily focuses on golfing activities, a country club often includes additional amenities such as spas, dining, and social events, making it the most suitable option for the scenario described. Thus, they would be glad to be members of a country club where both activities are available.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The older gentlemen enjoyed socializing over a chess board, on clear warm days he did this at the local what?(a) retirement community (b) pool (c) cabinet (d) park (e) library</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Parks are commonly associated with outdoor activities and socialization, especially on clear warm days. They provide ample space for people to gather, play games like chess, and enjoy the outdoors. In contrast, the other options such as a retirement community, pool, cabinet, and library do not typically offer the same open-air social environment conducive to outdoor games. A retirement community may have indoor spaces, a pool is not focused on chess, a cabinet is not a location for socializing, and while a library offers quiet space, it is not suitable for a lively game of chess outdoors. Thus, a park is the most fitting answer.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>What would a soprano be a part of in church?(a) add high notes (b) opera house (c) choit (d) choir (e) movie</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A soprano is a type of singer who typically has a high vocal range and is often featured in choral music. In the context of a church, sopranos are commonly part of a choir, which is a group that sings together during religious services. While option (a) mentions high notes, it does not indicate a specific context like a choir. Option (b) refers to an opera house, which is not specifically related to church music. Option (c) seems to be a typo for "choir," but it is not spelled correctly. Option (e) refers to a movie, which is unrelated to the context of church singing. Therefore, the best answer is (d) choir, as it directly relates to where a soprano would be found in a church setting.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Movies which contain unusual or unexpected events which are lighthearted in tone are trying to be what?(a) clever (b) entertaining (c) watched by people (d) funny (e) excellent</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Movies characterized by unusual or unexpected events typically aim to evoke laughter and amusement, aligning closely with the definition of being "funny." The lighthearted tone further suggests that the intention is to create humor rather than delve into serious themes. While options like "entertaining" (b) could also apply, the specific focus on humor in the context of unusual events makes "funny" (d) the most accurate choice.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>What problems do children have learning about the world?(a) confusion (b) anger (c) sadness (d) loss of innocence (e) frustration</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Children often encounter a vast amount of information and experiences that can be overwhelming, leading to confusion. As they try to make sense of their surroundings, they may struggle to understand complex concepts, social cues, and the consequences of actions. This confusion is a natural part of cognitive development as they learn to navigate and interpret the world around them. While other options like frustration or sadness can also occur, confusion is a more fundamental and pervasive issue that directly relates to their learning process.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>What can you gain when reading a book about something you have little knowledge in?(a) discussion (b) entertainment (c) learn things (d) enlightenment (e) nightmares</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reading a book about a topic you know little about can lead to enlightenment, which involves gaining a deeper understanding or insight into that subject. While options (b) entertainment and (c) learn things are also valid outcomes of reading, they do not fully capture the transformative nature of enlightenment, which implies a significant shift in perspective or awareness. Option (a) discussion is more about interaction with others rather than personal gain from reading, and (e) nightmares is not a typical outcome of reading educational or enlightening material. Thus, enlightenment is the most comprehensive and profound benefit from engaging with new knowledge.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The man reduced the town to rubble out of hate, what was his goal?(a) wage war (b) play nice (c) fight enemy (d) stab to death (e) destroy enemy</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "reduced the town to rubble out of hate" indicates a deliberate act of destruction motivated by strong negative feelings. The goal of such actions typically aligns with the desire to cause significant harm or eliminate an opponent. Option (e) "destroy enemy" directly correlates with this intent, suggesting that the man's actions were aimed at annihilating his adversaries, whether they be literal enemies or representatives of a group he despised. The other options do not fit the context of the question as effectively; for example, "wage war" implies a broader strategy rather than a specific act of destruction, "play nice" is contrary to the described motivation, "fight enemy" suggests confrontation rather than destruction, and "stab to death" is a more personal and direct act that doesn't encompass the broader action of reducing a town to rubble. Thus, option (e) is the most fitting goal based on the context provided.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>If I am a person who want to go to college, what am I seeking?(a) thank god (b) further education (c) stand upright (d) speak spanish (e) unemployment</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The primary purpose of attending college is to pursue further education. Individuals who go to college typically do so to gain knowledge, skills, and qualifications that will prepare them for their chosen career path or field of study. The other options do not relate to the primary motivation for seeking college; for example, "thank god" is an expression of gratitude, "stand upright" is a physical action, "speak Spanish" pertains to language skills, and "unemployment" is the state of not having a job, which is contrary to the goal of attending college. Thus, option (b) accurately captures the intention behind seeking higher education.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Where are you not likely to find an apple tree?(a) new york (b) washington state (c) valley (d) rainforest (e) park</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Apple trees thrive in temperate climates and are commonly found in areas with well-defined seasons, such as New York and Washington state, which are both known for their apple orchards. While apples can grow in valleys, the conditions in a rainforest—characterized by high humidity, heavy rainfall, and consistent warm temperatures—are not ideal for apple cultivation. Therefore, you are not likely to find an apple tree in a rainforest.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Where would you get an eyeglasses case if you do not have one?(a) factory (b) bag (c) store (d) purse (e) shirt pocket</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A store is a place where various items, including eyeglasses cases, are sold. If someone does not have an eyeglasses case, going to a store is the most logical option to purchase one. The other options, such as a factory, bag, purse, or shirt pocket, do not typically serve as places to acquire new items; instead, they may only contain items that are already owned. Thus, the store is the appropriate choice for obtaining a new eyeglasses case.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Where was the apple tree said to contain something forbidden?(a) north carolina (b) washington state (c) nil (d) great outdoors (e) garden of eden</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The concept of a forbidden apple tree is most famously associated with the biblical narrative of the Garden of Eden, as described in the Book of Genesis. In this story, God places Adam and Eve in the Garden and forbids them from eating the fruit of the tree of knowledge of good and evil. The apple tree symbolizes temptation and the consequences of disobedience, making "Garden of Eden" the correct answer, as none of the other options relate to this specific narrative.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>What is a good result of jogging?(a) insect repellent (b) heart attacks (c) improved health (d) shin splints (e) being tired</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogging is a form of cardiovascular exercise that promotes physical fitness and overall health. It helps improve cardiovascular health, strengthens muscles, enhances endurance, and can lead to weight management. While jogging can sometimes lead to minor injuries (like shin splints) or temporary fatigue, the primary benefit and positive outcome of regular jogging is improved health, making option (c) the correct answer.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Where is sugar stored when it's not needed?(a) coffee (b) bank locker (c) cupboard (d) every home (e) candy bar</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sugar, when not in use, is typically stored in a cupboard or pantry in a home. This is where dry goods like sugar are kept to maintain freshness and accessibility for cooking and baking. While options like "every home" (d) suggest a more generalized storage concept, "cupboard" (c) specifically identifies the common storage location for sugar, making it the most accurate answer. Other options like "coffee" (a) and "candy bar" (e) do not serve as storage locations for sugar, and "bank locker" (b) is irrelevant in the context of food storage. Thus, option (c) is the most appropriate choice.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Spending time seeing artifacts listening to museum lectures will lead to what?(a) thinking (b) learning (c) angry (d) archeology (e) pleasure</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Spending time in a museum, particularly by viewing artifacts and attending lectures, is designed to provide educational experiences. The primary goal of museums is to educate the public about history, culture, and art. While options such as "thinking" and "pleasure" may also occur as a result of this activity, the most direct and relevant outcome is "learning." Museums aim to impart knowledge and understanding, making "learning" the most appropriate answer in this context.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A traveler from Atlanta wants to meet friends in Hong Kong, so he drives where?(a) car (b) bus stop (c) subway (d) skateboard (e) airport</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The traveler is looking to meet friends in Hong Kong, which is a different city and requires traveling a significant distance. The most logical choice for traveling to a different country is to go to the airport, as it is the primary transportation hub for international flights. The other options (car, bus stop, subway, skateboard) do not facilitate long-distance travel to another country, making the airport the correct answer.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Some people just keep on buying things, showing that they have a pathological need to do what?(a) having to pay for (b) now own (c) using money (d) horde (e) possessing more</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "pathological need" indicates an uncontrollable or compulsive behavior. In this context, the act of continuously buying things suggests that these individuals have an excessive desire to accumulate items. Among the options provided, "possessing more" (option e) best captures the essence of this compulsive behavior, as it directly relates to the need to have or own a greater quantity of possessions. Other options, such as "having to pay for," "now own," "using money," and "horde," do not adequately convey the underlying psychological drive to acquire more possessions that is central to the question. Thus, "possessing more" is the most appropriate choice.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Frankie found a bone in her good.  It probably belonged to what?(a) father (b) arm (c) cow (d) museum (e) human body</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question presents a scenario where Frankie finds a bone. Among the options provided, the most logical inference is that the bone likely belongs to an animal, specifically a cow, which is a common source of bones found in various environments. Options like "father" and "arm" suggest human body parts, which would not be appropriate in this context. The option "museum" is not relevant as it does not refer to a living being or a source of a bone. Therefore, the best answer is (c) cow, as it aligns with the context of finding a bone in nature.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A person who found something odd, may have found it odd because it wasn't what?(a) even (b) common (c) expected (d) happening (e) habitual</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "odd" typically implies that something is unusual or not normal. When someone finds something odd, it often means that it deviates from what they anticipate or predict in a given situation. Therefore, the most fitting option is (c) expected, as it directly correlates with the idea that the person encountered something that did not align with their expectations. While options like (b) common and (e) habitual also suggest a deviation from the norm, "expected" captures the essence of surprise or strangeness, which is often at the heart of finding something odd.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Where can you find a place to eat and places to buy items of many different kinds?(a) city (b) downtown (c) own house (d) bar (e) shopping center</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A shopping center is specifically designed to house a variety of stores and restaurants, making it a convenient location for both dining and shopping. While a city or downtown area may also have places to eat and shop, they are broader terms that can encompass a range of different establishments, not all of which are dedicated to eating or shopping. An own house typically does not have commercial options for dining or shopping, and a bar is primarily focused on serving drinks rather than a variety of food and retail options. Thus, the shopping center is the most appropriate choice for finding a place to eat and buy various items.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>All the children were having fun, the game of tag was a great choice of what?(a) effort (b) exercise (c) relaxing (d) playing around (e) activity</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "activity" encompasses a wide range of actions and engagements, particularly in the context of children playing. In this scenario, "activity" effectively captures the essence of the game of tag as it involves movement, interaction, and play, which are all integral components of children's playtime. While options such as "exercise" and "playing around" are related, they are more specific aspects of what the game of tag represents. Therefore, "activity" is the most comprehensive and fitting choice in this context.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>He had only experienced tangible and corporeal events in his life, but the hippy girl opened up his what side?(a) insubstantial (b) mind (c) intangible (d) ethereal (e) spiritual</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question suggests a transformation or expansion of experience that goes beyond the physical and material world, which is indicated by the phrase "tangible and corporeal events." The hippy girl represents a perspective or lifestyle that often emphasizes deeper, non-material aspects of existence, such as emotions, beliefs, and connections to the universe. Among the options provided, "spiritual" (e) best captures this notion of exploring and experiencing the non-physical dimensions of life. The other options, while related, do not directly convey this sense of a deeper, inner journey or connection to something greater, making "spiritual" the most fitting choice.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The mother knew her children to be messy, so she always kept extra kleenex in her what?(a) blow nose (b) box (c) wipe nose (d) purse (e) pocket</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The correct answer is "purse" because a purse is a common item that a mother would carry with her to ensure she has access to tissues when needed, especially for her children who are prone to messiness. While "box" (option b) could also be a plausible answer, it suggests a stationary storage location rather than something easily accessible on the go. The other options (a, c, e) do not represent practical storage for tissues. Thus, the purse represents a convenient and likely place for a mother to keep extra kleenex for her children.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>If you're doing some typing, what is one thing you could be creating?(a) letter (b) a birthday card (c) pain (d) printed word (e) carpal tunnel syndrome</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When you are typing, you can be creating various forms of written content. Among the options, a "letter" specifically refers to a type of written communication that can be typed out on a computer or typewriter. While options (b) and (d) could also be created through typing, they are more specific or less direct in relation to the act of typing itself. Option (c) and (e) refer to negative outcomes or conditions that may arise from typing but are not things that you actively create while typing. Therefore, option (a) is the most straightforward and relevant answer to the question.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>James wanted to know the truth because questions were weighing on him.  Learning would give him what?(a) lies (b) free mind (c) work to advantage (d) further knowledge (e) matter to</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the context of the question, James is seeking the truth to alleviate the burden of questions that are troubling him. The act of learning and uncovering the truth can lead to a sense of clarity and understanding, which can ultimately result in a "free mind." This means that by resolving his uncertainties and gaining knowledge, he would be able to think more clearly and be at peace with his thoughts. The other options do not directly address the emotional and mental relief he is seeking; therefore, "free mind" is the most fitting answer.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>The spy left the record at the drop, his handlers could be seen doing what?(a) hold onto (b) carrying (c) pick up (d) catch (e) picking up</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "could be seen doing" indicates an ongoing or continuous action. Among the options provided, "picking up" (option e) is the only choice that conveys this sense of an action in progress, as it suggests that the handlers are in the process of retrieving the record. The other options either do not fit grammatically with "could be seen doing" (like "hold onto" or "catch") or do not imply ongoing action (like "carrying" or "pick up"). Therefore, option e is the correct answer as it accurately represents the scenario described.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>The rich kids suffered from boredom, one suggested heading up to his parents lodge and that they what?(a) hang out at bar (b) play games (c) skateboard (d) have dinner (e) go skiing</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question implies that the suggestion should be an activity that is likely associated with a lodge, particularly one that might be located in a mountainous or wintery area. Skiing is a common activity that people engage in when visiting lodges in such locations. The other options, while possible activities, do not resonate as strongly with the setting of a lodge, which typically promotes outdoor recreational activities like skiing. Therefore, going skiing is the most fitting and appropriate suggestion in this context.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>What happens when you eat hamburger too fast without swallowing?(a) get full (b) drink (c) choking (d) hungry (e) getting fat</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eating a hamburger too quickly without properly chewing and swallowing can lead to choking. This occurs because large pieces of food can obstruct the airway, making it difficult to breathe. Choking is a serious and potentially life-threatening condition that requires immediate attention, distinguishing it from the other options which do not present an immediate danger associated with the act of eating too fast.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>If you are playing poker, what are you doing?(a) recreation (b) losing money (c) game playing (d) distributing cards (e) fun</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Playing poker is an activity that falls under the category of game playing. While options (a), (e), and even (b) might be true in certain contexts, they do not specifically define the primary action taking place when one is engaged in poker. Option (d) describes a specific task within the game but is not representative of the overall activity. Therefore, the most accurate description of what one is doing when playing poker is "game playing.". The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Losing weight may mean fat is going through what?(a) weight loss (b) death (c) shrinking (d) decomposition (e) hunger</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When we talk about losing weight, particularly in the context of fat loss, we are referring to the metabolic process where fat cells break down stored fat to be used as energy. This process involves the decomposition of fat molecules, where they are converted into usable energy through various biochemical pathways. Therefore, the term "decomposition" accurately describes what happens to fat when it is lost from the body, as it undergoes a transformation rather than simply shrinking or being lost without any chemical change.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>What is our sun considered to be the center of?(a) universe (b) solar system (c) outer space (d) star (e) beans</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sun is the central star of our solar system, which consists of the sun itself and all the celestial bodies that are gravitationally bound to it, including the eight planets, their moons, asteroids, comets, and other objects. While the universe encompasses everything, including multiple solar systems, the specific term "solar system" refers to the sun and its immediate surroundings. Thus, the correct answer is (b) solar system.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>How can music help someone who is down?(a) beautifull (b) express feelings (c) they cannot heal and feel beautiful (d) provide comfort (e) sound good</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Music has a unique ability to provide comfort to individuals experiencing emotional distress. It can create a soothing atmosphere, evoke positive memories, and offer a sense of companionship. While expressing feelings (option b) is also a valid function of music, the primary role in this context is the comfort it provides, helping individuals to cope with their emotions and feel less alone in their struggles. Options (a), (c), and (e) do not address the specific benefit of music in relation to emotional support for someone feeling down.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>You might hear someone say árbol de manzana instead of apple tree where?(a) spain (b) bible (c) ohio (d) montreal (e) washington state</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "árbol de manzana" is Spanish for "apple tree." Spain is a Spanish-speaking country, where Spanish is the primary language. The other options—Bible, Ohio, Montreal, and Washington State—are either not predominantly Spanish-speaking or are located in regions where English is the primary language. While there may be Spanish speakers in places like Ohio, Montreal, and Washington State, they are not the primary languages of those regions. Therefore, the most appropriate answer is Spain, where the term would naturally be used in everyday conversation.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>The man enjoyed sitting quietly by himself, he felt it helped him come up with his best what about things?(a) anxiety (b) happiness (c) insights (d) inspiration (e) wisdom</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "come up with his best" suggests that the man is developing or generating ideas or thoughts. Among the options provided, "insights" (c) refers to deep understanding or perceptive realizations about a subject, which is often enhanced in quiet, contemplative settings. While "inspiration" (d) could also be a valid choice, it generally refers to a spark of creativity rather than the deep understanding implied by insights. The other options, such as anxiety (a), happiness (b), and wisdom (e), do not fit the context as they do not directly relate to the process of coming up with thoughts or ideas in the same way that insights do. Thus, the correct answer is insights, as it aligns with the idea of reflection and cognitive clarity achieved in solitude.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Where do kids find fish in their backyards?(a) boat (b) ocean (c) pond (d) end of line (e) ocean</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fish are typically found in bodies of water, and in the context of a backyard, a pond is the most likely place where children would encounter fish. Boats and oceans are not commonly associated with backyards, and "end of line" does not refer to a location where fish can be found. Therefore, option (c) pond is the most logical answer.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Best friends are often good at?(a) go shopping (b) borrow money (c) keep secrets (d) meet for lunch (e) hang out</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best friends typically share a deep level of trust and understanding, which allows them to confide in each other and keep personal information private. This quality of being able to keep secrets is fundamental to the bond of friendship, as it fosters intimacy and reliability. While best friends may also enjoy activities like shopping, meeting for lunch, or hanging out, the ability to keep secrets showcases the strength and depth of their relationship, making option (c) the most appropriate answer.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>The salesperson was like a shark pacing around for his prey, and the what was his sea?(a) bookstore (b) box chocolates (c) customer (d) shop (e) toy store</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The metaphor of a shark suggests that the salesperson is aggressive and on the lookout for opportunities, much like a predator in the water. In this context, the "sea" represents the environment in which the salesperson operates. Among the options, "shop" (d) is the most fitting as it refers to the place where the salesperson interacts with customers and conducts sales. The shop serves as the 'sea' where the salesperson seeks out 'prey'—customers—making it the correct answer. The other options, while related to different contexts, do not encapsulate the environment of the salesperson as effectively as "shop" does.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>A toddling child who is learning about the world is gaining what?(a) time (b) desire to travel (c) greater mobility (d) increased security (e) pleasure</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A toddling child is typically in the early stages of walking and exploring their environment. As they learn to walk and move around, they are gaining greater mobility, which allows them to explore their surroundings more freely. This increased ability to move independently is a significant developmental milestone for young children, enabling them to interact with their world in new and meaningful ways. While other options may also be relevant to a child's experience, the focus of the question is on the physical ability to move, making "greater mobility" the most appropriate answer.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Three quarters of what are covered by the ocean?(a) waterfalls (b) underwater (c) beach (d) surface of earth (e) river</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Earth is composed of a variety of landforms and bodies of water, and it is well-established that approximately 71% of the Earth's surface is covered by oceans. Therefore, when the question refers to "three quarters," it is approximating this figure to indicate that the vast majority of the Earth's surface is indeed covered by ocean water. The other options do not represent the overall coverage of the Earth's surface, making (d) the correct answer.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Where is a bird likely to feel free?(a) forest (b) ocean (c) roof (d) nest (e) sky</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Birds are often associated with the ability to fly, and the sky represents the vastness of open space where they can soar, explore, and move freely without obstacles. While forests, roofs, and nests provide shelter or safety, they can also be constraining environments. The ocean is not an environment where birds typically feel free, as it is not their natural habitat. Therefore, the sky is the most fitting option, as it embodies the freedom and expansiveness that birds seek.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Arkansas university plays in the southeastern confernce, the sooners of where play in the big twelve?(a) united states (b) seattle (c) arkansas (d) oklahoma (e) colorado</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Sooners is the nickname for the sports teams of the University of Oklahoma, which is a member of the Big 12 Conference. Therefore, the correct answer is Oklahoma, as it directly relates to the Sooners and their conference affiliation. The other options do not pertain to the nickname "Sooners" or the Big 12 Conference.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>If you about to go on stage and are dressed in costume you are likely about to be what?(a) in play (b) going to bed (c) have talent (d) teach (e) climb stairs</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When someone is dressed in a costume and prepared to go on stage, it typically indicates that they are participating in a theatrical performance or play. Costumes are essential in the context of theater as they help portray characters and enhance the storytelling aspect of a performance. The other options do not relate to being on stage or involve costumes: "going to bed" is unrelated to performance, "have talent" is vague and does not specify an action, "teach" generally occurs in a classroom setting, and "climb stairs" is a physical action that has no connection to performing on stage. Therefore, the best choice is (a) in play.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Where would you read magazines while waiting to board winged transportation?(a) airport (b) bis atation (c) library (d) bed (e) dentist</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The question specifically refers to a location where one would wait to board "winged transportation," which typically means an airplane. The most appropriate location for this activity is an airport, as it is designed for air travel and includes amenities such as shops and seating areas where passengers can wait and read. While one might read magazines at other locations, such as a bus station or library, they are not specifically associated with waiting for air travel. Therefore, the airport is the clear and correct choice.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Where is gasoline made?(a) burn in oxygen (b) refineries (c) boat (d) gas station (e) rocks</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gasoline is produced in refineries, which are facilities that process crude oil into various petroleum products, including gasoline. Refineries use complex chemical processes to separate and convert the components of crude oil into usable fuels and other products. The other options do not represent locations or processes where gasoline is made: (a) refers to combustion, (c) refers to a mode of transport, (d) refers to a retail outlet for fuel, and (e) does not relate to gasoline production at all. Therefore, the correct answer is (b) refineries.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Simon put crayon pictures on the wall of what?(a) classroom (b) labyrinth (c) zoo (d) art show (e) prison</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A classroom is a place where children often create and display their artwork, including crayon pictures. It is common for teachers to encourage students to express their creativity through art and showcase these works on the walls for educational and decorative purposes. The other options do not fit as well; for example, a labyrinth is not typically associated with children's art, a zoo would focus on animals, an art show would feature more formal art rather than crayon pictures, and a prison would not be a suitable environment for displaying children's artwork. Therefore, the most logical answer is (a) classroom.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>What can be done to ice in order to give it a desired shape?(a) antarctica (b) sculptured (c) shaped (d) melted (e) carved</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carving is a specific technique used to create intricate designs or shapes from solid materials, including ice. When ice is carved, it can be shaped into various forms, such as sculptures or decorative pieces. While "melted" refers to changing ice from solid to liquid, it does not contribute to giving ice a specific shape; instead, it would alter its form entirely. "Sculptured" and "shaped" are related terms but do not directly indicate the precise action of removing material to create a desired shape as "carved" does. Therefore, "carved" is the most accurate choice for the action taken to give ice a specific, desired shape.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>What is a staple of the manufacturing industry?(a) factory (b) civilization (c) money (d) machinery (e) big city</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A factory is a facility where goods are produced, making it a fundamental component of the manufacturing industry. It is the physical space where raw materials are transformed into finished products through various processes. While machinery (option d) is also essential to manufacturing, it is typically housed within factories, thus making "factory" the more encompassing and accurate choice. Other options like civilization, money, and big city do not directly pertain to the core activities and infrastructure of the manufacturing sector.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>John and Jane were a couple.  They were dating for a while and wanted to be together for even longer. For this reason, they did what?(a) make sex (b) plan to marry (c) dance (d) electrical circuit (e) row about</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question indicates that John and Jane are in a committed relationship and are looking for ways to solidify their bond. Among the given options, "plan to marry" (option b) is the most logical step for a couple wanting to be together for a longer duration, as marriage typically signifies a deeper commitment and intention to spend their lives together. Other options, such as "make sex" (a) or "dance" (c), do not directly reflect a long-term commitment, while "electrical circuit" (d) and "row about" (e) are unrelated to the context of a romantic relationship. Therefore, planning to marry aligns best with their desire to be together for a longer time.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>What's it called when you have seen something through an eyepiece?(a) sights (b) optical illusion (c) optical telescope (d) light microscope (e) binocular</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The term "sights" generally refers to the act of seeing or observing through an optical device, which includes any eyepiece-equipped instrument. While options like "optical telescope," "light microscope," and "binocular" specify particular types of devices that utilize eyepieces, the term "sights" encompasses the broader action of seeing through any eyepiece, making it the most appropriate choice given the context of the question.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Other than school or from text where can one gain knowledge?(a) book (b) class (c) thinking (d) head (e) meeting</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gaining knowledge can occur through various means apart from formal education or written texts. While books and classes are traditional sources of information, the correct answer, "meeting," refers to the informal and social contexts where individuals exchange ideas, share experiences, and learn from one another. Meetings can facilitate discussions and insights that might not be found in textbooks or structured classes, making them a valuable source of knowledge.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>James wanted to get a kite.  He loved flying them.  Where might he look for one?(a) child's hand (b) toy store (c) sky (d) under a cabbage. (e) end of line</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A toy store is a typical place where kites are sold, making it a logical option for James to look for one. While a child's hand (option a) could imply that a child is already flying a kite, it doesn't suggest where James might find a kite to purchase. The sky (option c) is where kites are flown but not where they can be found for sale. "Under a cabbage" (option d) is nonsensical in this context, and "end of line" (option e) does not relate to kites at all. Therefore, the toy store is the most reasonable and relevant option.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sally went to her office, which was on the 8th and top floor.  Where does she probably work?(a) skyscraper (b) tall building (c) public building (d) school building (e) swimming pool</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Since Sally's office is located on the 8th and top floor, it suggests that she works in a building with multiple stories. The term "tall building" is a general category that encompasses buildings that are significantly taller than average, but it does not imply extreme height as "skyscraper" does. Given that there are many buildings classified as tall without being skyscrapers, the most appropriate answer is (b) tall building. The other options (a, c, d, e) either do not fit the context of an office setting or do not imply a multi-story structure.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>What could a dog get completely dirty?(a) table (b) pet store (c) outside (d) car (e) rug</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A dog can get completely dirty by rolling around, playing, or shedding dirt and fur, especially on a rug, which is a common place for dogs to rest or play indoors. While options like "outside" (c) could also lead to a dog getting dirty, the question specifically asks for something that could be completely dirty, and a rug is more likely to show visible dirt and fur accumulation from a dog’s activities. The other options, such as "table" (a), "pet store" (b), and "car" (d), are less likely to become completely dirty due to a dog's presence in the same way a rug would, making "rug" the most fitting answer.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Where would a towel be kept in a gym?(a) locker room (b) in the showers (c) linen closet (d) swimming pool (e) cupboard</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Towels in a gym are typically kept in the locker room because this area is designated for changing and storing personal belongings. It is a convenient place for gym-goers to access towels before or after their workouts. While towels may also be found in showers or near a swimming pool, the locker room is the most common and practical storage location for towels, as it provides easy access for users before and after their gym activities.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>If I can feel material, then where am I generally speaking?(a) fabric store (b) anything (c) attic (d) physical world (e) science lab</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ability to feel material implies the existence of a tangible, physical environment where sensory perception occurs. The term "physical world" encompasses all environments where matter exists and can be perceived through touch. While options such as "fabric store" or "science lab" might involve specific contexts where one might feel materials, they are limited to particular locations. In contrast, "physical world" is the most accurate and encompassing answer, as it includes all of reality where material sensations can be experienced.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Bob is in a dressing room.  He's putting on waterproof trunks and goggles.  What sort of facility is he most likely visiting?(a) swimming pool (b) actors and actresses (c) fancy restaurant. (d) gym (e) theatre</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bob is putting on waterproof trunks and goggles, which are specifically designed for activities that involve water. The act of wearing these items strongly indicates that he is preparing for an activity that takes place in or around water. Among the provided options, a swimming pool is the most logical facility where one would use waterproof trunks and goggles. The other options (actors and actresses, fancy restaurant, gym, theatre) do not align with the context of using water-related gear, making option (a) the correct answer.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>James had almost religious reverence for Bill, but Bill didn't return the feelings.  How did Bill treat James.(a) profanity (b) content (c) irreverence (d) blasphemy (e) contempt</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "almost religious reverence" implies that James held Bill in extremely high regard, almost idolizing him. However, since "Bill didn't return the feelings," it indicates that Bill did not share this admiration. The most fitting option to describe how Bill treated James, given his lack of reciprocation and likely disregard for James's feelings, is "contempt." Contempt suggests a feeling that one is beneath consideration or deserving scorn, which aligns with the idea that Bill did not value or appreciate James's reverence towards him. The other options do not accurately capture the nature of Bill's indifference or dismissal of James's feelings.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Where would a local terrorist end up if they are caught?(a) airport (b) hijack planes (c) prison (d) hotel (e) afghanistan</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If a local terrorist is apprehended by law enforcement, the legal consequence for their actions, depending on the severity of their crimes, would typically lead to incarceration. Prisons are where individuals convicted of crimes, including terrorism, serve their sentences. The other options either describe potential actions (hijacking planes) or locations unrelated to the judicial process (airport, hotel, Afghanistan). Therefore, "prison" is the most logical outcome for someone caught engaging in terrorist activities.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>What is a marmot likely to be good at finding?(a) food (b) hiding place (c) yellow pages (d) jungle (e) high mountains</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marmots are ground-dwelling rodents that are often found in mountainous and hilly regions. They have adapted well to their environments and are known for their burrowing behavior, which allows them to create hiding places for themselves. While they do search for food, the question specifically asks what they are likely to be good at finding, and given their natural behavior, finding a suitable hiding place is crucial for their survival against predators. Therefore, option (b) is the most appropriate answer.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>John wanted to hunt blowfish, but he didn't want to leave America.  Where might he search?(a) tropical sea (b) south pacific ocean (c) hawaiian waters (d) sushi store (e) fish market</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Blowfish, also known as pufferfish, can be found in warm waters, and one of the most prominent locations in America where they are abundant is in Hawaiian waters. While tropical seas and the South Pacific Ocean may also contain blowfish, those options imply locations outside of American territorial waters. A sushi store and fish market do not offer hunting opportunities; rather, they are places to purchase fish. Therefore, the most appropriate answer is Hawaiian waters, where John can hunt for blowfish without leaving America.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>The cashier enjoyed her job.  Her workplace was informal, and she loved antiques. Where might she be working.(a) fast food restaurant (b) bookstore (c) supermarket (d) shop (e) grocery store</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The description of the cashier's enjoyment of her job and the informal nature of her workplace suggests a setting that is more personal and relaxed than a typical corporate environment. While options like a fast food restaurant, supermarket, and grocery store tend to have more structured, high-paced atmospheres, a "shop" can refer to a variety of retail environments, including those that specialize in antiques. Given her love for antiques, a shop that sells vintage or antique items would align well with her interests, making option (d) the most fitting choice.. The correct answer is D</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Where is a microphone boom likely to be covering a stock market event?(a) new york (b) concert (c) tv studio (d) gig (e) recording studio</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A microphone boom is typically used in settings where audio capture is essential, particularly in environments with significant public or media attention. New York, specifically Wall Street, is the heart of the financial markets in the United States, where stock market events, including trading floors and financial news reporting, take place. Options like concert, gig, and recording studio are more focused on music and entertainment, while a TV studio could be relevant but is less specific than New York in the context of stock market events. Therefore, the correct answer is (a) New York.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Curiosity was high since it was a good tour guide, she explained things first then took the group to what?(a) hear testimony (b) examine thing (c) surf net (d) browsing (e) see exhibits</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question suggests that the tour guide is leading a group through an informative experience, likely in a museum or similar setting. The phrase "explained things first" indicates that the guide provides information or context before moving on to a visual or hands-on experience. Among the options, "see exhibits" (option e) aligns best with this scenario, as it implies that after explaining, the group would go to view physical displays or items of interest, which is a common activity during guided tours. The other options do not fit as naturally into the context of a tour explanation followed by a group activity.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Billy was a kooky person, but he wasn't gay.  What was he?(a) mainstream (b) conventional (c) straight (d) standard (e) ordinary</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "he wasn't gay" indicates that Billy identifies as heterosexual, which is commonly referred to as "straight". The term "kooky" suggests that he has an unconventional or eccentric personality, but this does not affect his sexual orientation. Therefore, the correct answer is (c) straight, as it accurately reflects his sexual orientation in contrast to being gay. The other options (a, b, d, e) do not specifically relate to sexual orientation, making (c) the most appropriate choice.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Where would a sofabed be used only for guests?(a) sitting room (b) living room (c) basement (d) dinning roam (e) spare room</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A sofabed is typically used as a sleeping space for guests who do not have a dedicated bedroom. The term "spare room" specifically refers to an additional bedroom that is not regularly occupied and is often set aside for visitors. In contrast, the sitting room, living room, basement, and dining room are more commonly used for everyday activities and entertainment, making them less suitable for a sofabed designated solely for guest use. Therefore, the spare room is the most appropriate choice for this purpose.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>What does someone gain from getting divorce?(a) poorer (b) sadness (c) depression (d) tears (e) freedom</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> While a divorce can lead to negative emotions and financial implications, one of the primary outcomes for many individuals is the sense of freedom it provides. This freedom can manifest as the ability to make independent choices, pursue personal goals, and escape an unhappy or unhealthy relationship. In this context, "freedom" represents the opportunity to lead a life that aligns more closely with one's personal values and desires, which can be a significant positive aspect of the divorce process.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>What is an object that is not used in a common room likely to be?(a) irregular (b) elite (c) rare (d) special (e) personal</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> An object that is not used in a common room is likely to be personal because common rooms are shared spaces where items are typically used by many people. Personal objects, on the other hand, are often unique to an individual and may not be suitable or necessary for shared use. Items that are personal reflect individual preferences, needs, or private use, distinguishing them from the common items found in shared environments.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>The prisoner would often escape but he was also just as often what?(a) be imprisoned (b) being caught (c) being trapped (d) captured (e) stay in</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "just as often" implies that the frequency of escaping is matched by the frequency of another action. Option (b) "being caught" directly reflects the cyclical nature of a prisoner's experience—escaping and subsequently being caught is a logical progression. While "captured" (d) could also be a possible answer, "being caught" better captures the ongoing nature of the prisoner's situation and is more commonly used in this context to describe the act of being apprehended after an escape. Therefore, option (b) provides the clearest and most direct answer to the question.. The correct answer is B</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>What does every person have that not every wolf has?(a) human intelligence (b) hide (c) name (d) mouth (e) heart</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Every human being is given a name, which is a fundamental aspect of human identity and social interaction. While wolves may have ways of communicating and may be identified by pack members, they do not possess names in the same way that humans do. The concept of a name is a uniquely human construct that is tied to our culture, language, and society, distinguishing humans from wolves and other animals.. The correct answer is C</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Joe lived skating.  It was very Zen to him.  He was calm and steady.   He could feel the wind.  He loved to do what?(a) increased heart rate (b) injury (c) might fall (d) run (e) move fast</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The context of the question indicates that Joe finds skating to be a calming and enjoyable activity, where he feels the wind and maintains a steady demeanor. The phrase "he loved to do" suggests that Joe takes pleasure in the action associated with skating. Among the options provided, "move fast" (option e) aligns with the experience of skating, which typically involves speed and fluidity. The other options either relate to negative experiences (like injury or the possibility of falling) or do not directly correlate with the act of skating itself (like running). Therefore, the correct answer is e, as it captures the essence of the joy and experience Joe derives from skating.. The correct answer is E</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>What southern area not in the US are you  likely to find a marmoset?(a) latin america (b) mountains (c) burrow (d) home (e) new hampshire</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marmosets are small primates that are native to South America, specifically found in countries such as Brazil, Colombia, and Paraguay. Latin America encompasses these regions and is the only option that accurately represents the natural habitat of marmosets outside of the United States. The other options either refer to general concepts (mountains, burrow, home) or a specific location in the U.S. (New Hampshire), which is not relevant to the distribution of marmosets. Therefore, option (a) Latin America is the correct answer.. The correct answer is A</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>The man was riding bike very quickly, clearly he had to what?(a) run away (b) get somewhere (c) falling down (d) accident (e) pleasure</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The phrase "riding bike very quickly" suggests that the man is likely in a hurry or has a specific destination in mind. Option (b) "get somewhere" aligns with the idea of urgency and purpose in his fast riding. While options (a) "run away" and (e) "pleasure" could also be plausible, they do not capture the primary implication of needing to reach a destination quickly, which is the most straightforward interpretation of the scenario. Options (c) "falling down" and (d) "accident" are negative outcomes and do not fit the context of the question, which focuses on the man's intention for riding quickly. Thus, option (b) is the most logical choice.. The correct answer is B</t>
         </is>
       </c>
     </row>

--- a/questions_with_reasoning.xlsx
+++ b/questions_with_reasoning.xlsx
@@ -448,1201 +448,1204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Where are you likely to find a reception area in a business at which you spend twenty-four hours?(a) bank (b) hotels (c) law firm (d) hospital (e) people</t>
+          <t>What do you need to have before you can begin reading?(a) concentrating (b) written material (c) acculturation (d) memory (e) concentration</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hotels typically have a reception area because they provide accommodation services for guests who may need to check in and out at any time of the day or night. Since hotels operate 24/7, the reception area is staffed around the clock to assist guests with their needs, such as room bookings, inquiries, and check-ins. While hospitals also have reception areas, they are primarily focused on patient intake and emergency services rather than providing a continuous stay for guests. Thus, hotels are the most fitting option for a business where a reception area is present, and people spend extended periods, often overnight.. The correct answer is B</t>
+          <t xml:space="preserve"> Before you can engage in the act of reading, you must have written material in front of you. Reading is fundamentally the process of interpreting symbols and text, which requires the presence of written content. While concentration (options a and e) and memory (option d) are important for effective reading comprehension and retention, they do not replace the necessity of having something to read. Acculturation (option c) pertains to cultural influence and adaptation, which is not directly related to the physical act of reading. Therefore, the correct answer is (b) written material. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>When helping soldiers in the middle of fighting, where do medics practice practice their craft?(a) funeral (b) battlefield (c) hospital (d) war (e) safety tent</t>
+          <t>The graveyard was zoned by the pastor, where was it located?(a) church property (b) every town (c) church grounds (d) cattle yard. (e) arlington</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Medics are trained to provide immediate medical assistance in situations where injuries occur, particularly in combat scenarios. The battlefield is the environment where they are specifically needed to treat wounded soldiers during active fighting. While hospitals (option c) and safety tents (option e) are also places where medical care is provided, they are typically used after the initial treatment has taken place on the battlefield. Therefore, the battlefield is the most accurate answer as it is the primary location for medics to practice their craft during combat situations.. The correct answer is B</t>
+          <t xml:space="preserve"> The term "zoned" in this context implies that the pastor designated a specific area for the graveyard, which is typically found on property owned by the church. Both options (a) "church property" and (c) "church grounds" suggest a location associated with the church; however, "church property" is more general and encompasses all land owned by the church, making it the most accurate answer to describe where the graveyard was located. Additionally, graveyards are commonly situated in close proximity to churches, reinforcing that option (a) is the most logical choice. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>James looked for an out of the way spot for his new floor lamp. Where might he have put it?(a) office (b) desktop (c) corner (d) next to the bed (e) at hotel</t>
+          <t>Where would you put a dog if it wants to go outside?(a) front door (b) porch (c) table (d) leash (e) toilet</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A "corner" is typically considered an out-of-the-way location in a room, making it a suitable choice for placing a floor lamp, as it would not obstruct pathways and would provide light without being in the main living area. Other options, like "office," "desktop," or "next to the bed," imply more central or frequently used areas, while "at hotel" does not specify a location that suggests a dedicated space for a lamp. Therefore, the corner is the most logical answer for a discreet placement.. The correct answer is C</t>
+          <t xml:space="preserve"> The porch is a suitable place for a dog that wants to go outside as it typically serves as a transitional space between the indoors and outdoors. It allows the dog to enjoy the fresh air while being in a safe area before actually going outside. In contrast, the front door serves as an entry or exit point but does not provide a space for the dog to stay; the table is an inappropriate place for a dog; the leash is a means to control the dog when going outside, but not a place to put it; and the toilet is clearly not a suitable location for a dog. Therefore, the porch is the correct answer as it accommodates the dog's desire to be outside. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>You are covered with what when you're having a bath?(a) cleanness (b) exfoliation (c) use water (d) wetness (e) rash</t>
+          <t>what do scientists want to identify when they discover a new animal?(a) human (b) conduct experiment (c) specific (d) if they are nice (e) plant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When taking a bath, the primary physical state you experience is being covered in water, which leads to the sensation of wetness. While "cleanness" might be a result of bathing and "exfoliation" could occur if using certain products, the most direct and immediate answer to what you are covered with during a bath is "wetness" from the water itself. The other options do not accurately describe the physical state of being in a bath.. The correct answer is D</t>
+          <t xml:space="preserve"> When scientists discover a new animal, their primary goal is to classify and understand the specific traits, behaviors, and ecological roles of that animal within the broader context of biodiversity. The term "specific" refers to the particular species or category that the new animal belongs to, which is essential for scientific classification and understanding. Options like (a) human and (e) plant are irrelevant as they do not pertain to the identification of a new animal, while (b) conducting an experiment is a method of study rather than an identification goal. Option (d), assessing if they are nice, is more subjective and not a scientific inquiry related to identification. Thus, identifying the specific classification is the correct focus. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Where can you likely buy many poems?(a) book of poetry (b) literature book (c) book store (d) poetry book (e) bookshelf</t>
+          <t>Where do you see signs that state a point of view?(a) freeway (b) demonstration (c) state park (d) store (e) corner of two streets</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  
-A "book store" is a place where various types of books, including collections of poetry, are sold. While options like "book of poetry" and "poetry book" refer to specific types of books that contain poems, they do not represent a location where one can purchase multiple poems. "Literature book" is too broad and may not specifically focus on poetry. A "bookshelf" is simply a piece of furniture and does not denote a place of purchase. Therefore, the most suitable answer that indicates where you can buy many poems is "book store.". The correct answer is C</t>
+          <t xml:space="preserve"> Demonstrations are organized events where individuals or groups express their opinions or viewpoints on various issues, such as social, political, or environmental matters. Signs at these events often articulate specific perspectives or demands, making them a clear representation of a point of view. In contrast, the other options—freeways, state parks, stores, and street corners—typically do not focus on expressing opinions but rather serve functional or informational purposes. Therefore, demonstrations are the most appropriate context for seeing signs that convey a point of view. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The entrance hall was adorned with sports and academic trophy cases and a big banner where?(a) college (b) school (c) large home (d) convention center (e) hat rack</t>
+          <t>Sam liked getting drunk.  He did it for what?(a) nausea (b) sleep (c) fights (d) vomiting (e) relaxation</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The presence of both sports and academic trophy cases suggests an environment that celebrates achievements in both athletics and academics, which is typical in educational institutions. While colleges also have such displays, the term "school" is more inclusive of lower educational levels where such adornments are common. A "large home" is less likely to have trophy cases and banners of this nature, while a "convention center" does not typically emphasize individual achievements. A "hat rack" is irrelevant to the context. Therefore, the most fitting answer is (b) school, as it captures the essence of where such decorations would be prominently displayed.. The correct answer is B</t>
+          <t xml:space="preserve"> Sam's enjoyment of getting drunk is most commonly associated with seeking relaxation. Alcohol is often consumed to unwind, reduce stress, or escape from daily pressures, making relaxation the most fitting reason among the provided options. The other options, such as nausea, fights, and vomiting, are negative consequences or experiences associated with excessive drinking rather than motivations for drinking. While some people may drink to aid sleep, this is not as universally applicable as the desire for relaxation. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>When one sees an apple tree, where does one tend to be?(a) canada (b) spring (c) active (d) outside (e) washington state</t>
+          <t>She was there for for just one location and one pair of jeans, but she spent hours looking at everything and anything in the what?(a) clothing store (b) shopping plaza (c) shopping mall (d) laundromat (e) thrift store</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An apple tree is a type of fruit tree that typically grows in gardens, orchards, or natural settings. Therefore, when one sees an apple tree, it is most likely that they are outside, as apple trees are not found indoors. While options like "spring" may relate to the season when apple trees bloom, the question focuses on the location where one would see the tree, making "outside" the most appropriate choice.. The correct answer is D</t>
+          <t xml:space="preserve"> The question indicates that she spent hours looking at a variety of items beyond just the jeans she initially sought. A shopping mall typically contains multiple stores and offers a wide range of products and services, making it a fitting environment for someone to browse extensively. In contrast, a clothing store (option a) would primarily focus on clothing, a shopping plaza (option b) might refer to an outdoor area with various stores but lacks the expansive variety of a mall, a laundromat (option d) is primarily for washing clothes, and a thrift store (option e) tends to have a more limited selection compared to a mall. Therefore, the most suitable answer is (c) shopping mall. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>If someone was a huge art buff and wanted to see many a gallery in one trip, where might one suggest they visit?(a) website (b) art museum (c) new york city (d) london (e) downtown area</t>
+          <t>When she went to examine the thing, what was she considering doing with it?(a) eat cake (b) buy (c) interests (d) complex (e) learn about</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New York City is renowned for its vibrant art scene and is home to numerous art galleries and museums, including the Metropolitan Museum of Art, the Museum of Modern Art (MoMA), and the Guggenheim. It hosts a wide variety of exhibitions and collections, making it an excellent destination for an art enthusiast looking to experience a diverse range of artistic styles and movements in one trip. While other options like "art museum" (b) and "london" (d) could also be valid in a broader context, New York City is particularly famous for its concentration of galleries and cultural institutions, hence making it the most suitable suggestion.. The correct answer is C</t>
+          <t xml:space="preserve"> The phrase "went to examine the thing" suggests that she is assessing or evaluating an item, which aligns with the intention to potentially purchase it. The option "buy" implies a transactional consideration, which fits the context of examining something to decide whether to acquire it. The other options do not relate directly to the act of examining in a way that implies a decision or action regarding ownership. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What do we do if we rise something and want to put it back down?(a) fall (b) sun set (c) below (d) lower (e) place</t>
+          <t>What happens to a building around half of the time every day?(a) it gets dark (b) cast shadow (c) face north (d) target (e) fall down</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The term "lower" specifically refers to the action of bringing something down after it has been raised. When we rise an object, we elevate it, and to put it back down, we engage in the act of lowering it. While "place" could also imply putting something down, "lower" more accurately describes the action of decreasing its height or position after it has been lifted. Therefore, option (d) is the most appropriate choice.. The correct answer is D</t>
+          <t xml:space="preserve"> A building casts a shadow due to the position of the sun in the sky. As the sun moves throughout the day, it creates a shadow that changes in length and direction. This phenomenon occurs approximately half of the time each day, especially during daylight hours when the sun is above the horizon. The other options do not consistently occur "around half of the time." For example, a building does not face north inherently (option c), it does not "get dark" (option a) in a way that is applicable to the building itself, being a permanent structure (option d), and it does not typically "fall down" (option e) under normal circumstances. Therefore, option (b) is the most accurate response. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Billy and Marge were a couple.  They weren't serious and they didn't get frisky, but they always enjoyed going and doing what?(a) dance (b) marry each other (c) french kissing (d) make sex (e) plan to marry</t>
+          <t>Professionally the fighters always maintained a level of respect, but personally they held each other in what for things that were said?(a) belittlement (b) humiliate (c) irreverence (d) contempt (e) love</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "they weren't serious and they didn't get frisky" suggests that their relationship was light-hearted and lacked physical intimacy. Therefore, options that imply serious commitments or physical intimacy (like marrying, french kissing, making sex, or planning to marry) are unlikely to be correct. The option "dance" fits well as it represents a fun, social activity that a couple could enjoy together without the implications of a serious or intimate relationship. Thus, it is the most appropriate choice reflecting their dynamic.. The correct answer is A</t>
+          <t xml:space="preserve"> The context of the question suggests that while the fighters maintained a professional demeanor, their personal feelings towards each other were negative due to the things said between them. The word "contempt" implies a strong feeling of disapproval and disdain, which aligns with the idea of harboring negative feelings despite a facade of respect. The other options either do not capture the same depth of negativity (like "love" or "belittlement") or do not fit the context as well as "contempt," which directly conveys a sense of disrespect and disdain that could arise from personal grievances. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Birds sometimes do what to each other to establish dominance?(a) sky (b) mate (c) hatch (d) forest (e) peck</t>
+          <t>They were trying to explain why the defendant was guilty of obstructing justice, it was their job as the what?(a) riot (b) choir (c) prosecution (d) getting hurt (e) committing perjury</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pecking is a common behavior among birds used to establish social hierarchies and dominance. Birds may peck at each other to assert their position within a group, often as a form of aggression or territorial behavior. The other options, such as "mate" and "hatch," are related to reproduction and nurturing rather than establishing dominance, while "sky" and "forest" do not pertain to behaviors or actions that birds engage in with one another. Thus, "peck" is the most appropriate choice that describes a behavior linked to asserting dominance among birds.. The correct answer is E</t>
+          <t xml:space="preserve"> The term "prosecution" refers to the legal party responsible for presenting the case against an individual accused of a crime in a court of law. In this context, the prosecution's role is to provide evidence and arguments to demonstrate the defendant's guilt, including charges of obstructing justice. Other options, such as "riot" and "choir," do not relate to legal proceedings, while "getting hurt" and "committing perjury" describe actions or states that do not represent a professional role in a courtroom. Therefore, the correct answer is (c) prosecution, as it directly pertains to the function of explaining and proving the defendant's guilt in the context of obstructing justice. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>What is the worst outcome of an injury?(a) cause death (b) cause bleeding (c) falling down (d) become infected (e) claim insurance</t>
+          <t>The teacher encouraged note taking because everything was important, but it turned out the information that day was what for the upcoming quiz?(a) insignificant (b) off (c) trivial (d) ignorable (e) useless</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The worst outcome of an injury is causing death (option a) because it signifies the loss of life, which is irreversible and has the most severe consequences for individuals and their loved ones. While other options, such as bleeding (option b), falling down (option c), becoming infected (option d), and claiming insurance (option e), can lead to serious health issues or financial implications, they do not represent the ultimate and irreversible consequence of an injury. In contrast, death eliminates all possibilities for recovery and future experiences, making it the gravest outcome one could face.. The correct answer is A</t>
+          <t xml:space="preserve"> The word "useless" indicates that the information provided was not only unimportant but also had no practical value for the quiz. While options like "insignificant," "trivial," and "ignorable" suggest a lack of importance, they do not fully convey the idea that the information was entirely without purpose or application. "Useless" captures the complete ineffectiveness of the notes for the quiz, making it the most appropriate choice in this context. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Where can a grain of sand cause a person a lot of pain and possible damage sight?(a) eye (b) clam (c) bathing suit (d) shoes (e) beach</t>
+          <t>Why is this person getting married?(a) graduation (b) fear death (c) promise to do (d) gain weight (e) catch cold</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A grain of sand can easily become lodged in the eye, leading to irritation, discomfort, and potential damage to the cornea or other parts of the eye. This can result in pain and, in serious cases, vision problems or injury. The other options, while they may involve sand, do not directly relate to causing pain or damage to sight in the same way. For example, sand in shoes or bathing suits may be uncomfortable, but it does not pose a risk to eyesight. Therefore, the eye is the most appropriate answer.. The correct answer is A</t>
+          <t xml:space="preserve"> The most logical reason for someone to get married among the provided options is a "promise to do" (option c). Marriage often signifies a commitment or promise between partners to support and care for each other throughout their lives. The other options do not relate to common motivations for marriage: graduation (a) is an achievement, fear of death (b) is a personal concern, gaining weight (d) is a physical change, and catching a cold (e) is a health issue. Therefore, option c aligns best with the traditional and emotional significance of marriage as a promise or commitment between individuals. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Excavation was beginning, step one was a good foundation at the what?(a) under ground (b) groundbreak (c) city (d) cemetary (e) construction site</t>
+          <t>Sex is often referred to being part of what for everyone?(a) human experience (b) reproductive cycle (c) procreation (d) gaining strength (e) effect of insemination</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "a good foundation" suggests that the context is related to construction, where a solid and reliable base is crucial for any building or structure. Among the options provided, "construction site" (option e) is the most relevant, as it directly pertains to a location where excavation and foundational work would typically occur. The other options do not specifically relate to the context of starting a construction project, making "construction site" the correct choice.. The correct answer is E</t>
+          <t xml:space="preserve"> 
+Sex is a fundamental aspect of human life that encompasses a wide range of experiences beyond just biological reproduction. It plays a crucial role in personal identity, emotional connection, social interaction, and cultural expression. While options like (b) reproductive cycle and (c) procreation focus specifically on the biological functions of sex, option (a) "human experience" captures the broader significance of sex in terms of relationships, intimacy, and the overall human condition. Therefore, option (a) is the most inclusive and accurate answer. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>In the children's book the cat was a great knight, it had finished its quest and was returning to the castle to what?(a) see king (b) meow (c) have fleas (d) sleep all day (e) live many years</t>
+          <t>Some idiots die of dehydration because they spend too much time playing games.  Where might someone play games so much?(a) bar (b) sporting event (c) hockey game (d) baseball field (e) internet cafe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In the context of a children's story about a cat that has completed a quest as a great knight, the narrative typically centers around themes of adventure, honor, and relationships with other characters. The option (a) "see king" suggests a return to a figure of authority and respect, which aligns with the traditional narrative of knights returning to present their accomplishments to a king or ruler. This reinforces the idea of the cat being a knight, as knights often serve a king and return to report their deeds. The other options (b) "meow," (c) "have fleas," (d) "sleep all day," and (e) "live many years" do not convey the same sense of resolution or purpose in relation to the quest, making (a) the most fitting choice.. The correct answer is A</t>
+          <t xml:space="preserve"> An internet cafe is a designated location where people can use computers and play online games for extended periods of time. It is specifically geared towards gaming and often encourages prolonged usage, making it a likely place where someone could become so engrossed in gaming that they neglect their hydration. In contrast, the other options, such as a bar, sporting event, hockey game, or baseball field, do not primarily focus on gaming and are less likely to have the same environment conducive to prolonged gaming sessions. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Where would a cat like to relieve himself?(a) ground (b) sand box (c) michigan (d) warm bed (e) warm place</t>
+          <t>A continent is a large area of land, but the globe is mostly covered by an what?(a) ocean (b) australia (c) asia (d) continent (e) island</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cats have a natural instinct to bury their waste, which is why they prefer a designated area to relieve themselves. A sand box, commonly referred to as a litter box, provides the soft, granular surface that cats are naturally inclined to dig in and cover their waste. While the ground can be an option, it lacks the cleanliness and privacy that a sand box offers, making option (b) the most suitable choice for a cat's preference. Other options like "michigan," "warm bed," and "warm place" do not provide the appropriate environment for a cat to relieve itself.. The correct answer is B</t>
+          <t xml:space="preserve"> The Earth’s surface is predominantly covered by water, with oceans making up about 71% of the total area. In contrast, continents are large landmasses that represent a smaller portion of the Earth's surface. Therefore, the correct answer is (a) ocean, as it accurately describes what covers most of the globe. The other options (b) Australia, (c) Asia, (d) continent, and (e) island are either specific landmasses or types of land that do not represent the vast majority of the Earth's surface, which is indeed dominated by oceans. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Who might end up with a wound from lying in bed?(a) patient (b) hospital (c) emergency room (d) senior citizen (e) injured person</t>
+          <t>The couple was enjoying regularly copulating, but if you ever met them you'd think they hardly knew each other based on their what?(a) babies (b) faces (c) odors (d) infidelity (e) rapport</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A patient is an individual receiving medical care, often in a hospital or healthcare setting. Prolonged inactivity, especially in bed, can lead to bedsores or pressure ulcers, which are wounds that develop due to sustained pressure on the skin. This is particularly common among patients who are bedridden or have limited mobility. While senior citizens may also be at risk for bedsores, the term "patient" encompasses anyone in a medical context who might be lying in bed for an extended period, making it the most appropriate choice. The other options (hospital, emergency room, injured person) do not directly relate to the individual experiencing the wound.. The correct answer is A</t>
+          <t xml:space="preserve"> The term "rapport" refers to the mutual understanding and connection between individuals. In this context, the couple may engage in physical intimacy ("regularly copulating"), but their lack of a close emotional bond or connection could lead an observer to think they hardly know each other. The other options, such as "babies," "faces," "odors," and "infidelity," do not effectively convey the idea of emotional distance or lack of familiarity that the question suggests. Therefore, "rapport" is the most fitting answer as it directly addresses the perceived disconnect in their relationship. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The general saw that by taking the hill, he was reaching advantage, what was the likely result of such a move?(a) becoming target (b) being ahead (c) fall (d) victory (e) moving forward</t>
+          <t>The mother was punishing her children, she raised her voice to do what to them?(a) court system (b) authoritarian (c) ignore (d) avoid (e) yell at</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taking the hill is a strategic military maneuver that typically provides a commanding view of the battlefield and a tactical advantage over opponents. By controlling higher ground, the general would likely gain better positioning for both offense and defense. This increased advantage often leads to a successful outcome in battles, making victory the most probable result of such a move. While options (b) and (e) also suggest positive outcomes, they do not capture the definitive nature of "victory" that is often associated with taking a critical position like a hill in a military context.. The correct answer is D</t>
+          <t xml:space="preserve"> Raising her voice is a common behavior associated with expressing frustration or anger, particularly when a parent is disciplining their children. In this context, the act of raising her voice is directly linked to the intention to yell at them, which is a form of verbal reprimand aimed at gaining the children's attention and enforcing discipline. The other options do not align with the action of raising one's voice in a disciplinary context. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sam loved buying Christmas presents. Giving to others made him feel what?(a) lack of money (b) pleasure (c) happiness (d) love (e) relief</t>
+          <t>Johnny wants to get money his brother.  He doesn't like to, but he sucks it up, makes the call, and finds himself doing what?(a) employment (b) do work (c) threaten (d) work for (e) asking for money</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The act of giving, especially during the festive season like Christmas, is often associated with positive emotions. While options (b) pleasure, (c) happiness, and (d) love could all relate to the joy of giving, "happiness" (option c) is the most direct and commonly recognized emotional response associated with the joy of giving gifts. It encapsulates the overall emotional uplift that comes from making others happy and experiencing joy oneself. The other options either do not directly relate to the act of giving (like lack of money or relief) or are more specific feelings that may not fully capture the broader sense of joy that comes from giving during the holidays. Thus, "happiness" is the most fitting answer.. The correct answer is C</t>
+          <t xml:space="preserve"> The context of the question indicates that Johnny is seeking financial assistance from his brother, which implies he is making a request for money. The phrase "sucks it up" suggests he is feeling reluctant but is pushing through his discomfort to ask for help. Therefore, the most fitting action he finds himself doing after making the call is "asking for money," which aligns directly with his goal of getting financial support from his brother. The other options do not accurately represent the situation or Johnny's intentions. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Where is a small dog likely to be well groomed?(a) animal shelter (b) backyard (c) park (d) dog show (e) georgia</t>
+          <t>The lady was getting worked up about the article explaining the uptick in accidents in their area, but her husband was dismissive of it stating that accidents what?(a) happen to people (b) hurt people (c) happen anytime (d) happen often (e) happen anywhere</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A dog show is an event specifically designed to showcase dogs, where they are judged based on their appearance, breed standards, and grooming. Participants in dog shows typically invest a lot of time and effort into grooming their dogs to ensure they look their best for the competition. In contrast, while dogs at an animal shelter (a), in a backyard (b), or at a park (c) may be cared for, they are not necessarily groomed to the same high standards expected at a dog show. Additionally, "Georgia" (e) is a location and does not pertain to grooming practices. Therefore, the most likely place for a small dog to be well groomed is at a dog show.. The correct answer is D</t>
+          <t xml:space="preserve"> The husband's dismissive attitude suggests he believes that accidents are a common occurrence and can happen in any location, not just in their area. By stating that accidents "happen anywhere," he minimizes the significance of the uptick mentioned in the article, implying that it is not something to be overly concerned about since accidents are not confined to a specific place. This aligns with the context of the conversation, where the husband is trying to downplay the lady's concerns. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Where might a person visit if they need a new trumpet?(a) marching band (b) orchestra (c) dance club (d) high school band (e) music shop</t>
+          <t>Where would someone have to carry their brass instrument while they played?(a) punk rock band (b) marching band (c) brass band (d) annoy mom (e) jazz band</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A music shop is a specialized store that sells various musical instruments, including trumpets. If someone needs a new trumpet, the most logical place to visit would be a music shop, where they can find different brands and models, and potentially receive assistance from knowledgeable staff. The other options, while they involve music, do not sell instruments; a marching band, orchestra, dance club, and high school band are all groups or settings where music is played, but they do not offer the service of selling instruments.. The correct answer is E</t>
+          <t xml:space="preserve"> In a marching band, musicians are required to carry their instruments while performing, as they march in formation. This is a defining characteristic of marching bands, where the performance involves both playing and moving in sync. In contrast, while brass instruments are also played in brass bands and jazz bands, those performances typically do not require musicians to carry their instruments while moving, as they are often stationary or seated. Therefore, option (b) is the correct answer. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Where can you find many a squirrel outside of the city?(a) forest (b) yard (c) street (d) park (e) desert</t>
+          <t>Where do kids gather in the entrance hall at the request of teachers?(a) house (b) person (c) palace (d) school (e) hospital</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Squirrels are typically found in wooded areas where they can find food, shelter, and nesting sites. Forests provide a natural habitat with plenty of trees and vegetation, which are essential for squirrels to thrive. While yards and parks can also host squirrels, a forest is the most abundant and suitable environment for them, especially when considering locations outside of urban areas. Streets and deserts are not conducive to squirrel populations, making the forest the best answer.. The correct answer is A</t>
+          <t xml:space="preserve"> The context of the question involves children gathering in an entrance hall at the request of teachers. This scenario is most commonly associated with a school, where teachers often direct students to gather in specific locations, such as the entrance hall, for various activities or announcements. The other options do not fit this setting: a house is typically a private residence, a person is not a location, a palace suggests a royal setting, and a hospital is usually focused on medical care rather than educational gatherings. Therefore, the most appropriate answer is (d) school. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Where would you borrow coffee if you do not have any?(a) meeting (b) convenience store (c) supermarket (d) fast food restaurant (e) friend's house</t>
+          <t>Where is a soldier likely to fight from?(a) armored car (b) platoon (c) trenches (d) tent (e) battlefield</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "borrow coffee" implies seeking a casual, informal way to obtain coffee without purchasing it. Among the options provided, a friend's house is the most likely place where one would feel comfortable asking for a favor, such as borrowing a cup of coffee. In contrast, places like a convenience store, supermarket, or fast food restaurant are commercial establishments where coffee is sold, making it less likely to borrow coffee in those settings. A meeting could potentially have coffee available, but it is not a personal or familiar setting like a friend's house would be. Therefore, the most appropriate answer is (e) friend's house.. The correct answer is E</t>
+          <t xml:space="preserve"> Soldiers are often positioned in trenches during warfare as they provide protection from enemy fire and allow for strategic positioning. Trenches have historically been used in many conflicts, particularly in World War I, to safeguard soldiers while they engage in combat. While options such as an armored car and a battlefield are also relevant to combat scenarios, trenches specifically represent a fighting position designed for defense and tactical advantage. Therefore, option (c) trenches is the most appropriate answer. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The fight enemy choice had led him to a grave injury, he was now what?(a) dying (b) victory (c) casualties (d) protect yourself (e) death</t>
+          <t>The snake was worried about predators overhead, where did it go for cover?(a) wooded area (b) tropical forest (c) warm place (d) canyon (e) sleeping bag</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "grave injury" implies that the injury is serious and life-threatening. The term "dying" directly indicates a state of being in which a person is close to death, which aligns with the consequences of having sustained such a severe injury. The other options do not appropriately describe the condition resulting from a grave injury; "victory" and "protect yourself" suggest action or outcome rather than a state of being, "casualties" refers to the injured or dead in a broader sense, and "death" implies a completed state rather than the ongoing process of dying. Therefore, "dying" is the most accurate answer.. The correct answer is A</t>
+          <t xml:space="preserve"> The snake is concerned about predators that are above it, such as birds of prey. A wooded area, with its trees and dense vegetation, provides effective cover from aerial threats. Trees can obstruct the view of potential predators and offer hiding spots among the branches and foliage. While a tropical forest (option b) could also provide cover, it is a broader category and may not specifically imply the immediate shelter that a wooded area does. The other options, such as a warm place (c), canyon (d), and sleeping bag (e), do not directly address the need for cover from overhead predators. Thus, the best choice for the snake seeking protection from aerial predators is a wooded area. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>He made another call, he did this all day hoping people would what well to his offer?(a) hang up (b) respond (c) contact (d) answer (e) attracting ducks</t>
+          <t>Having a car in the city seemed to be more trouble than it was worth, the man still had to walk to and from the what after commuting?(a) driveway (b) the event (c) scrap heap (d) parking garage (e) repair shop</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context of the question implies that the person is attempting to communicate an offer and is looking for a positive reaction from the recipients of his calls. The phrase "hoping people would respond well to his offer" indicates that he is looking for engagement or feedback from those he is calling. The word "respond" directly aligns with this intention of seeking a reaction, whereas the other options do not convey the same meaning. For example, "hang up" (a) suggests a negative reaction, "contact" (c) implies initiating communication rather than responding, "answer" (d) could be applicable but lacks the nuance of a positive reaction, and "attracting ducks" (e) is irrelevant to the situation. Therefore, "respond" is the most fitting choice.. The correct answer is B</t>
+          <t xml:space="preserve"> In an urban environment, parking is often limited and can be quite a hassle. A "parking garage" is a common facility in cities where residents and commuters can park their vehicles safely, especially in areas where street parking may not be available or is inconvenient. The phrase "having a car in the city seemed to be more trouble than it was worth" suggests that while the man owned a car, the logistics of using it—such as parking—added inconvenience to his daily routine. Therefore, it makes sense that he had to walk to and from the parking garage after commuting, as it indicates the need to park his car in a designated area before continuing on foot to his final destination. The other options do not fit the context as well as the parking garage does, making "d" the most logical choice. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Billy found himself agreeing with Dan. They knew each other since childhood.  They didn't need what to make an agreement?(a) contract (b) friendship (c) harmony (d) compliance (e) death threats</t>
+          <t>What might a child do with cards?(a) play with toys (b) play ball (c) hear stories (d) play games (e) do homework</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context suggests that Billy and Dan have a long-standing relationship, indicating a strong bond of trust and understanding built over many years. Because of this familiarity and mutual respect, they can reach an agreement without the formal need for a contract, which typically serves as a legal document to enforce an agreement between parties who may not have a personal history. In personal relationships, such as theirs, the underlying friendship and mutual understanding often suffice to solidify their agreement, making the presence of a contract unnecessary.. The correct answer is A</t>
+          <t xml:space="preserve"> Cards are commonly associated with various games, such as card games (e.g., Uno, Poker, Go Fish) which are designed for entertainment and social interaction. While children can play with toys, play ball, hear stories, or do homework, these activities are not specifically related to cards. Therefore, option (d) "play games" is the most appropriate answer as it directly connects to the primary use and purpose of cards in a child's activities. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>What place in the US has a lot of mines?(a) ground (b) cambodia (c) mine craft  game (d) pennsylvania (e) mountain</t>
+          <t>They were getting together for the big game, he wasn't hosting but made sure to bring pretty of food with him over to where?(a) picnic (b) friend's house (c) table (d) space shuttle (e) fairgrounds</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pennsylvania is historically known for its extensive mining industry, particularly coal mining, which played a significant role in the state's economy and industrial development. The state has numerous coal mines, as well as mines for other minerals. In contrast, the other options do not refer to specific locations within the US known for mining. "Ground" and "mountain" are too vague, "Cambodia" is a country outside the US, and "Minecraft game" refers to a video game rather than a physical location. Therefore, Pennsylvania is the most accurate answer.. The correct answer is D</t>
+          <t xml:space="preserve"> The context of the question implies a social gathering centered around watching a big game, which is commonly done at someone's home or a friend's place. While options like "picnic" and "fairgrounds" suggest outdoor events, they are less likely for a typical game-watching scenario. "Space shuttle" is clearly irrelevant, and "table" does not specify a location. Therefore, "friend's house" is the most logical choice, as it aligns with common practices of gathering for such events. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Where is likely to have a small kitchenette?(a) lunch room (b) house (c) apartment (d) hotel room (e) cheap motel</t>
+          <t>He was a real go getter and hard worker, he liked being in the company and had a what?(a) keep busy (b) desire to advance (c) labor in vain (d) wait for raise (e) briefcase</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A hotel room often comes equipped with a small kitchenette to provide guests with the option to prepare simple meals, especially for longer stays. This can include a microwave, refrigerator, and sometimes a small stove or sink. While apartments and houses typically have full kitchens, and lunch rooms are not designed for cooking, a cheap motel may have limited amenities and is less likely to include a kitchenette compared to a hotel room. Thus, the best answer is (d) hotel room.. The correct answer is D</t>
+          <t xml:space="preserve"> The phrase "real go getter" suggests that the person is ambitious and proactive in their efforts. Being a "hard worker" further emphasizes their commitment to achieving goals and succeeding in their endeavors. Since he enjoys being in the company, it indicates that he is engaged and motivated in his work environment. The option "desire to advance" aligns perfectly with the characteristics of a go-getter and hard worker, as it implies a strong motivation to progress in their career and take on new challenges. The other options do not fit as well with the description: "keep busy" is too vague, "labor in vain" suggests unproductive work, "wait for raise" indicates passivity, and "briefcase" is unrelated to the context of ambition and work ethic. Therefore, the correct answer is (b) desire to advance. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>What performance is expected of a student in school sessions?(a) michigan (b) pass course (c) better grade (d) ask questions (e) study history</t>
+          <t>Where do you get a table?(a) demonstration (b) kitchen (c) furniture store (d) hallway (e) apartment</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The primary expectation for students during their school sessions is to successfully complete their courses, which means passing them. While achieving better grades (option c) and asking questions (option d) can contribute to this goal, the most straightforward and fundamental expectation is that students pass their courses (option b). The other options do not directly address the minimum performance standard required for academic success.. The correct answer is B</t>
+          <t xml:space="preserve"> A table is typically a piece of furniture that is purchased from a furniture store, where a variety of tables are available for sale. While a kitchen may contain a table, it is not a place to acquire one. Similarly, a demonstration, hallway, or apartment do not serve as sources for obtaining a table. Thus, the most logical answer is (c) furniture store. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>While he golfed she got a spa treatment, they were glad they became members where?(a) health centre (b) resort (c) country club (d) house (e) golf club</t>
+          <t>Playing piano and other creative activities need what?(a) make music (b) inspiration (c) musical sounds (d) making music (e) dancing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context of the question suggests a setting where both golf and spa treatments are offered, which is typically found in a country club. While a golf club primarily focuses on golfing activities, a country club often includes additional amenities such as spas, dining, and social events, making it the most suitable option for the scenario described. Thus, they would be glad to be members of a country club where both activities are available.. The correct answer is C</t>
+          <t xml:space="preserve"> While playing the piano and engaging in creative activities can involve making music and creating sounds, the essential element that fuels creativity and drives the process of artistic expression is inspiration. Inspiration is what motivates individuals to create, explore, and express themselves through music or any other form of art. Without inspiration, the act of playing the piano or engaging in creative activities may lack depth and emotional connection. Therefore, among the options provided, "inspiration" is the most crucial requirement for such creative endeavors. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>The older gentlemen enjoyed socializing over a chess board, on clear warm days he did this at the local what?(a) retirement community (b) pool (c) cabinet (d) park (e) library</t>
+          <t>What can happen when kissing outside?(a) herpes (b) sexual stimulation (c) catch cold (d) outburst (e) get cold</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Parks are commonly associated with outdoor activities and socialization, especially on clear warm days. They provide ample space for people to gather, play games like chess, and enjoy the outdoors. In contrast, the other options such as a retirement community, pool, cabinet, and library do not typically offer the same open-air social environment conducive to outdoor games. A retirement community may have indoor spaces, a pool is not focused on chess, a cabinet is not a location for socializing, and while a library offers quiet space, it is not suitable for a lively game of chess outdoors. Thus, a park is the most fitting answer.. The correct answer is D</t>
+          <t xml:space="preserve"> Kissing outside, especially in cooler weather, can lead to getting cold due to exposure to lower temperatures and wind. While other options like herpes could theoretically be a risk with any intimate contact, the focus of "kissing outside" particularly implies a situation where environmental factors might affect body temperature. Hence, "get cold" is the most relevant answer in this context. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What would a soprano be a part of in church?(a) add high notes (b) opera house (c) choit (d) choir (e) movie</t>
+          <t>James spent his days at his cottage trying to capture the beauty of the landscape, but he wasn't good at it. He was never good at it.  What isn't he good at?(a) mountains (b) dense areas (c) village (d) countryside (e) painting</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A soprano is a type of singer who typically has a high vocal range and is often featured in choral music. In the context of a church, sopranos are commonly part of a choir, which is a group that sings together during religious services. While option (a) mentions high notes, it does not indicate a specific context like a choir. Option (b) refers to an opera house, which is not specifically related to church music. Option (c) seems to be a typo for "choir," but it is not spelled correctly. Option (e) refers to a movie, which is unrelated to the context of church singing. Therefore, the best answer is (d) choir, as it directly relates to where a soprano would be found in a church setting.. The correct answer is D</t>
+          <t xml:space="preserve"> The question states that James spent his days trying to capture the beauty of the landscape, which implies he is attempting to represent or depict it visually. The phrase "he wasn't good at it" suggests that whatever activity he is engaged in, he lacks skill. Among the options provided, "painting" (option e) directly relates to the act of capturing a landscape's beauty. The other options (mountains, dense areas, village, countryside) refer to types of landscapes or settings, but they do not represent an activity or skill. Therefore, the correct answer is e, as it is the only option that aligns with his unsuccessful attempts to capture the beauty of the landscape through a creative medium. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Movies which contain unusual or unexpected events which are lighthearted in tone are trying to be what?(a) clever (b) entertaining (c) watched by people (d) funny (e) excellent</t>
+          <t>John thought the distance between himself ahd Sally was insurmountable.  But when he opened up to her, he found that they shared something What did they share?(a) near (b) proximity (c) closeness (d) close (e) duration</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Movies characterized by unusual or unexpected events typically aim to evoke laughter and amusement, aligning closely with the definition of being "funny." The lighthearted tone further suggests that the intention is to create humor rather than delve into serious themes. While options like "entertaining" (b) could also apply, the specific focus on humor in the context of unusual events makes "funny" (d) the most accurate choice.. The correct answer is D</t>
+          <t xml:space="preserve"> The context of the question indicates that John initially perceived a significant emotional or relational gap between himself and Sally. The term "insurmountable" suggests a deep-seated feeling of separation or distance. However, upon opening up to her, he discovers a shared experience or emotional connection. Among the options provided, "closeness" (c) most accurately reflects this newfound emotional bond, as it conveys a sense of intimacy and understanding between the two individuals, which contrasts with the initial perception of distance. Other options like "proximity" (b) and "near" (a) imply physical closeness rather than emotional, while "close" (d) is too vague without context. "Duration" (e) does not pertain to the emotional connection they found. Therefore, "closeness" is the most appropriate choice. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>What problems do children have learning about the world?(a) confusion (b) anger (c) sadness (d) loss of innocence (e) frustration</t>
+          <t>The city was very bright this time of year.  There was a much smaller population where?(a) suburbs (b) town (c) wilderness (d) outside (e) countryside</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Children often encounter a vast amount of information and experiences that can be overwhelming, leading to confusion. As they try to make sense of their surroundings, they may struggle to understand complex concepts, social cues, and the consequences of actions. This confusion is a natural part of cognitive development as they learn to navigate and interpret the world around them. While other options like frustration or sadness can also occur, confusion is a more fundamental and pervasive issue that directly relates to their learning process.. The correct answer is A</t>
+          <t xml:space="preserve"> The phrase "the city was very bright this time of year" suggests a vibrant, populated area, typically associated with urban environments. In contrast, the term "countryside" refers to rural areas that are generally less populated than cities. While suburbs (a) and towns (b) may have smaller populations than the city itself, they are usually still populated areas. "Wilderness" (c) implies a very low population density but is not typically associated with the seasonal brightness mentioned. "Outside" (d) is vague and does not specify a location type. Therefore, "countryside" (e) is the most accurate answer, as it signifies a rural area where the population is significantly smaller than in a city. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What can you gain when reading a book about something you have little knowledge in?(a) discussion (b) entertainment (c) learn things (d) enlightenment (e) nightmares</t>
+          <t>The man and the woman chipped the wood for their garden and then did what to it?(a) warp (b) sanded (c) composted (d) petrify (e) feel rough</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Reading a book about a topic you know little about can lead to enlightenment, which involves gaining a deeper understanding or insight into that subject. While options (b) entertainment and (c) learn things are also valid outcomes of reading, they do not fully capture the transformative nature of enlightenment, which implies a significant shift in perspective or awareness. Option (a) discussion is more about interaction with others rather than personal gain from reading, and (e) nightmares is not a typical outcome of reading educational or enlightening material. Thus, enlightenment is the most comprehensive and profound benefit from engaging with new knowledge.. The correct answer is D</t>
+          <t xml:space="preserve"> After chipping the wood for their garden, it is logical that they would compost it. Chipping wood typically refers to breaking it down into smaller pieces, which can then be used as mulch or added to a compost pile to decompose and enrich the soil. The other options do not fit as naturally in this context: warping refers to a distortion in shape, sanding is a finishing process that would typically occur before chipping, petrifying is a geological process, and feeling rough describes texture rather than an action taken with the wood. Composting aligns with gardening practices, making it the most reasonable choice. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The man reduced the town to rubble out of hate, what was his goal?(a) wage war (b) play nice (c) fight enemy (d) stab to death (e) destroy enemy</t>
+          <t>Where would you look for lasagna after it has been cooked?(a) plate (b) market (c) freezer (d) plate (e) store</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "reduced the town to rubble out of hate" indicates a deliberate act of destruction motivated by strong negative feelings. The goal of such actions typically aligns with the desire to cause significant harm or eliminate an opponent. Option (e) "destroy enemy" directly correlates with this intent, suggesting that the man's actions were aimed at annihilating his adversaries, whether they be literal enemies or representatives of a group he despised. The other options do not fit the context of the question as effectively; for example, "wage war" implies a broader strategy rather than a specific act of destruction, "play nice" is contrary to the described motivation, "fight enemy" suggests confrontation rather than destruction, and "stab to death" is a more personal and direct act that doesn't encompass the broader action of reducing a town to rubble. Thus, option (e) is the most fitting goal based on the context provided.. The correct answer is E</t>
+          <t xml:space="preserve"> After lasagna has been cooked, it is typically served and presented on a plate for consumption. The options include a market, freezer, and store, which are places associated with buying or storing food rather than serving it. Although option (a) also mentions "plate," option (d) is the correct answer as it specifically refers to the act of looking for lasagna after it has been cooked and served, which aligns with the context of the question. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>If I am a person who want to go to college, what am I seeking?(a) thank god (b) further education (c) stand upright (d) speak spanish (e) unemployment</t>
+          <t>What happens when people touch a hot stove?(a) burn themselves (b) teach each other (c) believe in god (d) learn (e) cross themselves</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The primary purpose of attending college is to pursue further education. Individuals who go to college typically do so to gain knowledge, skills, and qualifications that will prepare them for their chosen career path or field of study. The other options do not relate to the primary motivation for seeking college; for example, "thank god" is an expression of gratitude, "stand upright" is a physical action, "speak Spanish" pertains to language skills, and "unemployment" is the state of not having a job, which is contrary to the goal of attending college. Thus, option (b) accurately captures the intention behind seeking higher education.. The correct answer is B</t>
+          <t xml:space="preserve"> When people touch a hot stove, the high temperature of the stove causes immediate damage to the skin and underlying tissues, resulting in a burn. This is a direct physical reaction to the heat, which can cause pain, redness, and blistering, thus making option (a) the most accurate and relevant answer. The other options do not pertain to the immediate physical consequences of touching a hot stove. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Where are you not likely to find an apple tree?(a) new york (b) washington state (c) valley (d) rainforest (e) park</t>
+          <t>What is the biggest group of people on the east coast where you will find skyscrapers?(a) new york city (b) big city (c) large city (d) metropolis (e) beach</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apple trees thrive in temperate climates and are commonly found in areas with well-defined seasons, such as New York and Washington state, which are both known for their apple orchards. While apples can grow in valleys, the conditions in a rainforest—characterized by high humidity, heavy rainfall, and consistent warm temperatures—are not ideal for apple cultivation. Therefore, you are not likely to find an apple tree in a rainforest.. The correct answer is A</t>
+          <t xml:space="preserve"> New York City is widely recognized as the largest city on the East Coast of the United States and is famous for its iconic skyline featuring numerous skyscrapers. While "big city," "large city," and "metropolis" are general terms that could refer to many urban areas, they do not specify a particular location or the notable presence of skyscrapers. Additionally, "beach" is unrelated to the context of skyscrapers. Therefore, the most accurate answer is New York City, as it is the undeniable hub of skyscrapers in the region. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Where would you get an eyeglasses case if you do not have one?(a) factory (b) bag (c) store (d) purse (e) shirt pocket</t>
+          <t>People rushed down the aisles in confusion as someone shouted fire, what were they running out of?(a) opera (b) mind (c) war (d) quandry (e) breath</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A store is a place where various items, including eyeglasses cases, are sold. If someone does not have an eyeglasses case, going to a store is the most logical option to purchase one. The other options, such as a factory, bag, purse, or shirt pocket, do not typically serve as places to acquire new items; instead, they may only contain items that are already owned. Thus, the store is the appropriate choice for obtaining a new eyeglasses case.. The correct answer is C</t>
+          <t xml:space="preserve"> The context of the question suggests a scenario where people are in a crowded place, likely a public event or performance, and they are reacting to a fire alarm. The mention of "rushed down the aisles" implies that they are in an enclosed space with rows of seats, which is characteristic of venues like theaters or opera houses. Therefore, the most logical answer is (a) opera, as it fits the setting where such a panic might occur. The other options do not correlate with a physical location from which one would need to escape in case of a fire. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Where was the apple tree said to contain something forbidden?(a) north carolina (b) washington state (c) nil (d) great outdoors (e) garden of eden</t>
+          <t>Where can someone go and buy cheese?(a) pizza (b) bar (c) fridge (d) market (e) refrigerator</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The concept of a forbidden apple tree is most famously associated with the biblical narrative of the Garden of Eden, as described in the Book of Genesis. In this story, God places Adam and Eve in the Garden and forbids them from eating the fruit of the tree of knowledge of good and evil. The apple tree symbolizes temptation and the consequences of disobedience, making "Garden of Eden" the correct answer, as none of the other options relate to this specific narrative.. The correct answer is E</t>
+          <t xml:space="preserve"> The correct answer is "market" because a market is a place where various food items, including cheese, are sold. While you can find cheese at a pizza (a) or bar (b) as part of a dish, these places do not primarily sell cheese. A fridge (c) and refrigerator (e) are storage appliances and do not serve as locations to purchase cheese. Thus, the most appropriate option for buying cheese is the market. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>What is a good result of jogging?(a) insect repellent (b) heart attacks (c) improved health (d) shin splints (e) being tired</t>
+          <t>If people are shot in the head by a bullet, what is the likely result?(a) believe in god (b) migraine (c) complete high school (d) die suddenly (e) cross river</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jogging is a form of cardiovascular exercise that promotes physical fitness and overall health. It helps improve cardiovascular health, strengthens muscles, enhances endurance, and can lead to weight management. While jogging can sometimes lead to minor injuries (like shin splints) or temporary fatigue, the primary benefit and positive outcome of regular jogging is improved health, making option (c) the correct answer.. The correct answer is C</t>
+          <t xml:space="preserve"> Being shot in the head with a bullet typically causes severe trauma to the brain, which can result in catastrophic injury or death. The brain is responsible for many critical functions, and damage to it can lead to a loss of consciousness and, in most cases, will result in death due to the devastating nature of such an injury. Therefore, the most likely result of being shot in the head is to die suddenly. The other options do not logically follow from such a traumatic event. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Where is sugar stored when it's not needed?(a) coffee (b) bank locker (c) cupboard (d) every home (e) candy bar</t>
+          <t>Washing hands too often can cause what?(a) health (b) dry skin (c) pink hands (d) become wet (e) wet floor</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sugar, when not in use, is typically stored in a cupboard or pantry in a home. This is where dry goods like sugar are kept to maintain freshness and accessibility for cooking and baking. While options like "every home" (d) suggest a more generalized storage concept, "cupboard" (c) specifically identifies the common storage location for sugar, making it the most accurate answer. Other options like "coffee" (a) and "candy bar" (e) do not serve as storage locations for sugar, and "bank locker" (b) is irrelevant in the context of food storage. Thus, option (c) is the most appropriate choice.. The correct answer is C</t>
+          <t xml:space="preserve"> Washing hands frequently, especially with soap and water, can strip the skin of its natural oils, leading to dryness. This is particularly true in colder months or in environments where handwashing is done repeatedly. Dry skin can result in irritation, cracking, and discomfort. While the other options might have some relevance in certain contexts, they do not directly relate to the consequences of excessive handwashing in the same way that dry skin does. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spending time seeing artifacts listening to museum lectures will lead to what?(a) thinking (b) learning (c) angry (d) archeology (e) pleasure</t>
+          <t>What is someone not legal to buy alcohol?(a) underage (b) banned (c) adult (d) rules (e) black market</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Spending time in a museum, particularly by viewing artifacts and attending lectures, is designed to provide educational experiences. The primary goal of museums is to educate the public about history, culture, and art. While options such as "thinking" and "pleasure" may also occur as a result of this activity, the most direct and relevant outcome is "learning." Museums aim to impart knowledge and understanding, making "learning" the most appropriate answer in this context.. The correct answer is B</t>
+          <t xml:space="preserve"> The term "underage" refers to individuals who are below the legal age required to purchase alcohol, which varies by country or region but is typically 18 or 21 years old in many places. People who are underage are legally prohibited from buying alcohol. The other options either refer to specific circumstances (banned), legal age (adult), regulatory frameworks (rules), or illicit activities (black market), but do not directly indicate a legal restriction on purchasing alcohol like "underage" does. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A traveler from Atlanta wants to meet friends in Hong Kong, so he drives where?(a) car (b) bus stop (c) subway (d) skateboard (e) airport</t>
+          <t>In what area will excavation for new roads will cause traffic jams?(a) egypt (b) city (c) open sea (d) desert (e) quarry</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The traveler is looking to meet friends in Hong Kong, which is a different city and requires traveling a significant distance. The most logical choice for traveling to a different country is to go to the airport, as it is the primary transportation hub for international flights. The other options (car, bus stop, subway, skateboard) do not facilitate long-distance travel to another country, making the airport the correct answer.. The correct answer is E</t>
+          <t xml:space="preserve"> Excavation for new roads is most likely to occur in urban areas where there are existing road networks and high traffic volumes. Cities are characterized by dense populations and significant vehicle movement, so any road construction or excavation in these areas can lead to severe traffic congestion. Conversely, areas like open sea, desert, and quarries are not typically associated with high traffic, and while excavation might occur there, it would not cause traffic jams in the same way it would in a city. Thus, the correct answer is (b) city. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Some people just keep on buying things, showing that they have a pathological need to do what?(a) having to pay for (b) now own (c) using money (d) horde (e) possessing more</t>
+          <t>The person was stood up on a date, what was his reaction?(a) cross street (b) machine part (c) regret (d) selling things (e) feel resentful</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "pathological need" indicates an uncontrollable or compulsive behavior. In this context, the act of continuously buying things suggests that these individuals have an excessive desire to accumulate items. Among the options provided, "possessing more" (option e) best captures the essence of this compulsive behavior, as it directly relates to the need to have or own a greater quantity of possessions. Other options, such as "having to pay for," "now own," "using money," and "horde," do not adequately convey the underlying psychological drive to acquire more possessions that is central to the question. Thus, "possessing more" is the most appropriate choice.. The correct answer is E</t>
+          <t xml:space="preserve"> When someone is stood up on a date, it often leads to feelings of disappointment and resentment towards the person who did not show up. The feeling of being neglected or unvalued can cause the individual to feel angry or hurt, which aligns with option (e) "feel resentful." While "regret" (option c) could also be a possible reaction, it does not capture the more intense emotional response that typically follows being stood up, making "feel resentful" the more fitting answer in this scenario. The other options (a, b, and d) do not relate to emotional reactions and are irrelevant in this context. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Frankie found a bone in her good.  It probably belonged to what?(a) father (b) arm (c) cow (d) museum (e) human body</t>
+          <t>The humorous is a bone found where?(a) cow (b) arm (c) fresh fish (d) museum (e) comedy club</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The question presents a scenario where Frankie finds a bone. Among the options provided, the most logical inference is that the bone likely belongs to an animal, specifically a cow, which is a common source of bones found in various environments. Options like "father" and "arm" suggest human body parts, which would not be appropriate in this context. The option "museum" is not relevant as it does not refer to a living being or a source of a bone. Therefore, the best answer is (c) cow, as it aligns with the context of finding a bone in nature.. The correct answer is C</t>
+          <t xml:space="preserve"> The humorous is a long bone in the upper arm that runs from the shoulder to the elbow. It is an integral part of the human skeleton, specifically located in the arm. While cows have bones, the term "humerous" specifically refers to the arm bone in anatomical terms. Therefore, the correct answer is (b) arm. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A person who found something odd, may have found it odd because it wasn't what?(a) even (b) common (c) expected (d) happening (e) habitual</t>
+          <t>He told his parents he was going to go somewhere, they told him to call when he what?(a) fart (b) meet (c) get lost (d) arrive there (e) go back</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The term "odd" typically implies that something is unusual or not normal. When someone finds something odd, it often means that it deviates from what they anticipate or predict in a given situation. Therefore, the most fitting option is (c) expected, as it directly correlates with the idea that the person encountered something that did not align with their expectations. While options like (b) common and (e) habitual also suggest a deviation from the norm, "expected" captures the essence of surprise or strangeness, which is often at the heart of finding something odd.. The correct answer is C</t>
+          <t xml:space="preserve"> The phrase "call when he arrives there" is a common expression used by parents to ensure their child communicates their safety upon reaching a destination. This reflects a parental concern for the child's well-being and is a typical request in such scenarios. The other options (a, b, c, e) do not fit the context of a parent asking for communication regarding the child's travel plans. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Where can you find a place to eat and places to buy items of many different kinds?(a) city (b) downtown (c) own house (d) bar (e) shopping center</t>
+          <t>What does a person who is lazy want?(a) healthy children (b) own house (c) college degree (d) easy life (e) treated with respect</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A shopping center is specifically designed to house a variety of stores and restaurants, making it a convenient location for both dining and shopping. While a city or downtown area may also have places to eat and shop, they are broader terms that can encompass a range of different establishments, not all of which are dedicated to eating or shopping. An own house typically does not have commercial options for dining or shopping, and a bar is primarily focused on serving drinks rather than a variety of food and retail options. Thus, the shopping center is the most appropriate choice for finding a place to eat and buy various items.. The correct answer is E</t>
+          <t xml:space="preserve"> A person who is described as lazy typically seeks to minimize effort and avoid strenuous activities. Among the given options, an "easy life" directly aligns with the desire for minimal effort and the avoidance of challenges. While the other options may require effort, responsibility, or commitment, an easy life suggests a preference for comfort and convenience without the need for hard work. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>All the children were having fun, the game of tag was a great choice of what?(a) effort (b) exercise (c) relaxing (d) playing around (e) activity</t>
+          <t>Where can one find shelter in the city?(a) homeless shelter (b) shelterbelt (c) house (d) tree (e) bus stop</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The term "activity" encompasses a wide range of actions and engagements, particularly in the context of children playing. In this scenario, "activity" effectively captures the essence of the game of tag as it involves movement, interaction, and play, which are all integral components of children's playtime. While options such as "exercise" and "playing around" are related, they are more specific aspects of what the game of tag represents. Therefore, "activity" is the most comprehensive and fitting choice in this context.. The correct answer is E</t>
+          <t xml:space="preserve"> A bus stop provides a temporary place for individuals to wait for public transportation, offering a form of shelter from the elements such as rain or sun. While options like a homeless shelter and a house provide more permanent shelter, the question asks about finding shelter in a city context, where a bus stop serves as an accessible and immediate option for many people seeking refuge from weather conditions while they wait. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>He had only experienced tangible and corporeal events in his life, but the hippy girl opened up his what side?(a) insubstantial (b) mind (c) intangible (d) ethereal (e) spiritual</t>
+          <t>Bob doesn't want to buy a plain stereo system. He wants something studio quality, with all of the what?(a) decorative (b) extravagant (c) speakers (d) exotic (e) bells and whistles</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The question suggests a transformation or expansion of experience that goes beyond the physical and material world, which is indicated by the phrase "tangible and corporeal events." The hippy girl represents a perspective or lifestyle that often emphasizes deeper, non-material aspects of existence, such as emotions, beliefs, and connections to the universe. Among the options provided, "spiritual" (e) best captures this notion of exploring and experiencing the non-physical dimensions of life. The other options, while related, do not directly convey this sense of a deeper, inner journey or connection to something greater, making "spiritual" the most fitting choice.. The correct answer is E</t>
+          <t xml:space="preserve"> The phrase "bells and whistles" refers to additional features, enhancements, or special attributes that make a product more appealing and sophisticated. In the context of a stereo system, having "bells and whistles" implies that Bob is looking for a high-quality system with various advanced features beyond just basic functionality. This aligns with his desire for something studio quality, suggesting he wants a rich audio experience with all the extra enhancements rather than just a simple setup. The other options do not capture this idea as effectively as "bells and whistles" does. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The mother knew her children to be messy, so she always kept extra kleenex in her what?(a) blow nose (b) box (c) wipe nose (d) purse (e) pocket</t>
+          <t>Where can you put your plants to make sure they get plenty of sunlight?(a) roof (b) ground (c) park (d) surface of earth (e) windowsill</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The correct answer is "purse" because a purse is a common item that a mother would carry with her to ensure she has access to tissues when needed, especially for her children who are prone to messiness. While "box" (option b) could also be a plausible answer, it suggests a stationary storage location rather than something easily accessible on the go. The other options (a, c, e) do not represent practical storage for tissues. Thus, the purse represents a convenient and likely place for a mother to keep extra kleenex for her children.. The correct answer is D</t>
+          <t xml:space="preserve"> The windowsill is typically a location in a home that allows for direct exposure to sunlight, especially if the window faces south or west. This makes it an ideal spot for placing plants that require plenty of sunlight for photosynthesis. While the roof may also receive sunlight, it is not a practical or safe place for most indoor plants. The ground and park options may not guarantee adequate light if there are trees or buildings blocking the sun. The surface of the earth is too vague and does not specify a location that would ensure sunlight access. Therefore, the windowsill is the best option for maximizing sunlight for plants indoors. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>If you're doing some typing, what is one thing you could be creating?(a) letter (b) a birthday card (c) pain (d) printed word (e) carpal tunnel syndrome</t>
+          <t>Where might someone store guns in a loft?(a) frame house (b) hunting lodge (c) kitchen (d) ranch (e) city apartment</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When you are typing, you can be creating various forms of written content. Among the options, a "letter" specifically refers to a type of written communication that can be typed out on a computer or typewriter. While options (b) and (d) could also be created through typing, they are more specific or less direct in relation to the act of typing itself. Option (c) and (e) refer to negative outcomes or conditions that may arise from typing but are not things that you actively create while typing. Therefore, option (a) is the most straightforward and relevant answer to the question.. The correct answer is A</t>
+          <t xml:space="preserve"> A hunting lodge is specifically designed for outdoor activities such as hunting and may have facilities for storing hunting equipment, including guns. Unlike the other options, a hunting lodge is often located in a rural area and is associated with hunting culture, making it a more appropriate and secure place for gun storage. In contrast, a frame house, kitchen, ranch, and city apartment may not provide the same level of security or suitability for storing firearms, especially in a loft setting. Therefore, the most logical choice is (b) hunting lodge. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>James wanted to know the truth because questions were weighing on him.  Learning would give him what?(a) lies (b) free mind (c) work to advantage (d) further knowledge (e) matter to</t>
+          <t>The Coast Guard is a police force that often does what?(a) board vessels (b) direct traffic (c) ocean (d) force law (e) arrest</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In the context of the question, James is seeking the truth to alleviate the burden of questions that are troubling him. The act of learning and uncovering the truth can lead to a sense of clarity and understanding, which can ultimately result in a "free mind." This means that by resolving his uncertainties and gaining knowledge, he would be able to think more clearly and be at peace with his thoughts. The other options do not directly address the emotional and mental relief he is seeking; therefore, "free mind" is the most fitting answer.. The correct answer is B</t>
+          <t xml:space="preserve"> The Coast Guard is tasked with enforcing maritime laws and ensuring safety at sea. One of their primary functions is to board vessels to conduct inspections, enforce regulations, and ensure compliance with safety and security measures. While they may also arrest individuals for violations (option e), the specific and frequent action of boarding vessels is a defining characteristic of their operations. Therefore, option (a) is the most accurate answer. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>The spy left the record at the drop, his handlers could be seen doing what?(a) hold onto (b) carrying (c) pick up (d) catch (e) picking up</t>
+          <t>A ferret would probably growl if it is in what kind of state?(a) outdoors (b) pair of trousers (c) confusion (d) bad mood (e) classroom</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "could be seen doing" indicates an ongoing or continuous action. Among the options provided, "picking up" (option e) is the only choice that conveys this sense of an action in progress, as it suggests that the handlers are in the process of retrieving the record. The other options either do not fit grammatically with "could be seen doing" (like "hold onto" or "catch") or do not imply ongoing action (like "carrying" or "pick up"). Therefore, option e is the correct answer as it accurately represents the scenario described.. The correct answer is E</t>
+          <t xml:space="preserve"> Ferrets are social and playful animals, but they can also exhibit signs of aggression or discomfort when they are not in a good mood. A growl is typically a vocalization associated with annoyance, irritation, or a warning, which aligns with being in a "bad mood." The other options do not directly relate to a ferret's emotional state that would lead to growling. For instance, being outdoors or in a classroom does not inherently cause a ferret to growl, and "confusion" is less likely to result in this vocalization compared to a negative emotional state. Therefore, the correct answer is "d" as it best represents the condition under which a ferret would likely growl. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The rich kids suffered from boredom, one suggested heading up to his parents lodge and that they what?(a) hang out at bar (b) play games (c) skateboard (d) have dinner (e) go skiing</t>
+          <t>There are lights for safety at what performance?(a) golf course (b) building (c) concert (d) carnival (e) plane</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context of the question implies that the suggestion should be an activity that is likely associated with a lodge, particularly one that might be located in a mountainous or wintery area. Skiing is a common activity that people engage in when visiting lodges in such locations. The other options, while possible activities, do not resonate as strongly with the setting of a lodge, which typically promotes outdoor recreational activities like skiing. Therefore, going skiing is the most fitting and appropriate suggestion in this context.. The correct answer is E</t>
+          <t xml:space="preserve"> Concerts often take place in large, crowded venues where visibility can be poor, especially in the dark or during nighttime events. Safety lights are essential to guide attendees, illuminate exits, and ensure that all individuals can navigate the area safely. While safety lights may also be present in buildings and other options, the context of "performance" specifically relates to concerts, where the need for safety lighting is most prominent due to the nature of live performances and large audiences. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>What happens when you eat hamburger too fast without swallowing?(a) get full (b) drink (c) choking (d) hungry (e) getting fat</t>
+          <t>Where would there be many people with umbrellas if there is rain?(a) forest (b) under the water (c) disneyland (d) street (e) weather</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eating a hamburger too quickly without properly chewing and swallowing can lead to choking. This occurs because large pieces of food can obstruct the airway, making it difficult to breathe. Choking is a serious and potentially life-threatening condition that requires immediate attention, distinguishing it from the other options which do not present an immediate danger associated with the act of eating too fast.. The correct answer is C</t>
+          <t xml:space="preserve"> Disneyland is a popular amusement park that attracts large crowds, especially families and tourists. If it rains, many visitors would likely use umbrellas to stay dry while still enjoying their time at the park. In contrast, the other options do not typically have large groups of people with umbrellas during rain; for example, people would not be under water or in a forest in large numbers, and "weather" is not a physical location. Therefore, Disneyland is the most reasonable choice where you would find many people with umbrellas during rain. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>If you are playing poker, what are you doing?(a) recreation (b) losing money (c) game playing (d) distributing cards (e) fun</t>
+          <t>If you legs are tired and you need to have a rest you should do what?(a) sleep (b) sit down (c) go to bed (d) run (e) closing eyes</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Playing poker is an activity that falls under the category of game playing. While options (a), (e), and even (b) might be true in certain contexts, they do not specifically define the primary action taking place when one is engaged in poker. Option (d) describes a specific task within the game but is not representative of the overall activity. Therefore, the most accurate description of what one is doing when playing poker is "game playing.". The correct answer is C</t>
+          <t xml:space="preserve"> When your legs are tired, the most immediate and practical way to alleviate that fatigue is to sit down. Sitting down provides support to your legs and allows your muscles to relax, which helps reduce fatigue. While options like (a) sleep and (c) go to bed may also provide rest, they are not necessary for immediate relief and require more time and effort. (d) run would worsen the fatigue, and (e) closing your eyes does not offer physical rest to the legs. Therefore, sitting down is the most effective solution for tired legs. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Losing weight may mean fat is going through what?(a) weight loss (b) death (c) shrinking (d) decomposition (e) hunger</t>
+          <t>He went to relax and be in nature more than anything, he didn't go fishing just to what?(a) catching fish (b) wade in (c) catch fish (d) fall into water (e) sleep</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When we talk about losing weight, particularly in the context of fat loss, we are referring to the metabolic process where fat cells break down stored fat to be used as energy. This process involves the decomposition of fat molecules, where they are converted into usable energy through various biochemical pathways. Therefore, the term "decomposition" accurately describes what happens to fat when it is lost from the body, as it undergoes a transformation rather than simply shrinking or being lost without any chemical change.. The correct answer is D</t>
+          <t xml:space="preserve"> The phrase "he didn't go fishing just to" indicates that the focus is on the purpose of his fishing activity. The correct answer "catch fish" (c) aligns with the common intention behind going fishing, which is typically to catch fish. The other options either represent activities that are not the primary goal of fishing (like wading in or falling into water) or are phrased incorrectly (like "catching fish," which is a gerund and not a direct purpose). Therefore, "catch fish" succinctly captures the primary action associated with fishing, making it the most appropriate choice. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>What is our sun considered to be the center of?(a) universe (b) solar system (c) outer space (d) star (e) beans</t>
+          <t>Even drinking was difficult after the surgery, he was having trouble doing what?(a) coloring (b) glass (c) swallowing (d) use glass (e) mouth</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The sun is the central star of our solar system, which consists of the sun itself and all the celestial bodies that are gravitationally bound to it, including the eight planets, their moons, asteroids, comets, and other objects. While the universe encompasses everything, including multiple solar systems, the specific term "solar system" refers to the sun and its immediate surroundings. Thus, the correct answer is (b) solar system.. The correct answer is B</t>
+          <t xml:space="preserve"> The context of the question indicates that the individual experienced difficulties related to drinking after surgery. The act of drinking requires the ability to swallow, so if drinking was difficult, it logically follows that he would be having trouble swallowing. Options (a), (b), (d), and (e) do not relate directly to the act of drinking, making (c) the most appropriate choice. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>How can music help someone who is down?(a) beautifull (b) express feelings (c) they cannot heal and feel beautiful (d) provide comfort (e) sound good</t>
+          <t>What can happen to your car if you take a corner at too high a velocity?(a) roll over (b) move quickly (c) slow down (d) go fast (e) be late</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Music has a unique ability to provide comfort to individuals experiencing emotional distress. It can create a soothing atmosphere, evoke positive memories, and offer a sense of companionship. While expressing feelings (option b) is also a valid function of music, the primary role in this context is the comfort it provides, helping individuals to cope with their emotions and feel less alone in their struggles. Options (a), (c), and (e) do not address the specific benefit of music in relation to emotional support for someone feeling down.. The correct answer is D</t>
+          <t xml:space="preserve"> When a car takes a corner at a high speed, the centripetal force required to keep the car moving in a circular path increases. If the speed exceeds the car's ability to maintain grip on the road, the car can lose traction. This loss of traction can lead to the car tipping over or rolling onto its side, particularly if the center of gravity is high or if the turn is sharp. Therefore, "roll over" is the most appropriate consequence of taking a corner at too high a velocity. Other options, such as "slow down," "move quickly," "go fast," or "be late," do not accurately describe the dangerous outcome of excessive speed in a cornering situation. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>You might hear someone say árbol de manzana instead of apple tree where?(a) spain (b) bible (c) ohio (d) montreal (e) washington state</t>
+          <t>The lady responsible for care that shift was not good at her job, she was always what to the needs of the seniors?(a) antipathy (b) disinterest (c) negligence (d) indifferent (e) careless</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "árbol de manzana" is Spanish for "apple tree." Spain is a Spanish-speaking country, where Spanish is the primary language. The other options—Bible, Ohio, Montreal, and Washington State—are either not predominantly Spanish-speaking or are located in regions where English is the primary language. While there may be Spanish speakers in places like Ohio, Montreal, and Washington State, they are not the primary languages of those regions. Therefore, the most appropriate answer is Spain, where the term would naturally be used in everyday conversation.. The correct answer is A</t>
+          <t xml:space="preserve"> The term "indifferent" implies a lack of interest or concern for the needs of the seniors. It suggests that she did not actively engage with or prioritize their needs, reflecting a passive disregard for her responsibilities. While "disinterest," "negligence," and "careless" could also apply, "indifferent" specifically captures the idea of a neutral or apathetic attitude towards the seniors' care, which aligns with the context of the question. "Antipathy" suggests an active dislike, which is not implied here. Therefore, "indifferent" is the most appropriate choice. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>The man enjoyed sitting quietly by himself, he felt it helped him come up with his best what about things?(a) anxiety (b) happiness (c) insights (d) inspiration (e) wisdom</t>
+          <t>If you want to bake something, but do not have butter, where would you get it?(a) pastry (b) homes (c) neighbor (d) store (e) refrigerator</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "come up with his best" suggests that the man is developing or generating ideas or thoughts. Among the options provided, "insights" (c) refers to deep understanding or perceptive realizations about a subject, which is often enhanced in quiet, contemplative settings. While "inspiration" (d) could also be a valid choice, it generally refers to a spark of creativity rather than the deep understanding implied by insights. The other options, such as anxiety (a), happiness (b), and wisdom (e), do not fit the context as they do not directly relate to the process of coming up with thoughts or ideas in the same way that insights do. Thus, the correct answer is insights, as it aligns with the idea of reflection and cognitive clarity achieved in solitude.. The correct answer is C</t>
+          <t xml:space="preserve"> When you need butter for baking and do not have any available, the most reliable and straightforward option is to go to a store. Stores typically stock butter and other baking essentials, making them the best choice for obtaining the ingredient. While you might also consider asking a neighbor or checking your refrigerator for leftovers, the store is the most definite source for purchasing butter specifically for baking. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Where do kids find fish in their backyards?(a) boat (b) ocean (c) pond (d) end of line (e) ocean</t>
+          <t>How do people trade for services or goods?(a) shoot each other  out of a cannon (b) feel cold (c) become old (d) talk to each other (e) use money</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fish are typically found in bodies of water, and in the context of a backyard, a pond is the most likely place where children would encounter fish. Boats and oceans are not commonly associated with backyards, and "end of line" does not refer to a location where fish can be found. Therefore, option (c) pond is the most logical answer.. The correct answer is C</t>
+          <t xml:space="preserve"> Trading for services or goods typically involves a system of exchange that can take various forms. Among the options listed, "use money" (option e) represents the most common and recognized method of trade in modern economies. Money serves as a medium of exchange, a unit of account, and a store of value, facilitating transactions between parties. While "talk to each other" (option d) can also play a role in negotiating and discussing trade terms, it does not represent the actual act of trading goods or services, which is effectively conducted through the use of money. The other options are irrelevant to the concept of trading. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Best friends are often good at?(a) go shopping (b) borrow money (c) keep secrets (d) meet for lunch (e) hang out</t>
+          <t>He had been stuck in meetings all day, he had to get up and move as he could no longer what?(a) be still (b) stay put (c) stay still (d) sit still (e) standing still</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best friends typically share a deep level of trust and understanding, which allows them to confide in each other and keep personal information private. This quality of being able to keep secrets is fundamental to the bond of friendship, as it fosters intimacy and reliability. While best friends may also enjoy activities like shopping, meeting for lunch, or hanging out, the ability to keep secrets showcases the strength and depth of their relationship, making option (c) the most appropriate answer.. The correct answer is C</t>
+          <t xml:space="preserve"> The context of the sentence suggests that the person has been inactive for an extended period due to being in meetings. The phrase "he had to get up and move" indicates a need for physical action, which aligns with the idea of no longer being able to "sit still." This choice specifically emphasizes the inability to remain seated without movement, which fits the scenario of feeling restless after prolonged inactivity. The other options, while related, do not capture the specific action of sitting and imply a different context or level of activity. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>The salesperson was like a shark pacing around for his prey, and the what was his sea?(a) bookstore (b) box chocolates (c) customer (d) shop (e) toy store</t>
+          <t>They are chatting with friends about old memories, it won't be long before somebody what?(a) exchanging information (b) will laugh (c) agreement (d) staring (e) social approval</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The metaphor of a shark suggests that the salesperson is aggressive and on the lookout for opportunities, much like a predator in the water. In this context, the "sea" represents the environment in which the salesperson operates. Among the options, "shop" (d) is the most fitting as it refers to the place where the salesperson interacts with customers and conducts sales. The shop serves as the 'sea' where the salesperson seeks out 'prey'—customers—making it the correct answer. The other options, while related to different contexts, do not encapsulate the environment of the salesperson as effectively as "shop" does.. The correct answer is D</t>
+          <t xml:space="preserve"> When friends reminisce about old memories, the conversation often evokes feelings of nostalgia and amusement. Laughter is a common response in such contexts as people recall funny or heartwarming moments from the past. The act of chatting about shared experiences typically leads to laughter as a natural reaction, making option (b) "will laugh" the most fitting choice. The other options do not capture the typical emotional response associated with reminiscing in a social setting. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A toddling child who is learning about the world is gaining what?(a) time (b) desire to travel (c) greater mobility (d) increased security (e) pleasure</t>
+          <t>Where do you get a needle for a routine checkup?(a) sewing basket (b) eat cake (c) doctor's office (d) hospital (e) haystack</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A toddling child is typically in the early stages of walking and exploring their environment. As they learn to walk and move around, they are gaining greater mobility, which allows them to explore their surroundings more freely. This increased ability to move independently is a significant developmental milestone for young children, enabling them to interact with their world in new and meaningful ways. While other options may also be relevant to a child's experience, the focus of the question is on the physical ability to move, making "greater mobility" the most appropriate answer.. The correct answer is C</t>
+          <t xml:space="preserve"> A needle for a routine checkup typically refers to a medical needle used for vaccinations, blood tests, or other health assessments. The most appropriate place to obtain such a needle would be a medical facility where healthcare professionals administer these procedures. Options (c) "doctor's office" and (d) "hospital" are both valid locations, but the doctor's office is specifically the usual place for routine checkups, making it the best answer. Options (a), (b), and (e) are not relevant to medical checkups. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Three quarters of what are covered by the ocean?(a) waterfalls (b) underwater (c) beach (d) surface of earth (e) river</t>
+          <t>To what part of your home is your morning paper delivered?(a) classroom (b) synagogue (c) bathroom (d) front porch (e) grocery store</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Earth is composed of a variety of landforms and bodies of water, and it is well-established that approximately 71% of the Earth's surface is covered by oceans. Therefore, when the question refers to "three quarters," it is approximating this figure to indicate that the vast majority of the Earth's surface is indeed covered by ocean water. The other options do not represent the overall coverage of the Earth's surface, making (d) the correct answer.. The correct answer is D</t>
+          <t xml:space="preserve"> The morning paper is typically delivered to a location that is easily accessible and visible from outside the home, which is usually the front porch. This allows residents to easily collect their newspaper as they start their day. Other options like classroom, synagogue, bathroom, and grocery store are not common or practical delivery locations for a home newspaper. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Where is a bird likely to feel free?(a) forest (b) ocean (c) roof (d) nest (e) sky</t>
+          <t>The fat child could not be trusted to have food around, there was only one thing it would do and that was what?(a) eat food (b) eating (c) vomit (d) prepare (e) say grace</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Birds are often associated with the ability to fly, and the sky represents the vastness of open space where they can soar, explore, and move freely without obstacles. While forests, roofs, and nests provide shelter or safety, they can also be constraining environments. The ocean is not an environment where birds typically feel free, as it is not their natural habitat. Therefore, the sky is the most fitting option, as it embodies the freedom and expansiveness that birds seek.. The correct answer is E</t>
+          <t xml:space="preserve"> The phrasing of the question suggests that the child has a strong inclination towards consuming food, implying a lack of self-control when it comes to food. The option (a) "eat food" directly conveys this action and aligns with the context of the child being untrustworthy around food, as it indicates that the child would inevitably consume it rather than engage in any other behavior listed in the other options. Options (b) "eating" is a gerund and does not fit grammatically as a response to "one thing it would do," while (c) "vomit," (d) "prepare," and (e) "say grace" do not reflect the child's uncontrollable urge related to food. Therefore, (a) is the most appropriate choice. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Arkansas university plays in the southeastern confernce, the sooners of where play in the big twelve?(a) united states (b) seattle (c) arkansas (d) oklahoma (e) colorado</t>
+          <t>If union workers go off strike it means management did what?(a) company closed (b) more money (c) complaints had been addressed (d) demands were met (e) get back to work</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Sooners is the nickname for the sports teams of the University of Oklahoma, which is a member of the Big 12 Conference. Therefore, the correct answer is Oklahoma, as it directly relates to the Sooners and their conference affiliation. The other options do not pertain to the nickname "Sooners" or the Big 12 Conference.. The correct answer is D</t>
+          <t xml:space="preserve"> When union workers go off strike, it typically indicates that negotiations between the workers (represented by the union) and management have reached a satisfactory conclusion. This means that management has agreed to meet the demands or conditions set forth by the union workers, which could involve better pay, improved working conditions, or other benefits. Therefore, option (d), "demands were met," is the most accurate reason for why workers would cease striking, as it reflects the successful resolution of the issues that led to the strike in the first place. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>If you about to go on stage and are dressed in costume you are likely about to be what?(a) in play (b) going to bed (c) have talent (d) teach (e) climb stairs</t>
+          <t>What is likely to happen to a driver with an open sunroof during  rainstorm?(a) common cold (b) spinal injuries (c) splats (d) getting wet (e) exhilaration</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When someone is dressed in a costume and prepared to go on stage, it typically indicates that they are participating in a theatrical performance or play. Costumes are essential in the context of theater as they help portray characters and enhance the storytelling aspect of a performance. The other options do not relate to being on stage or involve costumes: "going to bed" is unrelated to performance, "have talent" is vague and does not specify an action, "teach" generally occurs in a classroom setting, and "climb stairs" is a physical action that has no connection to performing on stage. Therefore, the best choice is (a) in play.. The correct answer is A</t>
+          <t xml:space="preserve"> During a rainstorm, if a driver has an open sunroof, rainwater will enter the vehicle's interior. This will result in the driver and any passengers getting wet. The other options do not logically apply to the situation: (a) a common cold is not directly caused by being wet; (b) spinal injuries are unrelated to the effect of rain on a driver; (c) "splats" does not clearly convey a relevant outcome; and (e) exhilaration is unlikely to be a prioritized feeling when one is getting wet from rain. Therefore, the most direct and logical consequence of having an open sunroof in a rainstorm is that the driver will get wet. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Where would you read magazines while waiting to board winged transportation?(a) airport (b) bis atation (c) library (d) bed (e) dentist</t>
+          <t>The flour was stored away from the kids so they couldn't play with it, where was it?(a) pantry (b) grocery store (c) cupboard (d) kitchen (e) table</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The question specifically refers to a location where one would wait to board "winged transportation," which typically means an airplane. The most appropriate location for this activity is an airport, as it is designed for air travel and includes amenities such as shops and seating areas where passengers can wait and read. While one might read magazines at other locations, such as a bus station or library, they are not specifically associated with waiting for air travel. Therefore, the airport is the clear and correct choice.. The correct answer is A</t>
+          <t xml:space="preserve"> The pantry is a common storage space in homes specifically designated for food items, including baking supplies like flour. It is typically located away from living areas and is often closed off, making it less accessible to children. While a cupboard (option c) could also be a possible storage location, "pantry" is more specifically associated with food storage and aligns with the context of keeping flour away from kids. The grocery store (option b) is not a home storage location, the kitchen (option d) is where the flour might be used rather than stored, and the table (option e) is not a suitable place for storage. Therefore, the pantry is the most logical answer. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Where is gasoline made?(a) burn in oxygen (b) refineries (c) boat (d) gas station (e) rocks</t>
+          <t>Jo is the leader of a military force,  he issues commands to his people in order to win what?(a) company (b) battle (c) army (d) fight (e) pack</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gasoline is produced in refineries, which are facilities that process crude oil into various petroleum products, including gasoline. Refineries use complex chemical processes to separate and convert the components of crude oil into usable fuels and other products. The other options do not represent locations or processes where gasoline is made: (a) refers to combustion, (c) refers to a mode of transport, (d) refers to a retail outlet for fuel, and (e) does not relate to gasoline production at all. Therefore, the correct answer is (b) refineries.. The correct answer is B</t>
+          <t xml:space="preserve">  
+In a military context, a leader like Jo typically issues commands to achieve victory in a specific engagement or conflict, which is referred to as a "battle." While terms like "army" and "fight" are related to military actions, they do not precisely capture the concept of winning a defined confrontation. "Company" refers to a unit within an army, and "pack" is not relevant in this context. Therefore, the correct answer is (b) battle, as it specifically denotes the scenario in which military strategy and commands are executed to secure a win. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Simon put crayon pictures on the wall of what?(a) classroom (b) labyrinth (c) zoo (d) art show (e) prison</t>
+          <t>The playroom had many classic toys, the child spilled out each and every plastic monkey out of the what?(a) captivity (b) puzzle (c) barrel (d) thailand (e) rain forest</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A classroom is a place where children often create and display their artwork, including crayon pictures. It is common for teachers to encourage students to express their creativity through art and showcase these works on the walls for educational and decorative purposes. The other options do not fit as well; for example, a labyrinth is not typically associated with children's art, a zoo would focus on animals, an art show would feature more formal art rather than crayon pictures, and a prison would not be a suitable environment for displaying children's artwork. Therefore, the most logical answer is (a) classroom.. The correct answer is A</t>
+          <t xml:space="preserve"> The phrase "spilled out" suggests that the plastic monkeys were contained in something that could hold and then release them. Among the options provided, "barrel" is the only one that fits this context, as barrels are commonly associated with storing items and can be easily emptied. The other options, such as "captivity," do not logically apply to toys, while "puzzle," "thailand," and "rain forest" do not denote a container. Thus, the correct choice is "barrel." The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>What can be done to ice in order to give it a desired shape?(a) antarctica (b) sculptured (c) shaped (d) melted (e) carved</t>
+          <t>If an actor is said to be on the “silver screen" where would you see them perform?(a) play (b) movies (c) theater (d) screen (e) television</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carving is a specific technique used to create intricate designs or shapes from solid materials, including ice. When ice is carved, it can be shaped into various forms, such as sculptures or decorative pieces. While "melted" refers to changing ice from solid to liquid, it does not contribute to giving ice a specific shape; instead, it would alter its form entirely. "Sculptured" and "shaped" are related terms but do not directly indicate the precise action of removing material to create a desired shape as "carved" does. Therefore, "carved" is the most accurate choice for the action taken to give ice a specific, desired shape.. The correct answer is E</t>
+          <t xml:space="preserve"> The term "silver screen" is a classic phrase that refers specifically to the cinema or film industry. It originated from the shiny surface of early movie screens that reflected light, giving the screen a silver-like appearance. Therefore, when an actor is described as being on the "silver screen," it indicates that they are performing in movies, distinguishing it from other forms of performance such as plays, theater, or television. Hence, option (b) movies is the correct answer. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>What is a staple of the manufacturing industry?(a) factory (b) civilization (c) money (d) machinery (e) big city</t>
+          <t>Where are you if there is a dental office along with other similar provider?(a) urban area (b) strip mall (c) office (d) town (e) medical building</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A factory is a facility where goods are produced, making it a fundamental component of the manufacturing industry. It is the physical space where raw materials are transformed into finished products through various processes. While machinery (option d) is also essential to manufacturing, it is typically housed within factories, thus making "factory" the more encompassing and accurate choice. Other options like civilization, money, and big city do not directly pertain to the core activities and infrastructure of the manufacturing sector.. The correct answer is A</t>
+          <t xml:space="preserve"> A dental office is commonly found in a medical building, which is specifically designed to house healthcare providers like dentists, doctors, and specialists. While options like urban area and town could contain dental offices, they are too broad and do not specifically imply the presence of multiple providers. A strip mall might contain a dental office, but it typically houses various retail stores and services rather than being specialized for healthcare. An office is too vague and does not necessarily indicate a healthcare setting. Therefore, the most appropriate answer that accurately reflects the presence of a dental office alongside other similar providers is a medical building. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>John and Jane were a couple.  They were dating for a while and wanted to be together for even longer. For this reason, they did what?(a) make sex (b) plan to marry (c) dance (d) electrical circuit (e) row about</t>
+          <t>What happens when people are waiting for something?(a) read book (b) getting bored (c) worry (d) singing (e) s never comes</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context of the question indicates that John and Jane are in a committed relationship and are looking for ways to solidify their bond. Among the given options, "plan to marry" (option b) is the most logical step for a couple wanting to be together for a longer duration, as marriage typically signifies a deeper commitment and intention to spend their lives together. Other options, such as "make sex" (a) or "dance" (c), do not directly reflect a long-term commitment, while "electrical circuit" (d) and "row about" (e) are unrelated to the context of a romantic relationship. Therefore, planning to marry aligns best with their desire to be together for a longer time.. The correct answer is B</t>
+          <t xml:space="preserve"> When people are in a situation where they are waiting for something, such as an event to start, a delayed appointment, or the arrival of a person, it is common for them to experience boredom, especially if the wait is prolonged. While some individuals might engage in activities like reading a book (option a) or singing (option d) to pass the time, these activities are not universal responses to waiting. Worry (option c) can occur in certain contexts, but it is not the primary or most common reaction for everyone. The phrase "s never comes" (option e) is unclear and does not represent a typical experience of waiting. Therefore, the most accurate and general response to the question is that people often get bored while waiting. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>What's it called when you have seen something through an eyepiece?(a) sights (b) optical illusion (c) optical telescope (d) light microscope (e) binocular</t>
+          <t>James bought a hide bed sofa because it was space efficient. Where might he live?(a) house (b) apartment (c) village (d) beach condo (e) hotel</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The term "sights" generally refers to the act of seeing or observing through an optical device, which includes any eyepiece-equipped instrument. While options like "optical telescope," "light microscope," and "binocular" specify particular types of devices that utilize eyepieces, the term "sights" encompasses the broader action of seeing through any eyepiece, making it the most appropriate choice given the context of the question.. The correct answer is A</t>
+          <t xml:space="preserve">  
+James's decision to buy a hide bed sofa indicates that he values space efficiency, which is often a necessity in smaller living environments. Apartments typically have limited space compared to houses, villages, and beach condos, making space-saving furniture like a hide bed sofa a practical choice. While hotels may also employ space-efficient furniture, they are not permanent residences, whereas an apartment suggests a long-term living situation where maximizing space is essential. Therefore, the most logical place for James to live, given his choice of furniture, is an apartment. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Other than school or from text where can one gain knowledge?(a) book (b) class (c) thinking (d) head (e) meeting</t>
+          <t>Where is microphone boom likely to be used to record an album?(a) radio station (b) recording studio (c) concert (d) tv studio (e) new york</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gaining knowledge can occur through various means apart from formal education or written texts. While books and classes are traditional sources of information, the correct answer, "meeting," refers to the informal and social contexts where individuals exchange ideas, share experiences, and learn from one another. Meetings can facilitate discussions and insights that might not be found in textbooks or structured classes, making them a valuable source of knowledge.. The correct answer is E</t>
+          <t xml:space="preserve"> A microphone boom is typically used in a recording studio to capture high-quality audio with precision. Recording studios are designed specifically for music production, providing controlled acoustic environments where various microphones can be positioned optimally. While radio stations and TV studios might also utilize microphone booms, they are more focused on broadcasting rather than recording albums. Concerts usually involve live sound reinforcement rather than studio recording techniques. Therefore, the recording studio is the most appropriate setting for using a microphone boom to record an album. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>James wanted to get a kite.  He loved flying them.  Where might he look for one?(a) child's hand (b) toy store (c) sky (d) under a cabbage. (e) end of line</t>
+          <t>Where should a human go if they have a full feeling in their bladder?(a) school (b) outside (c) restroom (d) cornfield (e) star trek</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A toy store is a typical place where kites are sold, making it a logical option for James to look for one. While a child's hand (option a) could imply that a child is already flying a kite, it doesn't suggest where James might find a kite to purchase. The sky (option c) is where kites are flown but not where they can be found for sale. "Under a cabbage" (option d) is nonsensical in this context, and "end of line" (option e) does not relate to kites at all. Therefore, the toy store is the most reasonable and relevant option.. The correct answer is B</t>
+          <t xml:space="preserve"> When a person has a full feeling in their bladder, it typically indicates the need to urinate. The most appropriate and socially acceptable location for this activity is the restroom, which is specifically designed for personal hygiene and relieving oneself. While options such as "outside" (b) or "cornfield" (d) could be considered in urgent situations, they are not appropriate or hygienic choices compared to using a restroom. Therefore, the correct answer is (c) restroom, as it provides a suitable and private environment for addressing the need to relieve a full bladder. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sally went to her office, which was on the 8th and top floor.  Where does she probably work?(a) skyscraper (b) tall building (c) public building (d) school building (e) swimming pool</t>
+          <t>How are people not likely to find those always holding  a remote?(a) attached (b) lovable (c) companionable (d) close (e) likely</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Since Sally's office is located on the 8th and top floor, it suggests that she works in a building with multiple stories. The term "tall building" is a general category that encompasses buildings that are significantly taller than average, but it does not imply extreme height as "skyscraper" does. Given that there are many buildings classified as tall without being skyscrapers, the most appropriate answer is (b) tall building. The other options (a, c, d, e) either do not fit the context of an office setting or do not imply a multi-story structure.. The correct answer is B</t>
+          <t xml:space="preserve"> The term "companionable" refers to someone who is sociable and enjoys spending time with others. People who are always holding a remote, likely indicating they are engrossed in watching television or engaging in solitary activities, may not exhibit the traits associated with being companionable. They are less likely to be seen as engaging or interactive with others, which is a key aspect of companionship. Therefore, this makes option (c) the correct answer, as it reflects a lack of sociability rather than the positive connections implied by the other options. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>What could a dog get completely dirty?(a) table (b) pet store (c) outside (d) car (e) rug</t>
+          <t>The researcher cut his hand and went to the sink, where was the researcher?(a) home (b) chemistry lab (c) apartment (d) laboratory (e) laundry room</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A dog can get completely dirty by rolling around, playing, or shedding dirt and fur, especially on a rug, which is a common place for dogs to rest or play indoors. While options like "outside" (c) could also lead to a dog getting dirty, the question specifically asks for something that could be completely dirty, and a rug is more likely to show visible dirt and fur accumulation from a dog’s activities. The other options, such as "table" (a), "pet store" (b), and "car" (d), are less likely to become completely dirty due to a dog's presence in the same way a rug would, making "rug" the most fitting answer.. The correct answer is E</t>
+          <t xml:space="preserve"> The context of the question suggests that the researcher is in a setting where scientific work is being conducted, which is typically associated with a laboratory. While options such as "chemistry lab" (b) and "laundry room" (e) involve sinks, the term "laboratory" (d) is more broadly applicable to the environment where a researcher would be performing experiments and where a sink would likely be located for cleaning equipment or washing hands. The answer "laboratory" encompasses various types of research spaces, making it the most appropriate choice given that the researcher is likely in a professional setting rather than a home or apartment. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Where would a towel be kept in a gym?(a) locker room (b) in the showers (c) linen closet (d) swimming pool (e) cupboard</t>
+          <t>Where would you find a horse in the desert?(a) canada (b) american southwest (c) state fair (d) central park (e) texas</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Towels in a gym are typically kept in the locker room because this area is designated for changing and storing personal belongings. It is a convenient place for gym-goers to access towels before or after their workouts. While towels may also be found in showers or near a swimming pool, the locker room is the most common and practical storage location for towels, as it provides easy access for users before and after their gym activities.. The correct answer is A</t>
+          <t xml:space="preserve"> The American Southwest is known for its arid desert landscapes, which are often home to wild horses and ranching activities. This region includes areas such as Arizona and New Mexico, where horses can adapt to the desert environment. While Texas does have desert areas, it is larger and encompasses various ecosystems, making option (b) more representative of a specific desert environment where horses are commonly found. Other options like Canada, state fairs, and Central Park do not represent desert environments where horses would typically be found. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>If I can feel material, then where am I generally speaking?(a) fabric store (b) anything (c) attic (d) physical world (e) science lab</t>
+          <t>There's tickets, rides, and games but the real money made where is in the food sales?(a) mall (b) kitchen (c) fairgrounds (d) neighbor's house (e) military base</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The ability to feel material implies the existence of a tangible, physical environment where sensory perception occurs. The term "physical world" encompasses all environments where matter exists and can be perceived through touch. While options such as "fabric store" or "science lab" might involve specific contexts where one might feel materials, they are limited to particular locations. In contrast, "physical world" is the most accurate and encompassing answer, as it includes all of reality where material sensations can be experienced.. The correct answer is D</t>
+          <t xml:space="preserve"> At fairgrounds, especially during events like fairs and carnivals, a significant portion of revenue is generated from food sales. These events typically feature a variety of food vendors offering popular items such as cotton candy, corn dogs, and funnel cakes, which attract large crowds. While malls and kitchens may have food sales, they do not match the scale and specific context of food sales at fairgrounds, where the combination of entertainment, food, and social gathering creates a unique environment for maximizing food sales. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bob is in a dressing room.  He's putting on waterproof trunks and goggles.  What sort of facility is he most likely visiting?(a) swimming pool (b) actors and actresses (c) fancy restaurant. (d) gym (e) theatre</t>
+          <t>Sarah loved riding horse but she was having pain in his legs because of it. She was experiencing what sesation?(a) bouncing (b) shaky (c) fear (d) movement (e) stiffness</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bob is putting on waterproof trunks and goggles, which are specifically designed for activities that involve water. The act of wearing these items strongly indicates that he is preparing for an activity that takes place in or around water. Among the provided options, a swimming pool is the most logical facility where one would use waterproof trunks and goggles. The other options (actors and actresses, fancy restaurant, gym, theatre) do not align with the context of using water-related gear, making option (a) the correct answer.. The correct answer is A</t>
+          <t xml:space="preserve"> The context of the question indicates that Sarah is experiencing pain in her legs as a result of riding a horse. This pain is likely due to muscle strain or overuse, which commonly leads to a feeling of stiffness in the affected areas. While options like "bouncing" and "shaky" could describe physical sensations related to riding, they do not specifically relate to the pain Sarah is experiencing. "Fear" does not apply, as the question does not mention any emotional response. "Movement" is too vague and does not capture the specific discomfort associated with muscle pain. Therefore, "stiffness" is the most accurate choice to describe what Sarah is feeling. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>James had almost religious reverence for Bill, but Bill didn't return the feelings.  How did Bill treat James.(a) profanity (b) content (c) irreverence (d) blasphemy (e) contempt</t>
+          <t>Where were there recently a lot of closing sales?(a) grocery store (b) furniture store (c) department store (d) k mart (e) clothing store</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "almost religious reverence" implies that James held Bill in extremely high regard, almost idolizing him. However, since "Bill didn't return the feelings," it indicates that Bill did not share this admiration. The most fitting option to describe how Bill treated James, given his lack of reciprocation and likely disregard for James's feelings, is "contempt." Contempt suggests a feeling that one is beneath consideration or deserving scorn, which aligns with the idea that Bill did not value or appreciate James's reverence towards him. The other options do not accurately capture the nature of Bill's indifference or dismissal of James's feelings.. The correct answer is E</t>
+          <t xml:space="preserve"> Kmart has been experiencing significant financial difficulties and has been closing many of its stores across the country. This trend has led to numerous closing sales in Kmart locations as they liquidate their inventory. In contrast, while other types of stores may have sales, they are not necessarily indicative of a company-wide closure trend like Kmart's. Therefore, the correct answer is (d) Kmart. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Where would a local terrorist end up if they are caught?(a) airport (b) hijack planes (c) prison (d) hotel (e) afghanistan</t>
+          <t>John walks down an aisle that is full of over the counter medication. and another with assorted items, toys, candy, and whatnot.  If there isn't any food other than candy, what type of store is he probably in?(a) department store (b) gas station (c) grocery store (d) drugstore (e) supermarket</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If a local terrorist is apprehended by law enforcement, the legal consequence for their actions, depending on the severity of their crimes, would typically lead to incarceration. Prisons are where individuals convicted of crimes, including terrorism, serve their sentences. The other options either describe potential actions (hijacking planes) or locations unrelated to the judicial process (airport, hotel, Afghanistan). Therefore, "prison" is the most logical outcome for someone caught engaging in terrorist activities.. The correct answer is C</t>
+          <t xml:space="preserve"> John is likely in a drugstore because drugstores typically carry a wide range of over-the-counter medications, personal care products, and often have aisles with assorted items such as toys and candy. While grocery stores and supermarkets focus primarily on food items, drugstores provide a mix of health-related products and miscellaneous goods. The presence of over-the-counter medication strongly indicates that it is a drugstore, especially since there is no significant food selection beyond candy. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>What is a marmot likely to be good at finding?(a) food (b) hiding place (c) yellow pages (d) jungle (e) high mountains</t>
+          <t>When people have guests over, what do they often do for their guests?(a) talk to each other (b) learn from each other (c) demand justice (d) cook food (e) share food</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marmots are ground-dwelling rodents that are often found in mountainous and hilly regions. They have adapted well to their environments and are known for their burrowing behavior, which allows them to create hiding places for themselves. While they do search for food, the question specifically asks what they are likely to be good at finding, and given their natural behavior, finding a suitable hiding place is crucial for their survival against predators. Therefore, option (b) is the most appropriate answer.. The correct answer is B</t>
+          <t xml:space="preserve"> When hosting guests, a common practice is to prepare and serve meals to make them feel welcome and provide hospitality. Cooking food is often seen as a gesture of care and effort to enhance the social experience, creating a comfortable environment for socialization. While sharing food (option e) is also relevant, cooking it specifically addresses the act of preparation that traditionally accompanies hosting. Therefore, cooking food is a fundamental aspect of entertaining guests, making option d the most appropriate answer. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>John wanted to hunt blowfish, but he didn't want to leave America.  Where might he search?(a) tropical sea (b) south pacific ocean (c) hawaiian waters (d) sushi store (e) fish market</t>
+          <t>What always happens after drinking alcohol?(a) inebriation (b) vomit (c) frequent urination (d) hilarity (e) start singing</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Blowfish, also known as pufferfish, can be found in warm waters, and one of the most prominent locations in America where they are abundant is in Hawaiian waters. While tropical seas and the South Pacific Ocean may also contain blowfish, those options imply locations outside of American territorial waters. A sushi store and fish market do not offer hunting opportunities; rather, they are places to purchase fish. Therefore, the most appropriate answer is Hawaiian waters, where John can hunt for blowfish without leaving America.. The correct answer is C</t>
+          <t xml:space="preserve">  
+In the context of this question, "inebriation" refers to the state of being intoxicated or affected by alcohol consumption. While the other options may occur after drinking alcohol for some individuals, they do not happen universally or consistently. For instance, not everyone vomits after drinking, and reactions like frequent urination, hilarity, or singing vary greatly among individuals and depend on factors such as the amount consumed and personal tolerance levels. However, inebriation is a direct and consistent physiological effect of alcohol intake, making it the most accurate choice as something that "always" happens after drinking. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The cashier enjoyed her job.  Her workplace was informal, and she loved antiques. Where might she be working.(a) fast food restaurant (b) bookstore (c) supermarket (d) shop (e) grocery store</t>
+          <t>John didn't like going to the square, but he did anyway.   Where might the square be?(a) geometry (b) circle (c) town center (d) fifties (e) carpenter's tool box</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The description of the cashier's enjoyment of her job and the informal nature of her workplace suggests a setting that is more personal and relaxed than a typical corporate environment. While options like a fast food restaurant, supermarket, and grocery store tend to have more structured, high-paced atmospheres, a "shop" can refer to a variety of retail environments, including those that specialize in antiques. Given her love for antiques, a shop that sells vintage or antique items would align well with her interests, making option (d) the most fitting choice.. The correct answer is D</t>
+          <t xml:space="preserve"> The term "square" can refer to a public space or plaza typically found in a town or city, often used for gatherings, markets, or events. In this context, it suggests a location that is part of a community or urban setting. Options (a), (b), (d), and (e) do not fit this context as they refer to unrelated concepts (geometry, shape, a decade, and tools). Therefore, the most logical answer is (c) town center, indicating a public square where people might congregate, even if John dislikes going there. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Where is a microphone boom likely to be covering a stock market event?(a) new york (b) concert (c) tv studio (d) gig (e) recording studio</t>
+          <t>What would you hold by the handle while many people are watching you?(a) grasping things (b) the door (c) baseball bat (d) coffeepot (e) watering can</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A microphone boom is typically used in settings where audio capture is essential, particularly in environments with significant public or media attention. New York, specifically Wall Street, is the heart of the financial markets in the United States, where stock market events, including trading floors and financial news reporting, take place. Options like concert, gig, and recording studio are more focused on music and entertainment, while a TV studio could be relevant but is less specific than New York in the context of stock market events. Therefore, the correct answer is (a) New York.. The correct answer is A</t>
+          <t xml:space="preserve"> The question implies a scenario where you are likely in a public or social setting, and holding something that draws attention. Among the options provided, a baseball bat is an item that is typically held by the handle and is associated with a sport that attracts spectators. In contrast, the other options either do not fit the context of being watched (like grasping things or the door) or are less likely to be held in a manner that draws attention (like a coffeepot or watering can). Therefore, holding a baseball bat by the handle would be the most logical choice in a situation where many people are observing you. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Curiosity was high since it was a good tour guide, she explained things first then took the group to what?(a) hear testimony (b) examine thing (c) surf net (d) browsing (e) see exhibits</t>
+          <t>Where would you give something other than money to a clerk?(a) ticket booth (b) at hotel (c) shop (d) bookstore (e) post office</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context of the question suggests that the tour guide is leading a group through an informative experience, likely in a museum or similar setting. The phrase "explained things first" indicates that the guide provides information or context before moving on to a visual or hands-on experience. Among the options, "see exhibits" (option e) aligns best with this scenario, as it implies that after explaining, the group would go to view physical displays or items of interest, which is a common activity during guided tours. The other options do not fit as naturally into the context of a tour explanation followed by a group activity.. The correct answer is E</t>
+          <t xml:space="preserve"> At a post office, you can give items such as packages, letters, or forms to the clerk in exchange for services like mailing or shipping. This is distinct from typical retail environments like a shop, bookstore, or hotel, where transactions primarily involve monetary exchanges for goods or services. In a post office, the focus is more on sending or receiving items rather than strictly buying or selling with money. The correct answer is e</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Billy was a kooky person, but he wasn't gay.  What was he?(a) mainstream (b) conventional (c) straight (d) standard (e) ordinary</t>
+          <t>Where can someone view a county highway as a line?(a) from the sky (b) map (c) cross counties by car (d) country (e) michigan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "he wasn't gay" indicates that Billy identifies as heterosexual, which is commonly referred to as "straight". The term "kooky" suggests that he has an unconventional or eccentric personality, but this does not affect his sexual orientation. Therefore, the correct answer is (c) straight, as it accurately reflects his sexual orientation in contrast to being gay. The other options (a, b, d, e) do not specifically relate to sexual orientation, making (c) the most appropriate choice.. The correct answer is C</t>
+          <t xml:space="preserve"> A map provides a two-dimensional representation of geographical features, including highways, allowing someone to see the layout and route of a county highway as a line. While viewing from the sky (option a) may also show the highway, it would not provide the same detailed overview or specific route information as a map. Options c, d, and e do not directly represent a medium for viewing highways as lines. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Where would a sofabed be used only for guests?(a) sitting room (b) living room (c) basement (d) dinning roam (e) spare room</t>
+          <t>Where should an excavation never take place?(a) construction site (b) cemetary (c) building (d) city (e) archeological site</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A sofabed is typically used as a sleeping space for guests who do not have a dedicated bedroom. The term "spare room" specifically refers to an additional bedroom that is not regularly occupied and is often set aside for visitors. In contrast, the sitting room, living room, basement, and dining room are more commonly used for everyday activities and entertainment, making them less suitable for a sofabed designated solely for guest use. Therefore, the spare room is the most appropriate choice for this purpose.. The correct answer is E</t>
+          <t xml:space="preserve"> Excavations in a cemetery are generally considered inappropriate and disrespectful as they involve disturbing the resting places of the deceased. Cemeteries are designated areas for burials and should be treated with reverence. Unlike construction sites, buildings, cities, or archaeological sites, where excavations may serve a purpose such as development, research, or discovery, cemeteries hold significant cultural and emotional importance, making excavation there unacceptable. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>What does someone gain from getting divorce?(a) poorer (b) sadness (c) depression (d) tears (e) freedom</t>
+          <t>What does moving cars entail?(a) driving (b) road (c) getting tired (d) accidents (e) ticket</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> While a divorce can lead to negative emotions and financial implications, one of the primary outcomes for many individuals is the sense of freedom it provides. This freedom can manifest as the ability to make independent choices, pursue personal goals, and escape an unhappy or unhealthy relationship. In this context, "freedom" represents the opportunity to lead a life that aligns more closely with one's personal values and desires, which can be a significant positive aspect of the divorce process.. The correct answer is E</t>
+          <t xml:space="preserve"> Moving cars primarily involves the action of driving, which is the process of operating a vehicle to transport it from one place to another. While the other options may relate to aspects of driving or the context of vehicles, they do not directly represent the core activity involved in moving cars. For instance, "road" refers to the infrastructure used for driving, "getting tired" may relate to the driver’s condition, "accidents" are potential outcomes of driving, and "ticket" refers to a penalty that can occur due to traffic violations. Thus, the most accurate answer that directly answers the question is (a) driving. The correct answer is a</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>What is an object that is not used in a common room likely to be?(a) irregular (b) elite (c) rare (d) special (e) personal</t>
+          <t>Where is it safer to keep marmot?(a) home (b) vancouver island (c) cage (d) united states (e) north america</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An object that is not used in a common room is likely to be personal because common rooms are shared spaces where items are typically used by many people. Personal objects, on the other hand, are often unique to an individual and may not be suitable or necessary for shared use. Items that are personal reflect individual preferences, needs, or private use, distinguishing them from the common items found in shared environments.. The correct answer is E</t>
+          <t xml:space="preserve"> Keeping a marmot in a cage provides a controlled environment that protects it from potential predators and environmental hazards. A cage can be specifically designed to meet the needs of the marmot, ensuring its safety and well-being. While other options like "home" might imply that it is kept indoors, it does not guarantee the same level of security and protection as a properly designed cage. Locations like Vancouver Island, the United States, and North America refer to geographical areas that do not inherently provide safety for the animal, whereas a cage directly addresses its safety concerns. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The prisoner would often escape but he was also just as often what?(a) be imprisoned (b) being caught (c) being trapped (d) captured (e) stay in</t>
+          <t>What would someone wear to protect themselves from a cannon?(a) ungulate (b) bomber (c) body armor (d) tank (e) hat</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "just as often" implies that the frequency of escaping is matched by the frequency of another action. Option (b) "being caught" directly reflects the cyclical nature of a prisoner's experience—escaping and subsequently being caught is a logical progression. While "captured" (d) could also be a possible answer, "being caught" better captures the ongoing nature of the prisoner's situation and is more commonly used in this context to describe the act of being apprehended after an escape. Therefore, option (b) provides the clearest and most direct answer to the question.. The correct answer is B</t>
+          <t xml:space="preserve"> Body armor is specifically designed to provide protection to individuals from various forms of physical harm, including projectiles and blasts. In the context of a cannon, which fires large explosive projectiles, body armor would offer the best chance of minimizing injury. The other options do not provide adequate protection: an ungulate (a type of animal), a bomber (which refers to an aircraft or a person who bombs), a tank (a military vehicle), and a hat are not designed for personal defense against such weaponry. Therefore, body armor is the most logical choice for protection against the threat posed by a cannon. The correct answer is c</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>What does every person have that not every wolf has?(a) human intelligence (b) hide (c) name (d) mouth (e) heart</t>
+          <t>If you see a fox in a southern delta state, where are you?(a) hen house (b) louisiana (c) south carolina (d) wildlife (e) tennessee</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Every human being is given a name, which is a fundamental aspect of human identity and social interaction. While wolves may have ways of communicating and may be identified by pack members, they do not possess names in the same way that humans do. The concept of a name is a uniquely human construct that is tied to our culture, language, and society, distinguishing humans from wolves and other animals.. The correct answer is C</t>
+          <t xml:space="preserve"> The term "southern delta state" refers to a state located in the southern region of the United States that is part of the Mississippi River Delta. Louisiana is the most prominent state associated with the delta region due to its geographical location and significance in the delta ecosystem. While South Carolina and Tennessee are southern states, they do not have the same direct connection to the delta. A fox is commonly found in wildlife habitats, but the specific mention of a "southern delta state" makes Louisiana the most appropriate answer. The correct answer is b</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Joe lived skating.  It was very Zen to him.  He was calm and steady.   He could feel the wind.  He loved to do what?(a) increased heart rate (b) injury (c) might fall (d) run (e) move fast</t>
+          <t>What do you do to make sure that you are remembering?(a) bad time (b) closing eyes (c) answering question (d) stopping to think (e) forgetting</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The context of the question indicates that Joe finds skating to be a calming and enjoyable activity, where he feels the wind and maintains a steady demeanor. The phrase "he loved to do" suggests that Joe takes pleasure in the action associated with skating. Among the options provided, "move fast" (option e) aligns with the experience of skating, which typically involves speed and fluidity. The other options either relate to negative experiences (like injury or the possibility of falling) or do not directly correlate with the act of skating itself (like running). Therefore, the correct answer is e, as it captures the essence of the joy and experience Joe derives from skating.. The correct answer is E</t>
+          <t xml:space="preserve"> Stopping to think allows you to actively engage with the information you are trying to recall. This process involves reflecting on what you have learned, organizing your thoughts, and making connections, which enhances memory retention. In contrast, options like "forgetting" or "bad time" do not contribute positively to memory, and while "closing eyes" may help some people focus, it does not guarantee memory recall. "Answering question" can be helpful, but it is often part of the process that follows after you have stopped to think and organize your thoughts. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>What southern area not in the US are you  likely to find a marmoset?(a) latin america (b) mountains (c) burrow (d) home (e) new hampshire</t>
+          <t>He was a man with many loose morals, but when it came to his wife he was always what?(a) compact (b) discreet (c) unfaithful (d) faithful (e) close fitting</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marmosets are small primates that are native to South America, specifically found in countries such as Brazil, Colombia, and Paraguay. Latin America encompasses these regions and is the only option that accurately represents the natural habitat of marmosets outside of the United States. The other options either refer to general concepts (mountains, burrow, home) or a specific location in the U.S. (New Hampshire), which is not relevant to the distribution of marmosets. Therefore, option (a) Latin America is the correct answer.. The correct answer is A</t>
+          <t xml:space="preserve"> The phrase "many loose morals" implies that the man may engage in behaviors that are generally considered unethical or promiscuous. However, the use of "but" in the question suggests a contrast to his otherwise questionable character. The correct answer, "faithful," indicates that despite his loose morals, he remains loyal to his wife, which highlights a complexity in his character. This contrast reinforces the idea that he has a specific commitment to his wife that is not affected by his other moral failings. The correct answer is d</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The man was riding bike very quickly, clearly he had to what?(a) run away (b) get somewhere (c) falling down (d) accident (e) pleasure</t>
+          <t>The bald eagle made a nest in a tree surrounded by others, it made it's home in a vast what?(a) u.s (b) forrest (c) grand canyon (d) park (e) canada</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The phrase "riding bike very quickly" suggests that the man is likely in a hurry or has a specific destination in mind. Option (b) "get somewhere" aligns with the idea of urgency and purpose in his fast riding. While options (a) "run away" and (e) "pleasure" could also be plausible, they do not capture the primary implication of needing to reach a destination quickly, which is the most straightforward interpretation of the scenario. Options (c) "falling down" and (d) "accident" are negative outcomes and do not fit the context of the question, which focuses on the man's intention for riding quickly. Thus, option (b) is the most logical choice.. The correct answer is B</t>
+          <t xml:space="preserve"> The bald eagle typically builds its nests in large trees, often in forested areas near water sources. The context of the question indicates that the eagle is surrounded by other trees, which suggests a forest environment. While the U.S., Canada, and parks can contain forests, the term "forest" directly describes the habitat where bald eagles are commonly found nesting. Therefore, the most suitable answer is "forrest." The correct answer is b</t>
         </is>
       </c>
     </row>
